--- a/result/chenting_20151124_noon_2.mat.xlsx
+++ b/result/chenting_20151124_noon_2.mat.xlsx
@@ -397,7 +397,7 @@
         <v>0.1192333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4477620720863342</v>
+        <v>0.1818171143531799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -405,7 +405,7 @@
         <v>0.1490888888888889</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4651076197624207</v>
+        <v>0.1515710651874542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -413,7 +413,7 @@
         <v>0.1775633333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4409182667732239</v>
+        <v>0.3017697334289551</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -421,7 +421,7 @@
         <v>0.1945238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414674699306488</v>
+        <v>0.1352823078632355</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -429,7 +429,7 @@
         <v>0.2202944444444445</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4314509034156799</v>
+        <v>0.1838996112346649</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -437,7 +437,7 @@
         <v>0.2505045454545454</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4536822438240051</v>
+        <v>0.5398855209350586</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -445,7 +445,7 @@
         <v>0.277601282051282</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4022453427314758</v>
+        <v>0.3615258932113647</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -453,7 +453,7 @@
         <v>0.3046344444444445</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4230108261108398</v>
+        <v>0.1079281345009804</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -461,7 +461,7 @@
         <v>0.3257166666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4351632595062256</v>
+        <v>0.1621660590171814</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -469,7 +469,7 @@
         <v>0.3341956140350877</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4156570434570312</v>
+        <v>0.2664020955562592</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -477,7 +477,7 @@
         <v>0.3416626984126985</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4469125866889954</v>
+        <v>0.1324780285358429</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -485,7 +485,7 @@
         <v>0.345522463768116</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4664128422737122</v>
+        <v>0.07880533486604691</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -493,7 +493,7 @@
         <v>0.3481466666666668</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5434542298316956</v>
+        <v>0.1550439298152924</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -501,7 +501,7 @@
         <v>0.3549956790123457</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4980219006538391</v>
+        <v>0.1629309803247452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -509,7 +509,7 @@
         <v>0.363182183908046</v>
       </c>
       <c r="B16" t="n">
-        <v>0.403984010219574</v>
+        <v>0.1132509186863899</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -517,7 +517,7 @@
         <v>0.3764873563218391</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4420046806335449</v>
+        <v>0.2753986418247223</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -525,7 +525,7 @@
         <v>0.3897994252873563</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5273435711860657</v>
+        <v>0.139961764216423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -533,7 +533,7 @@
         <v>0.4014954022988506</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5048666000366211</v>
+        <v>0.150313138961792</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -541,7 +541,7 @@
         <v>0.4092097701149425</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5439929962158203</v>
+        <v>0.2968882620334625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -549,7 +549,7 @@
         <v>0.4150586206896552</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5560246109962463</v>
+        <v>0.3805830180644989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -557,7 +557,7 @@
         <v>0.4200925287356322</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6064767837524414</v>
+        <v>0.1733883917331696</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -565,7 +565,7 @@
         <v>0.4210741379310345</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4948493242263794</v>
+        <v>0.4173516631126404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -573,7 +573,7 @@
         <v>0.4212034482758621</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5398772358894348</v>
+        <v>0.2841350436210632</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -581,7 +581,7 @@
         <v>0.4191971264367816</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5152290463447571</v>
+        <v>0.3415307402610779</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -589,7 +589,7 @@
         <v>0.4154270114942529</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5412349700927734</v>
+        <v>0.4774583876132965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -597,7 +597,7 @@
         <v>0.4107833333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4719246029853821</v>
+        <v>0.3395915627479553</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -605,7 +605,7 @@
         <v>0.4077212643678161</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4675551652908325</v>
+        <v>0.1531626880168915</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -613,7 +613,7 @@
         <v>0.4036827586206897</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4651807546615601</v>
+        <v>0.3758100271224976</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -621,7 +621,7 @@
         <v>0.398082183908046</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4662138819694519</v>
+        <v>0.06984715163707733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -629,7 +629,7 @@
         <v>0.3926948275862069</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4647676348686218</v>
+        <v>0.02759233117103577</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -637,7 +637,7 @@
         <v>0.3866890804597701</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4603748321533203</v>
+        <v>0.3619967103004456</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -645,7 +645,7 @@
         <v>0.3810270114942528</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4807892441749573</v>
+        <v>0.3226334154605865</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -653,7 +653,7 @@
         <v>0.37675</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5036975741386414</v>
+        <v>0.258768767118454</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -661,7 +661,7 @@
         <v>0.3732701149425287</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4978893995285034</v>
+        <v>0.1000314950942993</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -669,7 +669,7 @@
         <v>0.3685293103448276</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5163142085075378</v>
+        <v>0.350250244140625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -677,7 +677,7 @@
         <v>0.36195</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4792385101318359</v>
+        <v>0.3821181058883667</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -685,7 +685,7 @@
         <v>0.3557885057471264</v>
       </c>
       <c r="B38" t="n">
-        <v>0.507073700428009</v>
+        <v>0.4972405433654785</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -693,7 +693,7 @@
         <v>0.3512775862068965</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5085065960884094</v>
+        <v>0.09874233603477478</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -701,7 +701,7 @@
         <v>0.3469396551724138</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5362070202827454</v>
+        <v>0.316092848777771</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -709,7 +709,7 @@
         <v>0.3414729885057471</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4903884530067444</v>
+        <v>0.2651263475418091</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -717,7 +717,7 @@
         <v>0.3355672413793104</v>
       </c>
       <c r="B42" t="n">
-        <v>0.529959499835968</v>
+        <v>0.2034457921981812</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -725,7 +725,7 @@
         <v>0.3307109195402299</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5289589762687683</v>
+        <v>0.1710414290428162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -733,7 +733,7 @@
         <v>0.3262729885057471</v>
       </c>
       <c r="B44" t="n">
-        <v>0.570508599281311</v>
+        <v>0.08616465330123901</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -741,7 +741,7 @@
         <v>0.3219293103448275</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4944572448730469</v>
+        <v>0.1593343913555145</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -749,7 +749,7 @@
         <v>0.3185563218390804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.566834032535553</v>
+        <v>0.2715255916118622</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -757,7 +757,7 @@
         <v>0.3134724137931034</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4989668726921082</v>
+        <v>0.1120096892118454</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -765,7 +765,7 @@
         <v>0.308530459770115</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5180470943450928</v>
+        <v>0.4157422780990601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -773,7 +773,7 @@
         <v>0.3077706896551724</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5118057131767273</v>
+        <v>0.3805764615535736</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -781,7 +781,7 @@
         <v>0.3085097701149425</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4419546127319336</v>
+        <v>0.1232827827334404</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -789,7 +789,7 @@
         <v>0.311433908045977</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4692742824554443</v>
+        <v>0.3387994468212128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -797,7 +797,7 @@
         <v>0.3189</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5220054984092712</v>
+        <v>0.3063358664512634</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -805,7 +805,7 @@
         <v>0.327998275862069</v>
       </c>
       <c r="B53" t="n">
-        <v>0.467549204826355</v>
+        <v>0.3109322488307953</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -813,7 +813,7 @@
         <v>0.3391028735632184</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5498827695846558</v>
+        <v>0.0674973726272583</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -821,7 +821,7 @@
         <v>0.3508040229885057</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4696718454360962</v>
+        <v>0.3821180760860443</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -829,7 +829,7 @@
         <v>0.3632316091954023</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5150587558746338</v>
+        <v>0.1075694337487221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -837,7 +837,7 @@
         <v>0.3738252873563218</v>
       </c>
       <c r="B57" t="n">
-        <v>0.480891227722168</v>
+        <v>0.4322045147418976</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -845,7 +845,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4773960113525391</v>
+        <v>0.1030521243810654</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -853,7 +853,7 @@
         <v>0.3894775862068965</v>
       </c>
       <c r="B59" t="n">
-        <v>0.527585506439209</v>
+        <v>0.09374061226844788</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -861,7 +861,7 @@
         <v>0.3941091954022988</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4419551491737366</v>
+        <v>0.381599098443985</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -869,7 +869,7 @@
         <v>0.3961287356321839</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4859999418258667</v>
+        <v>0.1276885271072388</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -877,7 +877,7 @@
         <v>0.3981137931034483</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4247808456420898</v>
+        <v>0.3040050566196442</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -885,7 +885,7 @@
         <v>0.4000195402298851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3934047222137451</v>
+        <v>0.01231702417135239</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -893,7 +893,7 @@
         <v>0.4024931034482758</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4593873620033264</v>
+        <v>0.00267038494348526</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -901,7 +901,7 @@
         <v>0.4048022988505747</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4096485376358032</v>
+        <v>0.3546232879161835</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -909,7 +909,7 @@
         <v>0.4094201149425287</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4492875933647156</v>
+        <v>0.1032762601971626</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -917,7 +917,7 @@
         <v>0.4150580459770114</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4266385436058044</v>
+        <v>0.1064039617776871</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -925,7 +925,7 @@
         <v>0.419585632183908</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4575664401054382</v>
+        <v>0.2127067148685455</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -933,7 +933,7 @@
         <v>0.4244086206896551</v>
       </c>
       <c r="B69" t="n">
-        <v>0.485287606716156</v>
+        <v>0.1365406811237335</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -941,7 +941,7 @@
         <v>0.4298201149425287</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4513450264930725</v>
+        <v>0.06395316869020462</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -949,7 +949,7 @@
         <v>0.4349988505747126</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4789120554924011</v>
+        <v>0.102270171046257</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -957,7 +957,7 @@
         <v>0.4376879310344827</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4059752821922302</v>
+        <v>0.3192194998264313</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -965,7 +965,7 @@
         <v>0.4388293103448275</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5239315032958984</v>
+        <v>0.4285381436347961</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -973,7 +973,7 @@
         <v>0.4388114942528736</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4904795289039612</v>
+        <v>0.4263841211795807</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -981,7 +981,7 @@
         <v>0.4371045977011494</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4842736124992371</v>
+        <v>0.04681607335805893</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -989,7 +989,7 @@
         <v>0.4379580459770114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5085882544517517</v>
+        <v>0.1836139857769012</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -997,7 +997,7 @@
         <v>0.4383160919540229</v>
       </c>
       <c r="B77" t="n">
-        <v>0.482215404510498</v>
+        <v>0.1804414093494415</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>0.4376689655172414</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5055917501449585</v>
+        <v>0.4236172139644623</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>0.4391545977011494</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5623593926429749</v>
+        <v>0.5073686242103577</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>0.4421057471264367</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5636380314826965</v>
+        <v>0.4285992980003357</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>0.4450890804597701</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5267227292060852</v>
+        <v>0.2956179082393646</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>0.4464643678160919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4855736494064331</v>
+        <v>0.274142324924469</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>0.447966091954023</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5057524442672729</v>
+        <v>0.4691673815250397</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>0.449382183908046</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5257399678230286</v>
+        <v>0.4086931645870209</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>0.4530155172413792</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5336979031562805</v>
+        <v>0.4557912349700928</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>0.4590120689655172</v>
       </c>
       <c r="B86" t="n">
-        <v>0.555134654045105</v>
+        <v>0.4367924630641937</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>0.4668396551724138</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5482800602912903</v>
+        <v>0.1879012882709503</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>0.4764936781609196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.539370059967041</v>
+        <v>0.08381279557943344</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>0.48935</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5611665844917297</v>
+        <v>0.4170224368572235</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>0.5043419540229885</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4641716480255127</v>
+        <v>0.1510129272937775</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>0.5202988505747126</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5489537119865417</v>
+        <v>0.1918183565139771</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>0.5346902298850574</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5001251697540283</v>
+        <v>0.4638127386569977</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.5464528735632185</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5160188674926758</v>
+        <v>0.5374236106872559</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>0.5563712643678161</v>
       </c>
       <c r="B94" t="n">
-        <v>0.60499507188797</v>
+        <v>0.4014261364936829</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.5641028735632183</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5920212268829346</v>
+        <v>0.5648803114891052</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>0.5722787356321839</v>
       </c>
       <c r="B96" t="n">
-        <v>0.533058762550354</v>
+        <v>0.4572354853153229</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>0.578233908045977</v>
       </c>
       <c r="B97" t="n">
-        <v>0.548438549041748</v>
+        <v>0.2579291760921478</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>0.5825206896551723</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4540859460830688</v>
+        <v>0.4098609685897827</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>0.5899620689655172</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5262825489044189</v>
+        <v>0.524053156375885</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>0.5981896551724138</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5978745222091675</v>
+        <v>0.4958714246749878</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>0.6104068965517243</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5593535304069519</v>
+        <v>0.5113358497619629</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>0.6255580459770115</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5368531346321106</v>
+        <v>0.4313921928405762</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>0.6424011494252875</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5238564014434814</v>
+        <v>0.5806485414505005</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>0.661157471264368</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6395573616027832</v>
+        <v>0.3278555572032928</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>0.6803965517241379</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6723219156265259</v>
+        <v>0.3838608264923096</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>0.701371264367816</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6413356065750122</v>
+        <v>0.6702824831008911</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>0.722021264367816</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5932438969612122</v>
+        <v>0.2783023118972778</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>0.7407643678160918</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6887140274047852</v>
+        <v>0.567550003528595</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>0.7568729885057469</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7176526784896851</v>
+        <v>0.2328744828701019</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>0.7710499999999998</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6452265381813049</v>
+        <v>0.2392877042293549</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>0.7847103448275861</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6863057017326355</v>
+        <v>0.5140788555145264</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>0.7973994252873561</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5573745369911194</v>
+        <v>0.3101474642753601</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>0.8095224137931031</v>
       </c>
       <c r="B113" t="n">
-        <v>0.739770233631134</v>
+        <v>0.342594712972641</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>0.8189488505747122</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6076472997665405</v>
+        <v>0.4704161286354065</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>0.826033333333333</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5691171884536743</v>
+        <v>0.4417365193367004</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>0.8325080459770111</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5091471076011658</v>
+        <v>0.4083073139190674</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>0.8392218390804594</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5630764961242676</v>
+        <v>0.1676355600357056</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>0.8445787356321836</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5162938833236694</v>
+        <v>0.3021760582923889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>0.8501488505747122</v>
       </c>
       <c r="B119" t="n">
-        <v>0.579146683216095</v>
+        <v>0.3543829917907715</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>0.8545712643678158</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6292187571525574</v>
+        <v>0.3314180672168732</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>0.8612999999999997</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5820541381835938</v>
+        <v>0.3120497167110443</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>0.8701563218390803</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5950875878334045</v>
+        <v>0.5368848443031311</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>0.8814637931034481</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628174901008606</v>
+        <v>0.4485742151737213</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>0.8945580459770115</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6155992150306702</v>
+        <v>0.2989055216312408</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>0.9064333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6872128844261169</v>
+        <v>0.5425727367401123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>0.9214310344827588</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6185081601142883</v>
+        <v>0.4869047105312347</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>0.9378908045977012</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7320334315299988</v>
+        <v>0.7276768088340759</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>0.9507597701149425</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6893367767333984</v>
+        <v>0.696402907371521</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>0.9623103448275863</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6755409836769104</v>
+        <v>0.3966878056526184</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>0.9707614942528736</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7158623337745667</v>
+        <v>0.5355775356292725</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>0.9771229885057473</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6491061449050903</v>
+        <v>0.8069232702255249</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>0.9816954022988508</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7116610407829285</v>
+        <v>0.513822078704834</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>0.9845718390804601</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6459050178527832</v>
+        <v>0.7462020516395569</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>0.9855333333333337</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6219220161437988</v>
+        <v>0.8062611222267151</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>0.9854954022988509</v>
       </c>
       <c r="B135" t="n">
-        <v>0.665378212928772</v>
+        <v>0.9008333683013916</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>0.9854574712643681</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5681135058403015</v>
+        <v>0.3730764091014862</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>0.985457471264368</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7933804392814636</v>
+        <v>0.768842875957489</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>0.9850586206896553</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6686767339706421</v>
+        <v>0.8541431427001953</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>0.9846597701149429</v>
       </c>
       <c r="B139" t="n">
-        <v>0.69672030210495</v>
+        <v>0.6711229681968689</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>0.9842609195402302</v>
       </c>
       <c r="B140" t="n">
-        <v>0.664804995059967</v>
+        <v>0.7667050361633301</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>0.9838620689655176</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6996179223060608</v>
+        <v>0.471477210521698</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>0.9834632183908051</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6933435201644897</v>
+        <v>0.5925911068916321</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>0.9823982758620694</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6756652593612671</v>
+        <v>0.5712923407554626</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>0.9790908045977016</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6801385283470154</v>
+        <v>0.8956668376922607</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>0.9756959770114946</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6274689435958862</v>
+        <v>0.7711167335510254</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>0.9716477011494256</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6334811449050903</v>
+        <v>0.7812212109565735</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>0.9681885057471267</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7653802037239075</v>
+        <v>0.4975894689559937</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>0.9650545977011497</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6274186968803406</v>
+        <v>0.8314697742462158</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>0.9611781609195404</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6681733727455139</v>
+        <v>0.6189403533935547</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>0.9573017241379311</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7617295980453491</v>
+        <v>0.777241587638855</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>0.9562775862068966</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6775632500648499</v>
+        <v>0.4613585472106934</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>0.9555758620689656</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5766347646713257</v>
+        <v>0.7130938172340393</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>0.9560137931034484</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6706019043922424</v>
+        <v>0.7535004019737244</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>0.956451724137931</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6345515251159668</v>
+        <v>0.6553775668144226</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>0.9559201149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6932213306427002</v>
+        <v>0.7266900539398193</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>0.9565091954022986</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6805341243743896</v>
+        <v>0.8028728365898132</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>0.9572505747126434</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6175540089607239</v>
+        <v>0.5615448355674744</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>0.9577637931034481</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7082298994064331</v>
+        <v>0.6715022325515747</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>0.9582770114942526</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6787776350975037</v>
+        <v>0.7315425276756287</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>0.9587902298850571</v>
       </c>
       <c r="B160" t="n">
-        <v>0.630715548992157</v>
+        <v>0.6251569986343384</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>0.9593034482758618</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6798010468482971</v>
+        <v>0.7224099636077881</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>0.9598166666666663</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6390186548233032</v>
+        <v>0.433139443397522</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>0.9601017241379307</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6982337236404419</v>
+        <v>0.3656870126724243</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>0.9601396551724134</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6677659153938293</v>
+        <v>0.9101361036300659</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>0.9601775862068961</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7212629914283752</v>
+        <v>0.6788593530654907</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>0.960177586206896</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6417858600616455</v>
+        <v>0.4498383104801178</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>0.9605764367816085</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6817668080329895</v>
+        <v>0.6831706762313843</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>0.9609752873563213</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7584636211395264</v>
+        <v>0.5023505091667175</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>0.9613741379310339</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6770789623260498</v>
+        <v>0.5743501782417297</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>0.9617729885057467</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7145039439201355</v>
+        <v>0.8443569540977478</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>0.9621718390804592</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7034258842468262</v>
+        <v>0.6214978098869324</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>0.9632367816091949</v>
       </c>
       <c r="B172" t="n">
-        <v>0.729022204875946</v>
+        <v>0.6299330592155457</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>0.9665442528735627</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6612429022789001</v>
+        <v>0.6130586862564087</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>0.9699390804597696</v>
       </c>
       <c r="B174" t="n">
-        <v>0.621406614780426</v>
+        <v>0.786913275718689</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>0.9739873563218386</v>
       </c>
       <c r="B175" t="n">
-        <v>0.712592601776123</v>
+        <v>0.441140204668045</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>0.9780735632183903</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7323565483093262</v>
+        <v>0.5587030649185181</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>0.9821005747126432</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7398375868797302</v>
+        <v>0.5463282465934753</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>0.9867942528735628</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7298415303230286</v>
+        <v>0.7310089468955994</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>0.9914879310344824</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7213302254676819</v>
+        <v>0.6643658876419067</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>0.9935954022988503</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7063784599304199</v>
+        <v>0.8966293334960938</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>0.9953804597701148</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6465245485305786</v>
+        <v>0.62093186378479</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>0.9960258620689654</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6651080846786499</v>
+        <v>0.6926753520965576</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>0.9966712643678161</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6436049938201904</v>
+        <v>0.7831560969352722</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>0.9974500000000001</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5981735587120056</v>
+        <v>1.00977635383606</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6328228116035461</v>
+        <v>0.7843290567398071</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B186" t="n">
-        <v>0.6954477429389954</v>
+        <v>0.8131452798843384</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6327729821205139</v>
+        <v>0.754403829574585</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>0.9973362068965518</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6758400201797485</v>
+        <v>0.5382835268974304</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>0.9971655172413794</v>
       </c>
       <c r="B189" t="n">
-        <v>0.712090790271759</v>
+        <v>0.683208703994751</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>0.9969948275862069</v>
       </c>
       <c r="B190" t="n">
-        <v>0.616826057434082</v>
+        <v>0.6708558797836304</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>0.9968241379310345</v>
       </c>
       <c r="B191" t="n">
-        <v>0.7105761170387268</v>
+        <v>0.687812864780426</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>0.996653448275862</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6300894618034363</v>
+        <v>0.8225657343864441</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>0.9964827586206895</v>
       </c>
       <c r="B193" t="n">
-        <v>0.6843163967132568</v>
+        <v>0.7732637524604797</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>0.9963120689655171</v>
       </c>
       <c r="B194" t="n">
-        <v>0.6611892580986023</v>
+        <v>0.5165640115737915</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B195" t="n">
-        <v>0.6802752017974854</v>
+        <v>0.7358189821243286</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B196" t="n">
-        <v>0.6130164861679077</v>
+        <v>0.8016316890716553</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6446862816810608</v>
+        <v>0.6630082726478577</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6638690233230591</v>
+        <v>0.8764322400093079</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>0.9941959770114939</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7135001420974731</v>
+        <v>0.8151054382324219</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>0.9898321839080456</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5765721797943115</v>
+        <v>0.6540159583091736</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>0.9824580459770111</v>
       </c>
       <c r="B201" t="n">
-        <v>0.6259405016899109</v>
+        <v>0.7002816796302795</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>0.9722356321839077</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6883150935173035</v>
+        <v>0.8038168549537659</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>0.958213793103448</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7007550001144409</v>
+        <v>0.7387210130691528</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>0.9406183908045974</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6803063154220581</v>
+        <v>0.7496540546417236</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>0.9198339080459769</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5704677104949951</v>
+        <v>0.6004557609558105</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>0.8984367816091953</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6039159893989563</v>
+        <v>0.7848827242851257</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>0.8757454022988506</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7057269215583801</v>
+        <v>0.8624184131622314</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>0.8518149425287356</v>
       </c>
       <c r="B208" t="n">
-        <v>0.7307687401771545</v>
+        <v>0.6785311698913574</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>0.8269068965517241</v>
       </c>
       <c r="B209" t="n">
-        <v>0.7015970349311829</v>
+        <v>0.6651422381401062</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>0.8035959770114942</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7633213996887207</v>
+        <v>0.8356326818466187</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>0.7803781609195404</v>
       </c>
       <c r="B211" t="n">
-        <v>0.6472713351249695</v>
+        <v>0.7253082990646362</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>0.758893103448276</v>
       </c>
       <c r="B212" t="n">
-        <v>0.6509171724319458</v>
+        <v>0.7167822122573853</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>0.7361936781609195</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6055678129196167</v>
+        <v>0.7775554656982422</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>0.7123706896551726</v>
       </c>
       <c r="B214" t="n">
-        <v>0.6147254109382629</v>
+        <v>0.8028520941734314</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>0.6886798850574714</v>
       </c>
       <c r="B215" t="n">
-        <v>0.6407342553138733</v>
+        <v>0.7797694206237793</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>0.665223563218391</v>
       </c>
       <c r="B216" t="n">
-        <v>0.6712727546691895</v>
+        <v>0.7129427194595337</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>0.6412798850574714</v>
       </c>
       <c r="B217" t="n">
-        <v>0.637445330619812</v>
+        <v>0.782052755355835</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>0.6168591954022989</v>
       </c>
       <c r="B218" t="n">
-        <v>0.6907706260681152</v>
+        <v>0.7211107611656189</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>0.5911747126436782</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5910578370094299</v>
+        <v>0.7428134679794312</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>0.5640833333333333</v>
       </c>
       <c r="B220" t="n">
-        <v>0.6864892840385437</v>
+        <v>0.6829541921615601</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>0.5365281609195401</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5631454586982727</v>
+        <v>0.5960735678672791</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>0.5076925287356322</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5664072632789612</v>
+        <v>0.5640954375267029</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>0.4796224137931034</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5147736668586731</v>
+        <v>0.5790206789970398</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>0.4527005747126436</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5637455582618713</v>
+        <v>0.3908854722976685</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>0.4249482758620689</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4935752153396606</v>
+        <v>0.3108680844306946</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>0.3971431034482759</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4172866940498352</v>
+        <v>0.3328434526920319</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>0.3714425287356322</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4803133010864258</v>
+        <v>0.3477126955986023</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>0.3492850574712644</v>
       </c>
       <c r="B228" t="n">
-        <v>0.4607019424438477</v>
+        <v>0.3525389134883881</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>0.3290091954022988</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5993415117263794</v>
+        <v>0.3911647796630859</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>0.3110758620689656</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5886516571044922</v>
+        <v>0.29909747838974</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>0.2952614942528736</v>
       </c>
       <c r="B231" t="n">
-        <v>0.540027916431427</v>
+        <v>0.4624267518520355</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>0.2828270114942529</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4697467088699341</v>
+        <v>0.3600356876850128</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>0.2738689655172413</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5726703405380249</v>
+        <v>0.2439795434474945</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>0.2676689655172413</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5863178372383118</v>
+        <v>0.4882315099239349</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>0.2606925287356321</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5128965377807617</v>
+        <v>0.4203372299671173</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>0.2571442528735631</v>
       </c>
       <c r="B236" t="n">
-        <v>0.6200677156448364</v>
+        <v>0.356918603181839</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>0.2558321839080459</v>
       </c>
       <c r="B237" t="n">
-        <v>0.4284812808036804</v>
+        <v>0.3633765876293182</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>0.2564333333333333</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5549651384353638</v>
+        <v>0.4195641279220581</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>0.2570103448275862</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5366724729537964</v>
+        <v>0.4788979887962341</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>0.2572574712643678</v>
       </c>
       <c r="B240" t="n">
-        <v>0.508958637714386</v>
+        <v>0.4119731187820435</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>0.2571114942528736</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5880367159843445</v>
+        <v>0.3484741151332855</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>0.2580396551724138</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5434518456459045</v>
+        <v>0.4687344133853912</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>0.259069540229885</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5831416845321655</v>
+        <v>0.3800718188285828</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>0.2603712643678161</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5494292378425598</v>
+        <v>0.3826101124286652</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>0.2611114942528736</v>
       </c>
       <c r="B245" t="n">
-        <v>0.512622594833374</v>
+        <v>0.3753969073295593</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>0.2618045977011495</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5195126533508301</v>
+        <v>0.3854788541793823</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>0.2635040229885058</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5468399524688721</v>
+        <v>0.4801901876926422</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>0.2667741379310345</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5618529319763184</v>
+        <v>0.4375867247581482</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>0.2711574712643679</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5443077683448792</v>
+        <v>0.3826526999473572</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>0.2762183908045978</v>
       </c>
       <c r="B250" t="n">
-        <v>0.496618926525116</v>
+        <v>0.3861334025859833</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>0.2823758620689656</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5392859578132629</v>
+        <v>0.3559762537479401</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>0.287098275862069</v>
       </c>
       <c r="B252" t="n">
-        <v>0.6272884607315063</v>
+        <v>0.4222655296325684</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>0.2906511494252874</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5665830373764038</v>
+        <v>0.4553743004798889</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>0.2955103448275862</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5057176947593689</v>
+        <v>0.3310782015323639</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>0.2995781609195402</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5639922022819519</v>
+        <v>0.3919780254364014</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>0.3015258620689655</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5769846439361572</v>
+        <v>0.433349221944809</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>0.3025810344827586</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4866434931755066</v>
+        <v>0.3547101616859436</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>0.3033201149425287</v>
       </c>
       <c r="B258" t="n">
-        <v>0.5374506711959839</v>
+        <v>0.4837576448917389</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>0.3050499999999999</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5718525052070618</v>
+        <v>0.3437252044677734</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>0.3079701149425287</v>
       </c>
       <c r="B260" t="n">
-        <v>0.5706521272659302</v>
+        <v>0.3730721473693848</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>0.3095856321839081</v>
       </c>
       <c r="B261" t="n">
-        <v>0.496401846408844</v>
+        <v>0.5089666843414307</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>0.3110752873563218</v>
       </c>
       <c r="B262" t="n">
-        <v>0.5261586308479309</v>
+        <v>0.4039203524589539</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>0.3126597701149425</v>
       </c>
       <c r="B263" t="n">
-        <v>0.5203263163566589</v>
+        <v>0.4380948841571808</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>0.3162821839080459</v>
       </c>
       <c r="B264" t="n">
-        <v>0.4571658968925476</v>
+        <v>0.4320847988128662</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>0.3174505747126437</v>
       </c>
       <c r="B265" t="n">
-        <v>0.477414608001709</v>
+        <v>0.3798453509807587</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>0.3185752873563217</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4455334544181824</v>
+        <v>0.4584685266017914</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>0.3186298850574712</v>
       </c>
       <c r="B267" t="n">
-        <v>0.4958609342575073</v>
+        <v>0.4690719544887543</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>0.3178798850574712</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4766077995300293</v>
+        <v>0.3466877639293671</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>0.3185172413793103</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4490812420845032</v>
+        <v>0.291229635477066</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>0.3173689655172414</v>
       </c>
       <c r="B270" t="n">
-        <v>0.4692302346229553</v>
+        <v>0.3180446624755859</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>0.3159672413793103</v>
       </c>
       <c r="B271" t="n">
-        <v>0.5356228351593018</v>
+        <v>0.3373913466930389</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>0.3152591954022989</v>
       </c>
       <c r="B272" t="n">
-        <v>0.519353449344635</v>
+        <v>0.2797353267669678</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>0.3147252873563219</v>
       </c>
       <c r="B273" t="n">
-        <v>0.5453804135322571</v>
+        <v>0.423837423324585</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>0.3146413793103449</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5564656257629395</v>
+        <v>0.3735070824623108</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>0.3148971264367817</v>
       </c>
       <c r="B275" t="n">
-        <v>0.6053472757339478</v>
+        <v>0.5403906106948853</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>0.3137994252873564</v>
       </c>
       <c r="B276" t="n">
-        <v>0.5411800146102905</v>
+        <v>0.4289023578166962</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>0.3128362068965518</v>
       </c>
       <c r="B277" t="n">
-        <v>0.4540417790412903</v>
+        <v>0.3039064407348633</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>0.3126620689655173</v>
       </c>
       <c r="B278" t="n">
-        <v>0.5852496027946472</v>
+        <v>0.5068072080612183</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>0.3118028735632185</v>
       </c>
       <c r="B279" t="n">
-        <v>0.5281732678413391</v>
+        <v>0.4427756071090698</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>0.3109833333333334</v>
       </c>
       <c r="B280" t="n">
-        <v>0.528955340385437</v>
+        <v>0.4968598783016205</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>0.3108379310344828</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5412740111351013</v>
+        <v>0.487529456615448</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>0.3102224137931036</v>
       </c>
       <c r="B282" t="n">
-        <v>0.5845467448234558</v>
+        <v>0.4417259097099304</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0.3093321839080461</v>
       </c>
       <c r="B283" t="n">
-        <v>0.6253803372383118</v>
+        <v>0.4006581604480743</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>0.3102247126436782</v>
       </c>
       <c r="B284" t="n">
-        <v>0.5899860858917236</v>
+        <v>0.4526301920413971</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>0.3109385057471264</v>
       </c>
       <c r="B285" t="n">
-        <v>0.5272210240364075</v>
+        <v>0.3876612484455109</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>0.3122454022988506</v>
       </c>
       <c r="B286" t="n">
-        <v>0.5554319024085999</v>
+        <v>0.4058419167995453</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>0.3141051724137931</v>
       </c>
       <c r="B287" t="n">
-        <v>0.5751862525939941</v>
+        <v>0.4798993170261383</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>0.3154666666666666</v>
       </c>
       <c r="B288" t="n">
-        <v>0.5489608645439148</v>
+        <v>0.4193809628486633</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>0.3162143678160919</v>
       </c>
       <c r="B289" t="n">
-        <v>0.5457674860954285</v>
+        <v>0.2620561122894287</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>0.3190258620689655</v>
       </c>
       <c r="B290" t="n">
-        <v>0.5984405279159546</v>
+        <v>0.2901303172111511</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>0.3218408045977012</v>
       </c>
       <c r="B291" t="n">
-        <v>0.4907302856445312</v>
+        <v>0.4259886741638184</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>0.3262310344827587</v>
       </c>
       <c r="B292" t="n">
-        <v>0.565392792224884</v>
+        <v>0.3553951680660248</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>0.331217816091954</v>
       </c>
       <c r="B293" t="n">
-        <v>0.5220680832862854</v>
+        <v>0.3317345976829529</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>0.3382902298850575</v>
       </c>
       <c r="B294" t="n">
-        <v>0.4861934781074524</v>
+        <v>0.4523971676826477</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>0.3475735632183908</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5035577416419983</v>
+        <v>0.5045717358589172</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>0.3560540229885058</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5339190363883972</v>
+        <v>0.3988152146339417</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>0.3633045977011494</v>
       </c>
       <c r="B297" t="n">
-        <v>0.5204141736030579</v>
+        <v>0.3018155992031097</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>0.3694396551724137</v>
       </c>
       <c r="B298" t="n">
-        <v>0.6007171869277954</v>
+        <v>0.4106104075908661</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>0.3738183908045976</v>
       </c>
       <c r="B299" t="n">
-        <v>0.5690566897392273</v>
+        <v>0.2393353283405304</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>0.3765758620689654</v>
       </c>
       <c r="B300" t="n">
-        <v>0.5743491053581238</v>
+        <v>0.4065479040145874</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>0.3761597701149424</v>
       </c>
       <c r="B301" t="n">
-        <v>0.523436427116394</v>
+        <v>0.388934999704361</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>0.3713614942528735</v>
       </c>
       <c r="B302" t="n">
-        <v>0.5480555295944214</v>
+        <v>0.3441083431243896</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>0.3649362068965517</v>
       </c>
       <c r="B303" t="n">
-        <v>0.524072527885437</v>
+        <v>0.3437411785125732</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>0.3601362068965517</v>
       </c>
       <c r="B304" t="n">
-        <v>0.5151553750038147</v>
+        <v>0.3231653571128845</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>0.3557362068965517</v>
       </c>
       <c r="B305" t="n">
-        <v>0.5177136063575745</v>
+        <v>0.3688797950744629</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>0.3524051724137931</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5608412623405457</v>
+        <v>0.388251006603241</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>0.3501833333333333</v>
       </c>
       <c r="B307" t="n">
-        <v>0.5231430530548096</v>
+        <v>0.4458997845649719</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>0.349837356321839</v>
       </c>
       <c r="B308" t="n">
-        <v>0.5094854235649109</v>
+        <v>0.2450417280197144</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>0.3508114942528736</v>
       </c>
       <c r="B309" t="n">
-        <v>0.5742428302764893</v>
+        <v>0.4161582887172699</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>0.353514367816092</v>
       </c>
       <c r="B310" t="n">
-        <v>0.5653959512710571</v>
+        <v>0.384013295173645</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>0.3559988505747127</v>
       </c>
       <c r="B311" t="n">
-        <v>0.5394300222396851</v>
+        <v>0.4111099541187286</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>0.3574603448275863</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5142093896865845</v>
+        <v>0.5687199234962463</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>0.3585114942528736</v>
       </c>
       <c r="B313" t="n">
-        <v>0.5781173706054688</v>
+        <v>0.4333871006965637</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>0.3587390804597701</v>
       </c>
       <c r="B314" t="n">
-        <v>0.5968685746192932</v>
+        <v>0.3403860628604889</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>0.3584551724137931</v>
       </c>
       <c r="B315" t="n">
-        <v>0.58383709192276</v>
+        <v>0.5401365160942078</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>0.3602528735632184</v>
       </c>
       <c r="B316" t="n">
-        <v>0.5439320206642151</v>
+        <v>0.4470372796058655</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>0.3619959770114943</v>
       </c>
       <c r="B317" t="n">
-        <v>0.5271296501159668</v>
+        <v>0.4525675475597382</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>0.3647971264367816</v>
       </c>
       <c r="B318" t="n">
-        <v>0.517467200756073</v>
+        <v>0.3584712147712708</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>0.3663063218390805</v>
       </c>
       <c r="B319" t="n">
-        <v>0.5216846466064453</v>
+        <v>0.3724924325942993</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>0.3682695402298851</v>
       </c>
       <c r="B320" t="n">
-        <v>0.6079017519950867</v>
+        <v>0.5142763257026672</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>0.3684683908045976</v>
       </c>
       <c r="B321" t="n">
-        <v>0.587857723236084</v>
+        <v>0.4878082275390625</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>0.3667149425287356</v>
       </c>
       <c r="B322" t="n">
-        <v>0.551942765712738</v>
+        <v>0.4540104568004608</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>0.3618091954022988</v>
       </c>
       <c r="B323" t="n">
-        <v>0.5788515210151672</v>
+        <v>0.3694227337837219</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>0.3539017241379311</v>
       </c>
       <c r="B324" t="n">
-        <v>0.594565212726593</v>
+        <v>0.4778323471546173</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>0.3472931034482759</v>
       </c>
       <c r="B325" t="n">
-        <v>0.6109544634819031</v>
+        <v>0.5512542724609375</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>0.3399229885057471</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5651369094848633</v>
+        <v>0.3914004862308502</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>0.3330436781609195</v>
       </c>
       <c r="B327" t="n">
-        <v>0.6001367568969727</v>
+        <v>0.4852302372455597</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>0.3287603448275862</v>
       </c>
       <c r="B328" t="n">
-        <v>0.603976309299469</v>
+        <v>0.4635675251483917</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>0.3274218390804597</v>
       </c>
       <c r="B329" t="n">
-        <v>0.587119996547699</v>
+        <v>0.2197405397891998</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>0.3305626436781609</v>
       </c>
       <c r="B330" t="n">
-        <v>0.58196622133255</v>
+        <v>0.4127499461174011</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>0.336785632183908</v>
       </c>
       <c r="B331" t="n">
-        <v>0.590915858745575</v>
+        <v>0.4164825975894928</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>0.3448701149425287</v>
       </c>
       <c r="B332" t="n">
-        <v>0.5662325620651245</v>
+        <v>0.5242259502410889</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>0.3526103448275861</v>
       </c>
       <c r="B333" t="n">
-        <v>0.5772244930267334</v>
+        <v>0.5163758397102356</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>0.3625454022988505</v>
       </c>
       <c r="B334" t="n">
-        <v>0.5914337635040283</v>
+        <v>0.4300494194030762</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>0.3702683908045977</v>
       </c>
       <c r="B335" t="n">
-        <v>0.6326940655708313</v>
+        <v>0.4215989112854004</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>0.3776982758620689</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5878420472145081</v>
+        <v>0.3257695138454437</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>0.3839097701149425</v>
       </c>
       <c r="B337" t="n">
-        <v>0.5650148391723633</v>
+        <v>0.5881546139717102</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>0.3885488505747127</v>
       </c>
       <c r="B338" t="n">
-        <v>0.6074889302253723</v>
+        <v>0.4066206514835358</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>0.3911132183908046</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5687114000320435</v>
+        <v>0.4068945646286011</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>0.3946333333333334</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6043049097061157</v>
+        <v>0.5592446327209473</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>0.3967741379310346</v>
       </c>
       <c r="B341" t="n">
-        <v>0.5728218555450439</v>
+        <v>0.4384810030460358</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>0.3984913793103448</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5996931791305542</v>
+        <v>0.4282365739345551</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>0.4020620689655173</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5983254313468933</v>
+        <v>0.5430455207824707</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>0.4043994252873564</v>
       </c>
       <c r="B344" t="n">
-        <v>0.5131605863571167</v>
+        <v>0.4428592622280121</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>0.4045977011494254</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5742391347885132</v>
+        <v>0.4183222353458405</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>0.4046873563218392</v>
       </c>
       <c r="B346" t="n">
-        <v>0.5285074710845947</v>
+        <v>0.5184893012046814</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>0.4031925287356322</v>
       </c>
       <c r="B347" t="n">
-        <v>0.5547739267349243</v>
+        <v>0.5061836838722229</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>0.4016649425287357</v>
       </c>
       <c r="B348" t="n">
-        <v>0.7170887589454651</v>
+        <v>0.5554948449134827</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>0.398296551724138</v>
       </c>
       <c r="B349" t="n">
-        <v>0.5857305526733398</v>
+        <v>0.5141134858131409</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>0.3946706896551724</v>
       </c>
       <c r="B350" t="n">
-        <v>0.6882014870643616</v>
+        <v>0.6073008179664612</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>0.3930637931034483</v>
       </c>
       <c r="B351" t="n">
-        <v>0.4958878755569458</v>
+        <v>0.4408467710018158</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>0.3938948275862069</v>
       </c>
       <c r="B352" t="n">
-        <v>0.5769519805908203</v>
+        <v>0.4924875497817993</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>0.3948137931034482</v>
       </c>
       <c r="B353" t="n">
-        <v>0.5851441621780396</v>
+        <v>0.5617210268974304</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>0.3956241379310345</v>
       </c>
       <c r="B354" t="n">
-        <v>0.5726576447486877</v>
+        <v>0.5530648827552795</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>0.3977988505747126</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5479655265808105</v>
+        <v>0.3438093066215515</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>0.400601724137931</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5969600677490234</v>
+        <v>0.6968107223510742</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>0.4023327586206896</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6637517809867859</v>
+        <v>0.6016316413879395</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>0.4026821839080459</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6300991177558899</v>
+        <v>0.7866865396499634</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>0.4000988505747126</v>
       </c>
       <c r="B359" t="n">
-        <v>0.6573493480682373</v>
+        <v>0.8086147308349609</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>0.3962137931034482</v>
       </c>
       <c r="B360" t="n">
-        <v>0.658821702003479</v>
+        <v>0.6166121363639832</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>0.392055172413793</v>
       </c>
       <c r="B361" t="n">
-        <v>0.7102715969085693</v>
+        <v>0.6406716108322144</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>0.3887643678160919</v>
       </c>
       <c r="B362" t="n">
-        <v>0.5939275026321411</v>
+        <v>0.6615086793899536</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>0.3856844827586206</v>
       </c>
       <c r="B363" t="n">
-        <v>0.6520358920097351</v>
+        <v>0.598468542098999</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>0.3853890804597701</v>
       </c>
       <c r="B364" t="n">
-        <v>0.6222960948944092</v>
+        <v>0.5658607482910156</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>0.3845540229885057</v>
       </c>
       <c r="B365" t="n">
-        <v>0.5165718793869019</v>
+        <v>0.659136176109314</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>0.385133908045977</v>
       </c>
       <c r="B366" t="n">
-        <v>0.7036399245262146</v>
+        <v>0.7458145618438721</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>0.3863442528735632</v>
       </c>
       <c r="B367" t="n">
-        <v>0.675665020942688</v>
+        <v>0.6354959011077881</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>0.3888724137931034</v>
       </c>
       <c r="B368" t="n">
-        <v>0.637550950050354</v>
+        <v>0.7251092195510864</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>0.3909229885057471</v>
       </c>
       <c r="B369" t="n">
-        <v>0.6045864820480347</v>
+        <v>0.6134165525436401</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>0.3922413793103448</v>
       </c>
       <c r="B370" t="n">
-        <v>0.68649822473526</v>
+        <v>0.5950809121131897</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>0.3928637931034483</v>
       </c>
       <c r="B371" t="n">
-        <v>0.6654484868049622</v>
+        <v>0.6755018830299377</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>0.3938977011494253</v>
       </c>
       <c r="B372" t="n">
-        <v>0.6311883926391602</v>
+        <v>0.5463643074035645</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>0.3975264367816091</v>
       </c>
       <c r="B373" t="n">
-        <v>0.6779878735542297</v>
+        <v>0.7356016039848328</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>0.4021775862068964</v>
       </c>
       <c r="B374" t="n">
-        <v>0.7326827645301819</v>
+        <v>0.6487781405448914</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>0.4074086206896551</v>
       </c>
       <c r="B375" t="n">
-        <v>0.8226962685585022</v>
+        <v>0.5829207301139832</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>0.4132494252873562</v>
       </c>
       <c r="B376" t="n">
-        <v>0.6813005208969116</v>
+        <v>0.7704740166664124</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>0.421101724137931</v>
       </c>
       <c r="B377" t="n">
-        <v>0.6812150478363037</v>
+        <v>0.7031999826431274</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>0.431155172413793</v>
       </c>
       <c r="B378" t="n">
-        <v>0.7296252250671387</v>
+        <v>0.6921477317810059</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>0.4405321839080459</v>
       </c>
       <c r="B379" t="n">
-        <v>0.720315158367157</v>
+        <v>0.7101521492004395</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>0.4462522988505747</v>
       </c>
       <c r="B380" t="n">
-        <v>0.7347112894058228</v>
+        <v>0.8119882941246033</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>0.4488499999999999</v>
       </c>
       <c r="B381" t="n">
-        <v>0.730316698551178</v>
+        <v>0.7951797246932983</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>0.4513022988505747</v>
       </c>
       <c r="B382" t="n">
-        <v>0.7766637206077576</v>
+        <v>0.6312346458435059</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>0.4552436781609195</v>
       </c>
       <c r="B383" t="n">
-        <v>0.7869237065315247</v>
+        <v>0.6773067712783813</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>0.4601977011494253</v>
       </c>
       <c r="B384" t="n">
-        <v>0.6868723630905151</v>
+        <v>0.6241599321365356</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>0.4652063218390805</v>
       </c>
       <c r="B385" t="n">
-        <v>0.7371807098388672</v>
+        <v>0.7360363602638245</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>0.4712402298850575</v>
       </c>
       <c r="B386" t="n">
-        <v>0.6385931968688965</v>
+        <v>0.7655391097068787</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>0.477216091954023</v>
       </c>
       <c r="B387" t="n">
-        <v>0.7245558500289917</v>
+        <v>0.6778237819671631</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>0.4865511494252874</v>
       </c>
       <c r="B388" t="n">
-        <v>0.6302127838134766</v>
+        <v>0.7429028749465942</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>0.4972798850574713</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7237480878829956</v>
+        <v>0.5242926478385925</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>0.506283908045977</v>
       </c>
       <c r="B390" t="n">
-        <v>0.67125004529953</v>
+        <v>0.7039355039596558</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>0.5118350574712643</v>
       </c>
       <c r="B391" t="n">
-        <v>0.6532590985298157</v>
+        <v>0.5800159573554993</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>0.5134890804597702</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6724882125854492</v>
+        <v>0.6442629098892212</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>0.5095408045977012</v>
       </c>
       <c r="B393" t="n">
-        <v>0.7103309035301208</v>
+        <v>0.8034963607788086</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>0.5064522988505746</v>
       </c>
       <c r="B394" t="n">
-        <v>0.6287476420402527</v>
+        <v>0.5934547781944275</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>0.502235632183908</v>
       </c>
       <c r="B395" t="n">
-        <v>0.6643053889274597</v>
+        <v>0.643797755241394</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>0.4992005747126437</v>
       </c>
       <c r="B396" t="n">
-        <v>0.7365538477897644</v>
+        <v>0.7888354063034058</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>0.494882183908046</v>
       </c>
       <c r="B397" t="n">
-        <v>0.7160441279411316</v>
+        <v>0.5052063465118408</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>0.4912431034482759</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7701506018638611</v>
+        <v>0.710183322429657</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>0.4904281609195403</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5966711640357971</v>
+        <v>0.6408098936080933</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>0.4912706896551725</v>
       </c>
       <c r="B400" t="n">
-        <v>0.6685953140258789</v>
+        <v>0.7832072973251343</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>0.4906672413793104</v>
       </c>
       <c r="B401" t="n">
-        <v>0.6722498536109924</v>
+        <v>0.7552847862243652</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>0.4868977011494254</v>
       </c>
       <c r="B402" t="n">
-        <v>0.7300088405609131</v>
+        <v>0.7065380215644836</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>0.4814660919540231</v>
       </c>
       <c r="B403" t="n">
-        <v>0.665861964225769</v>
+        <v>0.7870696187019348</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>0.4756500000000002</v>
       </c>
       <c r="B404" t="n">
-        <v>0.7651640772819519</v>
+        <v>0.6316292881965637</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>0.4699160919540232</v>
       </c>
       <c r="B405" t="n">
-        <v>0.7344734668731689</v>
+        <v>0.8230204582214355</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>0.4642586206896553</v>
       </c>
       <c r="B406" t="n">
-        <v>0.7787122130393982</v>
+        <v>0.69992595911026</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>0.4575275862068967</v>
       </c>
       <c r="B407" t="n">
-        <v>0.6900367736816406</v>
+        <v>0.9168879389762878</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>0.4543488505747127</v>
       </c>
       <c r="B408" t="n">
-        <v>0.8195934891700745</v>
+        <v>0.7525901198387146</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>0.4534798850574713</v>
       </c>
       <c r="B409" t="n">
-        <v>0.7912839651107788</v>
+        <v>0.6967302560806274</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>0.4546459770114943</v>
       </c>
       <c r="B410" t="n">
-        <v>0.7436391711235046</v>
+        <v>0.7996883392333984</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>0.4552494252873564</v>
       </c>
       <c r="B411" t="n">
-        <v>0.6533944606781006</v>
+        <v>0.7365930080413818</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>0.4545977011494254</v>
       </c>
       <c r="B412" t="n">
-        <v>0.746195375919342</v>
+        <v>0.8067272901535034</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>0.4516379310344829</v>
       </c>
       <c r="B413" t="n">
-        <v>0.6532043814659119</v>
+        <v>0.6919346451759338</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>0.4467758620689656</v>
       </c>
       <c r="B414" t="n">
-        <v>0.6403906345367432</v>
+        <v>0.7816877365112305</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>0.4434431034482759</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8248358368873596</v>
+        <v>0.6204007863998413</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>0.4404488505747127</v>
       </c>
       <c r="B416" t="n">
-        <v>0.7148436903953552</v>
+        <v>0.6898552179336548</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>0.4362718390804597</v>
       </c>
       <c r="B417" t="n">
-        <v>0.8062930703163147</v>
+        <v>0.6909785270690918</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>0.4305764367816092</v>
       </c>
       <c r="B418" t="n">
-        <v>0.7687790393829346</v>
+        <v>0.8867867588996887</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>0.4247580459770114</v>
       </c>
       <c r="B419" t="n">
-        <v>0.7067960500717163</v>
+        <v>0.7400791049003601</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>0.4195925287356321</v>
       </c>
       <c r="B420" t="n">
-        <v>0.6740398406982422</v>
+        <v>0.753553569316864</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>0.4145034482758621</v>
       </c>
       <c r="B421" t="n">
-        <v>0.7017512917518616</v>
+        <v>0.7487338781356812</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>0.4108793103448276</v>
       </c>
       <c r="B422" t="n">
-        <v>0.7232621312141418</v>
+        <v>0.6259782314300537</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>0.4045747126436782</v>
       </c>
       <c r="B423" t="n">
-        <v>0.7049283981323242</v>
+        <v>0.6607904434204102</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>0.3973902298850574</v>
       </c>
       <c r="B424" t="n">
-        <v>0.7187430262565613</v>
+        <v>0.7604031562805176</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>0.3926632183908045</v>
       </c>
       <c r="B425" t="n">
-        <v>0.7378063201904297</v>
+        <v>0.7387953400611877</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>0.3895172413793103</v>
       </c>
       <c r="B426" t="n">
-        <v>0.7625939249992371</v>
+        <v>0.7189538478851318</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>0.3866155172413792</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6264232993125916</v>
+        <v>0.6361978650093079</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>0.3848586206896551</v>
       </c>
       <c r="B428" t="n">
-        <v>0.5885972380638123</v>
+        <v>0.6152864098548889</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>0.3832408045977011</v>
       </c>
       <c r="B429" t="n">
-        <v>0.6902634501457214</v>
+        <v>0.6079728603363037</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B430" t="n">
-        <v>0.6523576378822327</v>
+        <v>0.5686384439468384</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>0.3820988505747126</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7222800254821777</v>
+        <v>0.6330748796463013</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>0.3834649425287356</v>
       </c>
       <c r="B432" t="n">
-        <v>0.6669221520423889</v>
+        <v>0.7511038780212402</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>0.3866304597701149</v>
       </c>
       <c r="B433" t="n">
-        <v>0.6393296718597412</v>
+        <v>0.6294744610786438</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>0.3913477011494253</v>
       </c>
       <c r="B434" t="n">
-        <v>0.62690669298172</v>
+        <v>0.6995980143547058</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>0.3952597701149425</v>
       </c>
       <c r="B435" t="n">
-        <v>0.5638154745101929</v>
+        <v>0.6638795733451843</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>0.4011454022988505</v>
       </c>
       <c r="B436" t="n">
-        <v>0.6216483116149902</v>
+        <v>0.4561668634414673</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>0.4051741379310345</v>
       </c>
       <c r="B437" t="n">
-        <v>0.5704144239425659</v>
+        <v>0.6955633163452148</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>0.4075517241379311</v>
       </c>
       <c r="B438" t="n">
-        <v>0.6545172333717346</v>
+        <v>0.5799923539161682</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>0.4092189655172414</v>
       </c>
       <c r="B439" t="n">
-        <v>0.5562301278114319</v>
+        <v>0.5970456004142761</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>0.4084528735632184</v>
       </c>
       <c r="B440" t="n">
-        <v>0.4466839730739594</v>
+        <v>0.4919058680534363</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>0.4043155172413794</v>
       </c>
       <c r="B441" t="n">
-        <v>0.5127373337745667</v>
+        <v>0.5185628533363342</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>0.4010327586206897</v>
       </c>
       <c r="B442" t="n">
-        <v>0.5880174040794373</v>
+        <v>0.6235601902008057</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>0.3977287356321839</v>
       </c>
       <c r="B443" t="n">
-        <v>0.5754184126853943</v>
+        <v>0.4785284399986267</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>0.390651724137931</v>
       </c>
       <c r="B444" t="n">
-        <v>0.574232280254364</v>
+        <v>0.5805791020393372</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>0.3849666666666666</v>
       </c>
       <c r="B445" t="n">
-        <v>0.5891100764274597</v>
+        <v>0.7816304564476013</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>0.3791787356321838</v>
       </c>
       <c r="B446" t="n">
-        <v>0.6671755313873291</v>
+        <v>0.5721133947372437</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>0.3742977011494252</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7210519313812256</v>
+        <v>0.6438529491424561</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>0.3714758620689655</v>
       </c>
       <c r="B448" t="n">
-        <v>0.6790822744369507</v>
+        <v>0.7203389406204224</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>0.3700752873563218</v>
       </c>
       <c r="B449" t="n">
-        <v>0.7067058682441711</v>
+        <v>0.688905656337738</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>0.3716655172413793</v>
       </c>
       <c r="B450" t="n">
-        <v>0.731285572052002</v>
+        <v>0.5379837155342102</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>0.3755844827586207</v>
       </c>
       <c r="B451" t="n">
-        <v>0.6645647287368774</v>
+        <v>0.7209799289703369</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>0.3807385057471265</v>
       </c>
       <c r="B452" t="n">
-        <v>0.6359102725982666</v>
+        <v>0.6555836200714111</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>0.3865310344827587</v>
       </c>
       <c r="B453" t="n">
-        <v>0.7316977381706238</v>
+        <v>0.6125397086143494</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>0.390583908045977</v>
       </c>
       <c r="B454" t="n">
-        <v>0.6364537477493286</v>
+        <v>0.7844018936157227</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>0.3938137931034483</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6302695274353027</v>
+        <v>0.6228451132774353</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>0.3964298850574713</v>
       </c>
       <c r="B456" t="n">
-        <v>0.6297292113304138</v>
+        <v>0.8029173612594604</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>0.3976816091954023</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6513653993606567</v>
+        <v>0.7587774395942688</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>0.3994833333333333</v>
       </c>
       <c r="B458" t="n">
-        <v>0.7354975342750549</v>
+        <v>0.6791098117828369</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>0.4002471264367816</v>
       </c>
       <c r="B459" t="n">
-        <v>0.6900243759155273</v>
+        <v>0.6521913409233093</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>0.4009488505747126</v>
       </c>
       <c r="B460" t="n">
-        <v>0.7253286838531494</v>
+        <v>0.7012710571289062</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>0.4015183908045977</v>
       </c>
       <c r="B461" t="n">
-        <v>0.7002232074737549</v>
+        <v>0.6407951712608337</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>0.3991333333333333</v>
       </c>
       <c r="B462" t="n">
-        <v>0.6962562203407288</v>
+        <v>0.6261546015739441</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>0.3935718390804597</v>
       </c>
       <c r="B463" t="n">
-        <v>0.7747064232826233</v>
+        <v>0.8029937148094177</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>0.38703908045977</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6264240741729736</v>
+        <v>0.6052868962287903</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>0.3780534482758619</v>
       </c>
       <c r="B465" t="n">
-        <v>0.7019527554512024</v>
+        <v>0.7114989161491394</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>0.367106896551724</v>
       </c>
       <c r="B466" t="n">
-        <v>0.7013739347457886</v>
+        <v>0.7769247889518738</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>0.3586735632183908</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6356145739555359</v>
+        <v>0.6507659554481506</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>0.3503574712643678</v>
       </c>
       <c r="B468" t="n">
-        <v>0.6497820019721985</v>
+        <v>0.482380211353302</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>0.3439879310344827</v>
       </c>
       <c r="B469" t="n">
-        <v>0.7009596228599548</v>
+        <v>0.5925456881523132</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>0.3405741379310344</v>
       </c>
       <c r="B470" t="n">
-        <v>0.6536519527435303</v>
+        <v>0.5570008158683777</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>0.3386775862068965</v>
       </c>
       <c r="B471" t="n">
-        <v>0.5963154435157776</v>
+        <v>0.5675041675567627</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>0.3378747126436782</v>
       </c>
       <c r="B472" t="n">
-        <v>0.5994162559509277</v>
+        <v>0.6356354355812073</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>0.3400034482758622</v>
       </c>
       <c r="B473" t="n">
-        <v>0.5966688394546509</v>
+        <v>0.5360332727432251</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>0.3406500000000001</v>
       </c>
       <c r="B474" t="n">
-        <v>0.5110110640525818</v>
+        <v>0.4974778890609741</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>0.3420431034482759</v>
       </c>
       <c r="B475" t="n">
-        <v>0.554636538028717</v>
+        <v>0.5583276748657227</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>0.3449183908045977</v>
       </c>
       <c r="B476" t="n">
-        <v>0.5760373473167419</v>
+        <v>0.5836390852928162</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>0.3475902298850576</v>
       </c>
       <c r="B477" t="n">
-        <v>0.5787367224693298</v>
+        <v>0.6196396946907043</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>0.3526522988505747</v>
       </c>
       <c r="B478" t="n">
-        <v>0.5781099796295166</v>
+        <v>0.5758418440818787</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>0.3584224137931035</v>
       </c>
       <c r="B479" t="n">
-        <v>0.7442811727523804</v>
+        <v>0.5732724070549011</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>0.3654143678160919</v>
       </c>
       <c r="B480" t="n">
-        <v>0.5550763607025146</v>
+        <v>0.7003132700920105</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>0.3733620689655173</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6376989483833313</v>
+        <v>0.5251871347427368</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>0.3803362068965518</v>
       </c>
       <c r="B482" t="n">
-        <v>0.6247513294219971</v>
+        <v>0.5614248514175415</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>0.38376091954023</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6244840025901794</v>
+        <v>0.6047661900520325</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>0.3861655172413793</v>
       </c>
       <c r="B484" t="n">
-        <v>0.5986669063568115</v>
+        <v>0.6312849521636963</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>0.388217816091954</v>
       </c>
       <c r="B485" t="n">
-        <v>0.6672817468643188</v>
+        <v>0.4599498808383942</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>0.3885701149425288</v>
       </c>
       <c r="B486" t="n">
-        <v>0.5834688544273376</v>
+        <v>0.6247356534004211</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>0.3851212643678162</v>
       </c>
       <c r="B487" t="n">
-        <v>0.6534506678581238</v>
+        <v>0.8218685984611511</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>0.3813459770114943</v>
       </c>
       <c r="B488" t="n">
-        <v>0.5448789596557617</v>
+        <v>0.5462644100189209</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>0.3782798850574712</v>
       </c>
       <c r="B489" t="n">
-        <v>0.5678350925445557</v>
+        <v>0.6336071491241455</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4301,7 +4301,7 @@
         <v>0.3747505747126437</v>
       </c>
       <c r="B490" t="n">
-        <v>0.5354105830192566</v>
+        <v>0.5491629242897034</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>0.3735402298850575</v>
       </c>
       <c r="B491" t="n">
-        <v>0.5518192648887634</v>
+        <v>0.6520017385482788</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>0.3741120689655173</v>
       </c>
       <c r="B492" t="n">
-        <v>0.6011634469032288</v>
+        <v>0.5621162056922913</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>0.3755057471264368</v>
       </c>
       <c r="B493" t="n">
-        <v>0.6410890817642212</v>
+        <v>0.5369048714637756</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>0.3793971264367816</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5488688349723816</v>
+        <v>0.6141427159309387</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>0.3852344827586207</v>
       </c>
       <c r="B495" t="n">
-        <v>0.6106196641921997</v>
+        <v>0.6181837916374207</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>0.3905402298850575</v>
       </c>
       <c r="B496" t="n">
-        <v>0.5809873342514038</v>
+        <v>0.5498548746109009</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>0.3967166666666667</v>
       </c>
       <c r="B497" t="n">
-        <v>0.543493926525116</v>
+        <v>0.7077585458755493</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>0.4038040229885058</v>
       </c>
       <c r="B498" t="n">
-        <v>0.5992792844772339</v>
+        <v>0.5126887559890747</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>0.4103862068965518</v>
       </c>
       <c r="B499" t="n">
-        <v>0.5473456382751465</v>
+        <v>0.5953739285469055</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>0.416064367816092</v>
       </c>
       <c r="B500" t="n">
-        <v>0.590322732925415</v>
+        <v>0.53233402967453</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>0.4213764367816092</v>
       </c>
       <c r="B501" t="n">
-        <v>0.6733052134513855</v>
+        <v>0.6199396252632141</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>0.4244856321839081</v>
       </c>
       <c r="B502" t="n">
-        <v>0.6930439472198486</v>
+        <v>0.6290200352668762</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>0.4276005747126437</v>
       </c>
       <c r="B503" t="n">
-        <v>0.5966873168945312</v>
+        <v>0.6801521182060242</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>0.4332287356321839</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5992648601531982</v>
+        <v>0.5832433700561523</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>0.4401545977011494</v>
       </c>
       <c r="B505" t="n">
-        <v>0.6463659405708313</v>
+        <v>0.8000169396400452</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>0.4467827586206897</v>
       </c>
       <c r="B506" t="n">
-        <v>0.6635668277740479</v>
+        <v>0.7456324696540833</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>0.4501793103448276</v>
       </c>
       <c r="B507" t="n">
-        <v>0.5368857383728027</v>
+        <v>0.7401517629623413</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>0.4509362068965517</v>
       </c>
       <c r="B508" t="n">
-        <v>0.6880268454551697</v>
+        <v>0.7195605039596558</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>0.4494494252873563</v>
       </c>
       <c r="B509" t="n">
-        <v>0.6811023354530334</v>
+        <v>0.7750133872032166</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>0.4465385057471264</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6364704370498657</v>
+        <v>0.800254762172699</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>0.4425091954022989</v>
       </c>
       <c r="B511" t="n">
-        <v>0.6695220470428467</v>
+        <v>0.5258083939552307</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>0.4370477011494253</v>
       </c>
       <c r="B512" t="n">
-        <v>0.6934649348258972</v>
+        <v>0.5645202398300171</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>0.4318856321839081</v>
       </c>
       <c r="B513" t="n">
-        <v>0.6851499080657959</v>
+        <v>0.6167375445365906</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>0.4272442528735632</v>
       </c>
       <c r="B514" t="n">
-        <v>0.5382368564605713</v>
+        <v>0.6794707775115967</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>0.4264655172413793</v>
       </c>
       <c r="B515" t="n">
-        <v>0.6642391085624695</v>
+        <v>0.6405320763587952</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>0.4298885057471264</v>
       </c>
       <c r="B516" t="n">
-        <v>0.7882910370826721</v>
+        <v>0.7047761678695679</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>0.434367816091954</v>
       </c>
       <c r="B517" t="n">
-        <v>0.6968942284584045</v>
+        <v>0.6036816239356995</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>0.4398477011494253</v>
       </c>
       <c r="B518" t="n">
-        <v>0.7415422797203064</v>
+        <v>0.6906650066375732</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>0.4461287356321839</v>
       </c>
       <c r="B519" t="n">
-        <v>0.7560644149780273</v>
+        <v>0.6510371565818787</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>0.4523005747126436</v>
       </c>
       <c r="B520" t="n">
-        <v>0.6615986227989197</v>
+        <v>0.6816274523735046</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>0.458251724137931</v>
       </c>
       <c r="B521" t="n">
-        <v>0.6748263239860535</v>
+        <v>0.7120252251625061</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>0.46333908045977</v>
       </c>
       <c r="B522" t="n">
-        <v>0.73432856798172</v>
+        <v>0.7368277907371521</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>0.4649137931034483</v>
       </c>
       <c r="B523" t="n">
-        <v>0.7791853547096252</v>
+        <v>0.6005305647850037</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4573,7 +4573,7 @@
         <v>0.4650649425287356</v>
       </c>
       <c r="B524" t="n">
-        <v>0.7333562970161438</v>
+        <v>0.7486549019813538</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4581,7 +4581,7 @@
         <v>0.465058620689655</v>
       </c>
       <c r="B525" t="n">
-        <v>0.6658074259757996</v>
+        <v>0.587222158908844</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>0.4634948275862069</v>
       </c>
       <c r="B526" t="n">
-        <v>0.643954336643219</v>
+        <v>0.6600745320320129</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>0.4615408045977011</v>
       </c>
       <c r="B527" t="n">
-        <v>0.7291849255561829</v>
+        <v>0.7389051914215088</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>0.4606942528735632</v>
       </c>
       <c r="B528" t="n">
-        <v>0.6748318076133728</v>
+        <v>0.6507449150085449</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4613,7 +4613,7 @@
         <v>0.4598908045977011</v>
       </c>
       <c r="B529" t="n">
-        <v>0.6539574861526489</v>
+        <v>0.6234337687492371</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>0.4611574712643677</v>
       </c>
       <c r="B530" t="n">
-        <v>0.7061032056808472</v>
+        <v>0.7626472115516663</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>0.4654781609195401</v>
       </c>
       <c r="B531" t="n">
-        <v>0.6338231563568115</v>
+        <v>0.6951985955238342</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>0.471866091954023</v>
       </c>
       <c r="B532" t="n">
-        <v>0.6976194977760315</v>
+        <v>0.534259021282196</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>0.4764310344827585</v>
       </c>
       <c r="B533" t="n">
-        <v>0.4831051528453827</v>
+        <v>0.756769061088562</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>0.4784327586206896</v>
       </c>
       <c r="B534" t="n">
-        <v>0.4345033466815948</v>
+        <v>0.7743149399757385</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>0.4815402298850573</v>
       </c>
       <c r="B535" t="n">
-        <v>0.4808855056762695</v>
+        <v>0.7919901013374329</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>0.4836706896551723</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4761857092380524</v>
+        <v>0.7013800144195557</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>0.4873224137931034</v>
       </c>
       <c r="B537" t="n">
-        <v>0.5329910516738892</v>
+        <v>0.8016188144683838</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>0.4900448275862069</v>
       </c>
       <c r="B538" t="n">
-        <v>0.5240210294723511</v>
+        <v>0.4984304904937744</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>0.4906609195402298</v>
       </c>
       <c r="B539" t="n">
-        <v>0.632392942905426</v>
+        <v>0.6574951410293579</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>0.4904586206896551</v>
       </c>
       <c r="B540" t="n">
-        <v>0.4924318194389343</v>
+        <v>0.6806709170341492</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>0.4941344827586207</v>
       </c>
       <c r="B541" t="n">
-        <v>0.5501627326011658</v>
+        <v>0.7786270380020142</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>0.500001724137931</v>
       </c>
       <c r="B542" t="n">
-        <v>0.5076363086700439</v>
+        <v>0.6603434681892395</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>0.5075488505747127</v>
       </c>
       <c r="B543" t="n">
-        <v>0.5280850529670715</v>
+        <v>0.7134525775909424</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>0.5158551724137931</v>
       </c>
       <c r="B544" t="n">
-        <v>0.5058383941650391</v>
+        <v>0.6877478361129761</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>0.5198316091954023</v>
       </c>
       <c r="B545" t="n">
-        <v>0.4313452243804932</v>
+        <v>0.5830482244491577</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>0.5221126436781609</v>
       </c>
       <c r="B546" t="n">
-        <v>0.522016704082489</v>
+        <v>0.6115986108779907</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>0.5241477011494252</v>
       </c>
       <c r="B547" t="n">
-        <v>0.5116506218910217</v>
+        <v>0.7259588837623596</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>0.5258402298850575</v>
       </c>
       <c r="B548" t="n">
-        <v>0.5610747933387756</v>
+        <v>0.6032655239105225</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>0.5250695402298851</v>
       </c>
       <c r="B549" t="n">
-        <v>0.5629770755767822</v>
+        <v>0.591313898563385</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>0.5223919540229884</v>
       </c>
       <c r="B550" t="n">
-        <v>0.6016446948051453</v>
+        <v>0.5313012599945068</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>0.5182683908045975</v>
       </c>
       <c r="B551" t="n">
-        <v>0.5647814869880676</v>
+        <v>0.6236163377761841</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>0.5144683908045975</v>
       </c>
       <c r="B552" t="n">
-        <v>0.696313202381134</v>
+        <v>0.7762429714202881</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>0.5127465517241379</v>
       </c>
       <c r="B553" t="n">
-        <v>0.6607397794723511</v>
+        <v>0.5734918117523193</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>0.5118160919540229</v>
       </c>
       <c r="B554" t="n">
-        <v>0.5678457617759705</v>
+        <v>0.6628057360649109</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>0.5113442528735631</v>
       </c>
       <c r="B555" t="n">
-        <v>0.5564731359481812</v>
+        <v>0.7041466236114502</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>0.5113954022988505</v>
       </c>
       <c r="B556" t="n">
-        <v>0.6027423143386841</v>
+        <v>0.7927543520927429</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>0.5106971264367816</v>
       </c>
       <c r="B557" t="n">
-        <v>0.5504902601242065</v>
+        <v>0.793199896812439</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>0.5099448275862069</v>
       </c>
       <c r="B558" t="n">
-        <v>0.5556550025939941</v>
+        <v>0.8707687854766846</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>0.5071856321839081</v>
       </c>
       <c r="B559" t="n">
-        <v>0.6242223381996155</v>
+        <v>0.6644653677940369</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>0.5042775862068966</v>
       </c>
       <c r="B560" t="n">
-        <v>0.5416966676712036</v>
+        <v>0.723843514919281</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>0.5015017241379309</v>
       </c>
       <c r="B561" t="n">
-        <v>0.5369044542312622</v>
+        <v>0.6408010721206665</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>0.4992206896551724</v>
       </c>
       <c r="B562" t="n">
-        <v>0.6480653882026672</v>
+        <v>0.7419260740280151</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>0.4959385057471264</v>
       </c>
       <c r="B563" t="n">
-        <v>0.6224673390388489</v>
+        <v>0.6190037131309509</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>0.4916557471264368</v>
       </c>
       <c r="B564" t="n">
-        <v>0.5663657784461975</v>
+        <v>0.5656512379646301</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>0.4879850574712644</v>
       </c>
       <c r="B565" t="n">
-        <v>0.6255931854248047</v>
+        <v>0.5628290176391602</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>0.4841086206896552</v>
       </c>
       <c r="B566" t="n">
-        <v>0.5695595741271973</v>
+        <v>0.6335204243659973</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>0.479937356321839</v>
       </c>
       <c r="B567" t="n">
-        <v>0.6131792664527893</v>
+        <v>0.677819550037384</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>0.4752465517241379</v>
       </c>
       <c r="B568" t="n">
-        <v>0.5447978973388672</v>
+        <v>0.6079586744308472</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>0.4721764367816091</v>
       </c>
       <c r="B569" t="n">
-        <v>0.5321093201637268</v>
+        <v>0.5592888593673706</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>0.4692281609195402</v>
       </c>
       <c r="B570" t="n">
-        <v>0.4145475625991821</v>
+        <v>0.6022953391075134</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>0.4647189655172412</v>
       </c>
       <c r="B571" t="n">
-        <v>0.3387927114963531</v>
+        <v>0.4738801121711731</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>0.4592028735632183</v>
       </c>
       <c r="B572" t="n">
-        <v>0.3488067388534546</v>
+        <v>0.6851848363876343</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>0.4508442528735632</v>
       </c>
       <c r="B573" t="n">
-        <v>0.2904689311981201</v>
+        <v>0.4975088238716125</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>0.4450252873563217</v>
       </c>
       <c r="B574" t="n">
-        <v>0.3472325503826141</v>
+        <v>0.5093502998352051</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>0.4424959770114942</v>
       </c>
       <c r="B575" t="n">
-        <v>0.2775770723819733</v>
+        <v>0.5738055109977722</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>0.4428913793103447</v>
       </c>
       <c r="B576" t="n">
-        <v>0.434727281332016</v>
+        <v>0.5922649502754211</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>0.4420350574712643</v>
       </c>
       <c r="B577" t="n">
-        <v>0.4269977509975433</v>
+        <v>0.5201448798179626</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>0.4407994252873562</v>
       </c>
       <c r="B578" t="n">
-        <v>0.4235686361789703</v>
+        <v>0.6076411604881287</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>0.4424488505747125</v>
       </c>
       <c r="B579" t="n">
-        <v>0.4169092178344727</v>
+        <v>0.5134154558181763</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>0.446022988505747</v>
       </c>
       <c r="B580" t="n">
-        <v>0.3555291295051575</v>
+        <v>0.5557025671005249</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>0.4531999999999999</v>
       </c>
       <c r="B581" t="n">
-        <v>0.3334541618824005</v>
+        <v>0.5362777709960938</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>0.4616310344827586</v>
       </c>
       <c r="B582" t="n">
-        <v>0.3711861073970795</v>
+        <v>0.6336415410041809</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>0.4699316091954022</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4047412872314453</v>
+        <v>0.463839054107666</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>0.4757379310344828</v>
       </c>
       <c r="B584" t="n">
-        <v>0.4493765532970428</v>
+        <v>0.6301789879798889</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>0.4821367816091954</v>
       </c>
       <c r="B585" t="n">
-        <v>0.3014273643493652</v>
+        <v>0.4237287044525146</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>0.4903224137931034</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4698392152786255</v>
+        <v>0.4508602023124695</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>0.4994724137931035</v>
       </c>
       <c r="B587" t="n">
-        <v>0.5803387761116028</v>
+        <v>0.4561494588851929</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>0.5083517241379311</v>
       </c>
       <c r="B588" t="n">
-        <v>0.4618893265724182</v>
+        <v>0.5804630517959595</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>0.5127241379310344</v>
       </c>
       <c r="B589" t="n">
-        <v>0.5371270775794983</v>
+        <v>0.5035074949264526</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>0.5130126436781609</v>
       </c>
       <c r="B590" t="n">
-        <v>0.5100287199020386</v>
+        <v>0.6559257507324219</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>0.5111183908045976</v>
       </c>
       <c r="B591" t="n">
-        <v>0.6005200743675232</v>
+        <v>0.6068252921104431</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>0.5127126436781609</v>
       </c>
       <c r="B592" t="n">
-        <v>0.5685502886772156</v>
+        <v>0.578887939453125</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>0.5164258620689655</v>
       </c>
       <c r="B593" t="n">
-        <v>0.5913392901420593</v>
+        <v>0.7263979911804199</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>0.5221948275862068</v>
       </c>
       <c r="B594" t="n">
-        <v>0.4439008235931396</v>
+        <v>0.6406781673431396</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>0.5285471264367816</v>
       </c>
       <c r="B595" t="n">
-        <v>0.5328284502029419</v>
+        <v>0.6263442635536194</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>0.5362212643678161</v>
       </c>
       <c r="B596" t="n">
-        <v>0.5864945650100708</v>
+        <v>0.4931619167327881</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>0.5462827586206895</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6162552833557129</v>
+        <v>0.6933684945106506</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>0.5550017241379309</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6135395765304565</v>
+        <v>0.6991689205169678</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>0.5614321839080458</v>
       </c>
       <c r="B599" t="n">
-        <v>0.5424969792366028</v>
+        <v>0.7179940938949585</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>0.5679316091954022</v>
       </c>
       <c r="B600" t="n">
-        <v>0.4982014000415802</v>
+        <v>0.5549446940422058</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>0.573417816091954</v>
       </c>
       <c r="B601" t="n">
-        <v>0.6948820352554321</v>
+        <v>0.6401978135108948</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>0.5791534482758619</v>
       </c>
       <c r="B602" t="n">
-        <v>0.5722938776016235</v>
+        <v>0.7230215668678284</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>0.5867160919540229</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5166495442390442</v>
+        <v>0.7178046107292175</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>0.5949902298850573</v>
       </c>
       <c r="B604" t="n">
-        <v>0.614267885684967</v>
+        <v>0.8065861463546753</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>0.6034304597701148</v>
       </c>
       <c r="B605" t="n">
-        <v>0.4571569859981537</v>
+        <v>0.7453854084014893</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>0.6162436781609193</v>
       </c>
       <c r="B606" t="n">
-        <v>0.5286490321159363</v>
+        <v>0.7740724086761475</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>0.6329810344827584</v>
       </c>
       <c r="B607" t="n">
-        <v>0.5232192873954773</v>
+        <v>0.4543007612228394</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>0.6492862068965516</v>
       </c>
       <c r="B608" t="n">
-        <v>0.5445266962051392</v>
+        <v>0.592749297618866</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>0.6657902298850573</v>
       </c>
       <c r="B609" t="n">
-        <v>0.5257800221443176</v>
+        <v>0.7098740339279175</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>0.680340804597701</v>
       </c>
       <c r="B610" t="n">
-        <v>0.5105690956115723</v>
+        <v>0.7088959217071533</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>0.6927614942528735</v>
       </c>
       <c r="B611" t="n">
-        <v>0.5045964121818542</v>
+        <v>0.5876341462135315</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>0.70465</v>
       </c>
       <c r="B612" t="n">
-        <v>0.6442900896072388</v>
+        <v>0.609643280506134</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>0.7187844827586207</v>
       </c>
       <c r="B613" t="n">
-        <v>0.5851029753684998</v>
+        <v>0.4605004191398621</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>0.7293166666666667</v>
       </c>
       <c r="B614" t="n">
-        <v>0.5209448933601379</v>
+        <v>0.7165299654006958</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>0.7379856321839081</v>
       </c>
       <c r="B615" t="n">
-        <v>0.6092960238456726</v>
+        <v>0.5880526900291443</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>0.7451810344827586</v>
       </c>
       <c r="B616" t="n">
-        <v>0.6071380972862244</v>
+        <v>0.7293283343315125</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>0.7524735632183908</v>
       </c>
       <c r="B617" t="n">
-        <v>0.6502389311790466</v>
+        <v>0.4377203583717346</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>0.7625356321839081</v>
       </c>
       <c r="B618" t="n">
-        <v>0.5674908757209778</v>
+        <v>0.6522431373596191</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>0.7742241379310345</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6028625965118408</v>
+        <v>0.6857950687408447</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>0.7858741379310346</v>
       </c>
       <c r="B620" t="n">
-        <v>0.6095318198204041</v>
+        <v>0.6060692071914673</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>0.7984798850574714</v>
       </c>
       <c r="B621" t="n">
-        <v>0.6153985857963562</v>
+        <v>0.5847753882408142</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>0.8108931034482759</v>
       </c>
       <c r="B622" t="n">
-        <v>0.4672995209693909</v>
+        <v>0.6015779376029968</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>0.8220522988505747</v>
       </c>
       <c r="B623" t="n">
-        <v>0.5762579441070557</v>
+        <v>0.6446955800056458</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>0.8324344827586208</v>
       </c>
       <c r="B624" t="n">
-        <v>0.6424602270126343</v>
+        <v>0.6438004374504089</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>0.8434666666666668</v>
       </c>
       <c r="B625" t="n">
-        <v>0.6175530552864075</v>
+        <v>0.724904477596283</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>0.8553620689655174</v>
       </c>
       <c r="B626" t="n">
-        <v>0.6902368664741516</v>
+        <v>0.667686402797699</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>0.8696011494252874</v>
       </c>
       <c r="B627" t="n">
-        <v>0.6542443633079529</v>
+        <v>0.838839590549469</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>0.8849770114942529</v>
       </c>
       <c r="B628" t="n">
-        <v>0.7518993616104126</v>
+        <v>0.8863683938980103</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>0.899922988505747</v>
       </c>
       <c r="B629" t="n">
-        <v>0.5985711216926575</v>
+        <v>0.9921344518661499</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>0.9148298850574711</v>
       </c>
       <c r="B630" t="n">
-        <v>0.5488731861114502</v>
+        <v>0.5720587372779846</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>0.9296988505747125</v>
       </c>
       <c r="B631" t="n">
-        <v>0.7260864973068237</v>
+        <v>0.8646043539047241</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>0.9423752873563216</v>
       </c>
       <c r="B632" t="n">
-        <v>0.6319109201431274</v>
+        <v>0.7743960022926331</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>0.9523844827586204</v>
       </c>
       <c r="B633" t="n">
-        <v>0.6747411489486694</v>
+        <v>0.8581077456474304</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>0.9586948275862065</v>
       </c>
       <c r="B634" t="n">
-        <v>0.5827843546867371</v>
+        <v>0.8540343642234802</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>0.9611833333333328</v>
       </c>
       <c r="B635" t="n">
-        <v>0.7178334593772888</v>
+        <v>0.8987290859222412</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>0.9616787356321834</v>
       </c>
       <c r="B636" t="n">
-        <v>0.6419429183006287</v>
+        <v>0.8601669669151306</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>0.9616787356321833</v>
       </c>
       <c r="B637" t="n">
-        <v>0.6418800950050354</v>
+        <v>0.7563549876213074</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>0.9617166666666661</v>
       </c>
       <c r="B638" t="n">
-        <v>0.6953092217445374</v>
+        <v>0.6433032751083374</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>0.9617545977011489</v>
       </c>
       <c r="B639" t="n">
-        <v>0.7341910004615784</v>
+        <v>0.610181987285614</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>0.9617925287356317</v>
       </c>
       <c r="B640" t="n">
-        <v>0.686240553855896</v>
+        <v>0.9427399635314941</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>0.9618304597701144</v>
       </c>
       <c r="B641" t="n">
-        <v>0.6050614714622498</v>
+        <v>0.6411038041114807</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>0.9630499999999995</v>
       </c>
       <c r="B642" t="n">
-        <v>0.7266479134559631</v>
+        <v>0.7804695963859558</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>0.9671798850574708</v>
       </c>
       <c r="B643" t="n">
-        <v>0.7178113460540771</v>
+        <v>0.8461400270462036</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5533,7 +5533,7 @@
         <v>0.9714620689655168</v>
       </c>
       <c r="B644" t="n">
-        <v>0.6162354350090027</v>
+        <v>0.7659463286399841</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>0.9759505747126432</v>
       </c>
       <c r="B645" t="n">
-        <v>0.6000670790672302</v>
+        <v>0.7345623373985291</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>0.9805367816091949</v>
       </c>
       <c r="B646" t="n">
-        <v>0.7852187752723694</v>
+        <v>0.8672226667404175</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>0.9851229885057465</v>
       </c>
       <c r="B647" t="n">
-        <v>0.6356053352355957</v>
+        <v>0.7697616815567017</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>0.9900517241379305</v>
       </c>
       <c r="B648" t="n">
-        <v>0.7392309308052063</v>
+        <v>1.038094997406006</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>0.9949804597701144</v>
       </c>
       <c r="B649" t="n">
-        <v>0.7576552033424377</v>
+        <v>0.7318126559257507</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>0.9974908045977007</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7720723748207092</v>
+        <v>0.792219877243042</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>0.9981752873563213</v>
       </c>
       <c r="B651" t="n">
-        <v>0.8594191670417786</v>
+        <v>1.00331974029541</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>0.9988597701149421</v>
       </c>
       <c r="B652" t="n">
-        <v>0.714882493019104</v>
+        <v>0.9292636513710022</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>0.9992022988505742</v>
       </c>
       <c r="B653" t="n">
-        <v>0.7480936646461487</v>
+        <v>0.8464146256446838</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B654" t="n">
-        <v>0.8176562786102295</v>
+        <v>1.070913195610046</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7896606922149658</v>
+        <v>0.9810614585876465</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>0.9996017241379306</v>
       </c>
       <c r="B656" t="n">
-        <v>0.8653616905212402</v>
+        <v>0.9263396263122559</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>0.9996586206896547</v>
       </c>
       <c r="B657" t="n">
-        <v>0.7893875241279602</v>
+        <v>0.994288444519043</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>0.9997155172413789</v>
       </c>
       <c r="B658" t="n">
-        <v>0.7109367251396179</v>
+        <v>0.938261866569519</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>0.999772413793103</v>
       </c>
       <c r="B659" t="n">
-        <v>0.8581040501594543</v>
+        <v>0.7842068672180176</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>0.9998293103448271</v>
       </c>
       <c r="B660" t="n">
-        <v>0.8510779142379761</v>
+        <v>1.037217378616333</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>0.9998862068965513</v>
       </c>
       <c r="B661" t="n">
-        <v>0.7967351078987122</v>
+        <v>0.9795740246772766</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>0.9999431034482754</v>
       </c>
       <c r="B662" t="n">
-        <v>0.7095862627029419</v>
+        <v>1.020043849945068</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B663" t="n">
-        <v>0.8199138641357422</v>
+        <v>0.9435776472091675</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B664" t="n">
-        <v>0.7625790238380432</v>
+        <v>0.8584967255592346</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B665" t="n">
-        <v>0.7479973435401917</v>
+        <v>0.9377049803733826</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B666" t="n">
-        <v>0.7579376697540283</v>
+        <v>0.8199502229690552</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B667" t="n">
-        <v>0.9075217843055725</v>
+        <v>0.948914647102356</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B668" t="n">
-        <v>0.7365568876266479</v>
+        <v>0.8894224166870117</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B669" t="n">
-        <v>0.8364418148994446</v>
+        <v>0.7718546986579895</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B670" t="n">
-        <v>0.7925770282745361</v>
+        <v>0.9815521240234375</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B671" t="n">
-        <v>0.7754306197166443</v>
+        <v>0.7627478241920471</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B672" t="n">
-        <v>0.8048374056816101</v>
+        <v>1.106241464614868</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B673" t="n">
-        <v>0.7826762795448303</v>
+        <v>1.052159070968628</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B674" t="n">
-        <v>0.7598894238471985</v>
+        <v>1.110679864883423</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B675" t="n">
-        <v>0.7772212028503418</v>
+        <v>1.129337549209595</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B676" t="n">
-        <v>0.8711109161376953</v>
+        <v>0.6964695453643799</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8497053384780884</v>
+        <v>0.9908782243728638</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B678" t="n">
-        <v>0.8456988334655762</v>
+        <v>0.9906874895095825</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5813,7 +5813,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B679" t="n">
-        <v>0.9106939435005188</v>
+        <v>0.7910652160644531</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5821,7 +5821,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B680" t="n">
-        <v>0.8131366372108459</v>
+        <v>1.06830096244812</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5829,7 +5829,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B681" t="n">
-        <v>0.8484359383583069</v>
+        <v>0.8900398015975952</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5837,7 +5837,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B682" t="n">
-        <v>0.8070846199989319</v>
+        <v>0.871088445186615</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B683" t="n">
-        <v>0.7870994806289673</v>
+        <v>0.8877451419830322</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B684" t="n">
-        <v>0.7722893357276917</v>
+        <v>0.7954987287521362</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7622119784355164</v>
+        <v>0.7852868437767029</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B686" t="n">
-        <v>0.8590400815010071</v>
+        <v>0.8504029512405396</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B687" t="n">
-        <v>0.7492778897285461</v>
+        <v>0.5222958326339722</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B688" t="n">
-        <v>0.7508111596107483</v>
+        <v>0.9018988013267517</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B689" t="n">
-        <v>0.828959047794342</v>
+        <v>1.195982813835144</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B690" t="n">
-        <v>0.8284903764724731</v>
+        <v>0.9694749116897583</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B691" t="n">
-        <v>0.8312214016914368</v>
+        <v>0.7908432483673096</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B692" t="n">
-        <v>0.7746157646179199</v>
+        <v>1.077380537986755</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B693" t="n">
-        <v>0.8070847988128662</v>
+        <v>1.127129554748535</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B694" t="n">
-        <v>0.7712596654891968</v>
+        <v>0.9037651419639587</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B695" t="n">
-        <v>0.816416323184967</v>
+        <v>0.9509571194648743</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B696" t="n">
-        <v>0.762057900428772</v>
+        <v>0.9324228763580322</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B697" t="n">
-        <v>0.7975253462791443</v>
+        <v>0.9830872416496277</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7881755232810974</v>
+        <v>1.132215619087219</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B699" t="n">
-        <v>0.8803349733352661</v>
+        <v>1.005894780158997</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B700" t="n">
-        <v>0.7859184145927429</v>
+        <v>0.8451586961746216</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B701" t="n">
-        <v>0.8634864091873169</v>
+        <v>1.094111084938049</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B702" t="n">
-        <v>0.8029154539108276</v>
+        <v>1.01480770111084</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B703" t="n">
-        <v>0.89564448595047</v>
+        <v>1.235904097557068</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B704" t="n">
-        <v>0.8227804899215698</v>
+        <v>0.926651656627655</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B705" t="n">
-        <v>0.7825561165809631</v>
+        <v>1.176475286483765</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B706" t="n">
-        <v>0.798783004283905</v>
+        <v>0.9665027856826782</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B707" t="n">
-        <v>0.8753690719604492</v>
+        <v>0.8667523860931396</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B708" t="n">
-        <v>0.7317097783088684</v>
+        <v>0.9105550050735474</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B709" t="n">
-        <v>0.8493695855140686</v>
+        <v>1.003881335258484</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4047833383083344</v>
+        <v>1.307234168052673</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B711" t="n">
-        <v>0.4463034272193909</v>
+        <v>0.7316204309463501</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6077,7 +6077,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B712" t="n">
-        <v>0.4619912803173065</v>
+        <v>1.253966212272644</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6085,7 +6085,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B713" t="n">
-        <v>0.4344832599163055</v>
+        <v>0.7780872583389282</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6093,7 +6093,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B714" t="n">
-        <v>0.4057140946388245</v>
+        <v>1.196891665458679</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B715" t="n">
-        <v>0.4190311431884766</v>
+        <v>1.139195203781128</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B716" t="n">
-        <v>0.4442011117935181</v>
+        <v>0.8648678064346313</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B717" t="n">
-        <v>0.4768190383911133</v>
+        <v>1.05932891368866</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B718" t="n">
-        <v>0.4507824778556824</v>
+        <v>1.158679723739624</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B719" t="n">
-        <v>0.4126355946063995</v>
+        <v>0.8343949913978577</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B720" t="n">
-        <v>0.4619561731815338</v>
+        <v>0.7473217844963074</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B721" t="n">
-        <v>0.4124954044818878</v>
+        <v>1.060940980911255</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B722" t="n">
-        <v>0.4583358466625214</v>
+        <v>1.049714326858521</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B723" t="n">
-        <v>0.4108644723892212</v>
+        <v>0.8255200982093811</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B724" t="n">
-        <v>0.4584775865077972</v>
+        <v>0.9841684699058533</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B725" t="n">
-        <v>0.4367546439170837</v>
+        <v>0.9088572859764099</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B726" t="n">
-        <v>0.399710088968277</v>
+        <v>0.8961957693099976</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4267030656337738</v>
+        <v>0.7834683656692505</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3845036029815674</v>
+        <v>1.10161566734314</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4309545457363129</v>
+        <v>1.139354348182678</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B730" t="n">
-        <v>0.4360154569149017</v>
+        <v>1.119248747825623</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B731" t="n">
-        <v>0.4426240026950836</v>
+        <v>0.8107954859733582</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6237,7 +6237,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B732" t="n">
-        <v>0.3973093330860138</v>
+        <v>0.9067960977554321</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6245,7 +6245,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B733" t="n">
-        <v>0.400114119052887</v>
+        <v>0.9788749217987061</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B734" t="n">
-        <v>0.4490948617458344</v>
+        <v>1.052298188209534</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B735" t="n">
-        <v>0.4690097868442535</v>
+        <v>1.070960879325867</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B736" t="n">
-        <v>0.4234329760074615</v>
+        <v>0.7752665877342224</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6277,7 +6277,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4631857573986053</v>
+        <v>0.7423203587532043</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6285,7 +6285,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B738" t="n">
-        <v>0.4164032340049744</v>
+        <v>1.216068387031555</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6293,7 +6293,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B739" t="n">
-        <v>0.4477098882198334</v>
+        <v>1.16221010684967</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6301,7 +6301,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B740" t="n">
-        <v>0.4344402253627777</v>
+        <v>1.184981465339661</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6309,7 +6309,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B741" t="n">
-        <v>0.4347281754016876</v>
+        <v>0.9975923299789429</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6317,7 +6317,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B742" t="n">
-        <v>0.4275709092617035</v>
+        <v>1.084928393363953</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6325,7 +6325,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B743" t="n">
-        <v>0.3876049220561981</v>
+        <v>0.8407395482063293</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6333,7 +6333,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B744" t="n">
-        <v>0.4657744169235229</v>
+        <v>0.7506497502326965</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6341,7 +6341,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B745" t="n">
-        <v>0.4408482909202576</v>
+        <v>1.017309546470642</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6349,7 +6349,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B746" t="n">
-        <v>0.4132794737815857</v>
+        <v>1.304531693458557</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6357,7 +6357,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B747" t="n">
-        <v>0.4432370662689209</v>
+        <v>1.070324420928955</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6365,7 +6365,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B748" t="n">
-        <v>0.4016603231430054</v>
+        <v>1.115719437599182</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6373,7 +6373,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B749" t="n">
-        <v>0.4560250341892242</v>
+        <v>1.019697546958923</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6381,7 +6381,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B750" t="n">
-        <v>0.4582442343235016</v>
+        <v>0.9351677298545837</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6389,7 +6389,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B751" t="n">
-        <v>0.3800328969955444</v>
+        <v>0.9847080707550049</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6397,7 +6397,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B752" t="n">
-        <v>0.4872799217700958</v>
+        <v>1.204727172851562</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6405,7 +6405,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B753" t="n">
-        <v>0.4579610228538513</v>
+        <v>0.7631630897521973</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6413,7 +6413,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B754" t="n">
-        <v>0.5004564523696899</v>
+        <v>0.9092569351196289</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6421,7 +6421,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B755" t="n">
-        <v>0.4447818696498871</v>
+        <v>0.8521578907966614</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6429,7 +6429,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B756" t="n">
-        <v>0.4113990068435669</v>
+        <v>0.9176750779151917</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6437,7 +6437,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B757" t="n">
-        <v>0.4235316216945648</v>
+        <v>0.9871841073036194</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B758" t="n">
-        <v>0.4600722789764404</v>
+        <v>0.7267552018165588</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B759" t="n">
-        <v>0.4727295637130737</v>
+        <v>0.9830301403999329</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B760" t="n">
-        <v>0.4585897028446198</v>
+        <v>1.241468191146851</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6469,7 +6469,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B761" t="n">
-        <v>0.4364102184772491</v>
+        <v>1.011430740356445</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6477,7 +6477,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B762" t="n">
-        <v>0.4436056017875671</v>
+        <v>0.967750072479248</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B763" t="n">
-        <v>0.4575278460979462</v>
+        <v>0.9343399405479431</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B764" t="n">
-        <v>0.4878288209438324</v>
+        <v>0.9855454564094543</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B765" t="n">
-        <v>0.4347665309906006</v>
+        <v>0.9889766573905945</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B766" t="n">
-        <v>0.4244040548801422</v>
+        <v>0.7962756156921387</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B767" t="n">
-        <v>0.4617944955825806</v>
+        <v>0.8058527112007141</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B768" t="n">
-        <v>0.3952447772026062</v>
+        <v>0.9575760960578918</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B769" t="n">
-        <v>0.424210786819458</v>
+        <v>1.113264918327332</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B770" t="n">
-        <v>0.4159058630466461</v>
+        <v>1.28514575958252</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B771" t="n">
-        <v>0.3543990254402161</v>
+        <v>0.8555057048797607</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4441290497779846</v>
+        <v>0.6493158936500549</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B773" t="n">
-        <v>0.4591315686702728</v>
+        <v>0.7700819969177246</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B774" t="n">
-        <v>0.4234655797481537</v>
+        <v>1.215454936027527</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4386394917964935</v>
+        <v>0.6408306956291199</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B776" t="n">
-        <v>0.3949735164642334</v>
+        <v>0.8486632108688354</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B777" t="n">
-        <v>0.4303648173809052</v>
+        <v>0.8859224915504456</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B778" t="n">
-        <v>0.460676908493042</v>
+        <v>1.139904618263245</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B779" t="n">
-        <v>0.400268942117691</v>
+        <v>0.9113323092460632</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B780" t="n">
-        <v>0.4408922791481018</v>
+        <v>1.090038776397705</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B781" t="n">
-        <v>0.4624449014663696</v>
+        <v>1.006887435913086</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B782" t="n">
-        <v>0.4324906170368195</v>
+        <v>0.9789571166038513</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B783" t="n">
-        <v>0.4539832770824432</v>
+        <v>1.127527117729187</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B784" t="n">
-        <v>0.4292682409286499</v>
+        <v>1.085217356681824</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B785" t="n">
-        <v>0.4167703688144684</v>
+        <v>0.9100627303123474</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B786" t="n">
-        <v>0.3920449912548065</v>
+        <v>0.8813844323158264</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B787" t="n">
-        <v>0.4157167971134186</v>
+        <v>0.993975043296814</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B788" t="n">
-        <v>0.4420987069606781</v>
+        <v>1.107985377311707</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B789" t="n">
-        <v>0.398139625787735</v>
+        <v>0.9291489720344543</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B790" t="n">
-        <v>0.3965925574302673</v>
+        <v>0.9475542306900024</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B791" t="n">
-        <v>0.3999680578708649</v>
+        <v>1.1910640001297</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B792" t="n">
-        <v>0.4488291144371033</v>
+        <v>0.9012614488601685</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4135665595531464</v>
+        <v>1.112593770027161</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B794" t="n">
-        <v>0.4038821160793304</v>
+        <v>1.205180168151855</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4041400849819183</v>
+        <v>1.031671285629272</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B796" t="n">
-        <v>0.3813459277153015</v>
+        <v>1.249614000320435</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B797" t="n">
-        <v>0.4378980994224548</v>
+        <v>0.9827660322189331</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B798" t="n">
-        <v>0.4896283149719238</v>
+        <v>1.060971140861511</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B799" t="n">
-        <v>0.416915088891983</v>
+        <v>1.108973383903503</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B800" t="n">
-        <v>0.3775914013385773</v>
+        <v>0.4942114055156708</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B801" t="n">
-        <v>0.400496631860733</v>
+        <v>0.8798526525497437</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6797,7 +6797,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B802" t="n">
-        <v>0.4432416558265686</v>
+        <v>0.8314552307128906</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6805,7 +6805,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B803" t="n">
-        <v>0.4231278598308563</v>
+        <v>1.039393901824951</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6813,7 +6813,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B804" t="n">
-        <v>0.3916646540164948</v>
+        <v>1.193421006202698</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6821,7 +6821,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B805" t="n">
-        <v>0.3908548057079315</v>
+        <v>0.5623448491096497</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6829,7 +6829,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B806" t="n">
-        <v>0.472343921661377</v>
+        <v>1.135271549224854</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6837,7 +6837,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B807" t="n">
-        <v>0.4344894289970398</v>
+        <v>0.8979658484458923</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6845,7 +6845,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B808" t="n">
-        <v>0.5002296566963196</v>
+        <v>0.8657546639442444</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6853,7 +6853,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B809" t="n">
-        <v>0.4415210783481598</v>
+        <v>0.921746551990509</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6861,7 +6861,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B810" t="n">
-        <v>0.4233530163764954</v>
+        <v>0.6911779046058655</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6869,7 +6869,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B811" t="n">
-        <v>0.4240470826625824</v>
+        <v>0.8865330815315247</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6877,7 +6877,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B812" t="n">
-        <v>0.38277268409729</v>
+        <v>0.8455710411071777</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6885,7 +6885,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B813" t="n">
-        <v>0.4777175784111023</v>
+        <v>1.081747055053711</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6893,7 +6893,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B814" t="n">
-        <v>0.3937865197658539</v>
+        <v>0.7988332509994507</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B815" t="n">
-        <v>0.486890971660614</v>
+        <v>1.073609709739685</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B816" t="n">
-        <v>0.3886658549308777</v>
+        <v>1.091440558433533</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B817" t="n">
-        <v>0.4248596429824829</v>
+        <v>0.9641422033309937</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B818" t="n">
-        <v>0.4314920902252197</v>
+        <v>0.4318617880344391</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B819" t="n">
-        <v>0.4561306536197662</v>
+        <v>0.7438244223594666</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B820" t="n">
-        <v>0.4929874539375305</v>
+        <v>0.8798816204071045</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B821" t="n">
-        <v>0.4354208409786224</v>
+        <v>0.7913764119148254</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B822" t="n">
-        <v>0.4682118594646454</v>
+        <v>0.6753565669059753</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B823" t="n">
-        <v>0.38425612449646</v>
+        <v>0.913324773311615</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B824" t="n">
-        <v>0.4017464220523834</v>
+        <v>0.7612940073013306</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B825" t="n">
-        <v>0.4398344755172729</v>
+        <v>0.845858097076416</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B826" t="n">
-        <v>0.4220276474952698</v>
+        <v>0.8725807070732117</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B827" t="n">
-        <v>0.4521858096122742</v>
+        <v>1.083315134048462</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B828" t="n">
-        <v>0.4382445514202118</v>
+        <v>1.115244030952454</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B829" t="n">
-        <v>0.4283709824085236</v>
+        <v>0.8766637444496155</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B830" t="n">
-        <v>0.3988941609859467</v>
+        <v>0.6686644554138184</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7029,7 +7029,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B831" t="n">
-        <v>0.4822559952735901</v>
+        <v>0.8740097880363464</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7037,7 +7037,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B832" t="n">
-        <v>0.4061688780784607</v>
+        <v>1.061196565628052</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7045,7 +7045,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B833" t="n">
-        <v>0.4275985658168793</v>
+        <v>0.6454625129699707</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7053,7 +7053,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B834" t="n">
-        <v>0.4470613300800323</v>
+        <v>1.266897916793823</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7061,7 +7061,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B835" t="n">
-        <v>0.4139136373996735</v>
+        <v>1.080913305282593</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7069,7 +7069,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B836" t="n">
-        <v>0.3973031938076019</v>
+        <v>0.8924353122711182</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B837" t="n">
-        <v>0.4896184206008911</v>
+        <v>0.57459557056427</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B838" t="n">
-        <v>0.441887378692627</v>
+        <v>0.8684637546539307</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B839" t="n">
-        <v>0.3684103786945343</v>
+        <v>1.300094962120056</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B840" t="n">
-        <v>0.4137241244316101</v>
+        <v>1.177337408065796</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B841" t="n">
-        <v>0.4197856187820435</v>
+        <v>0.7567511200904846</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B842" t="n">
-        <v>0.4188241064548492</v>
+        <v>1.527538537979126</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B843" t="n">
-        <v>0.4288019239902496</v>
+        <v>1.043269753456116</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B844" t="n">
-        <v>0.390808641910553</v>
+        <v>0.9693472981452942</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B845" t="n">
-        <v>0.4280900359153748</v>
+        <v>0.9483002424240112</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B846" t="n">
-        <v>0.3962032496929169</v>
+        <v>1.065128207206726</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4281433522701263</v>
+        <v>1.00750720500946</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B848" t="n">
-        <v>0.4489286839962006</v>
+        <v>1.24906063079834</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B849" t="n">
-        <v>0.3886412084102631</v>
+        <v>0.9389751553535461</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B850" t="n">
-        <v>0.4732089936733246</v>
+        <v>1.205454230308533</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B851" t="n">
-        <v>0.460005134344101</v>
+        <v>1.090412497520447</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B852" t="n">
-        <v>0.4061237871646881</v>
+        <v>0.4832706153392792</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B853" t="n">
-        <v>0.4526622593402863</v>
+        <v>0.8582852482795715</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B854" t="n">
-        <v>0.4387434720993042</v>
+        <v>0.8227492570877075</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B855" t="n">
-        <v>0.4412963688373566</v>
+        <v>1.032708883285522</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B856" t="n">
-        <v>0.4324896037578583</v>
+        <v>1.037899613380432</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B857" t="n">
-        <v>0.41037717461586</v>
+        <v>0.9068951010704041</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B858" t="n">
-        <v>0.4320580661296844</v>
+        <v>0.9646919965744019</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B859" t="n">
-        <v>0.4529712200164795</v>
+        <v>0.7063092589378357</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B860" t="n">
-        <v>0.3931096494197845</v>
+        <v>0.7319728136062622</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B861" t="n">
-        <v>0.5100410580635071</v>
+        <v>0.7718386650085449</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B862" t="n">
-        <v>0.4017884433269501</v>
+        <v>0.865999162197113</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B863" t="n">
-        <v>0.4261071681976318</v>
+        <v>1.224475502967834</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7293,7 +7293,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B864" t="n">
-        <v>0.3664744794368744</v>
+        <v>0.9594556093215942</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7301,7 +7301,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B865" t="n">
-        <v>0.4537214636802673</v>
+        <v>0.9836199283599854</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7309,7 +7309,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B866" t="n">
-        <v>0.3924697935581207</v>
+        <v>0.9743414521217346</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7317,7 +7317,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B867" t="n">
-        <v>0.4345982074737549</v>
+        <v>1.166131019592285</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7325,7 +7325,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B868" t="n">
-        <v>0.4504108726978302</v>
+        <v>1.071929693222046</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B869" t="n">
-        <v>0.3876506090164185</v>
+        <v>1.126567244529724</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B870" t="n">
-        <v>0.4175455868244171</v>
+        <v>1.390830755233765</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B871" t="n">
-        <v>0.4323132336139679</v>
+        <v>0.9896483421325684</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B872" t="n">
-        <v>0.3866258859634399</v>
+        <v>1.04336404800415</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B873" t="n">
-        <v>0.4293143749237061</v>
+        <v>0.7829767465591431</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B874" t="n">
-        <v>0.4266277253627777</v>
+        <v>0.6539134383201599</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B875" t="n">
-        <v>0.4432707130908966</v>
+        <v>0.9084702134132385</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B876" t="n">
-        <v>0.4250327348709106</v>
+        <v>1.196986436843872</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7397,7 +7397,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B877" t="n">
-        <v>0.4138767123222351</v>
+        <v>1.089855194091797</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7405,7 +7405,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B878" t="n">
-        <v>0.4126307666301727</v>
+        <v>0.9912106394767761</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7413,7 +7413,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B879" t="n">
-        <v>0.4364261627197266</v>
+        <v>1.006351828575134</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7421,7 +7421,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B880" t="n">
-        <v>0.4475168585777283</v>
+        <v>0.8761311769485474</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7429,7 +7429,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B881" t="n">
-        <v>0.4318889677524567</v>
+        <v>0.8159218430519104</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7437,7 +7437,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B882" t="n">
-        <v>0.4451697170734406</v>
+        <v>1.119865655899048</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7445,7 +7445,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B883" t="n">
-        <v>0.4010768234729767</v>
+        <v>1.0788414478302</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7453,7 +7453,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4450471997261047</v>
+        <v>1.217877626419067</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7461,7 +7461,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B885" t="n">
-        <v>0.4322844743728638</v>
+        <v>1.045519113540649</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7469,7 +7469,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B886" t="n">
-        <v>0.4674563705921173</v>
+        <v>1.040332555770874</v>
       </c>
     </row>
   </sheetData>
@@ -7501,10 +7501,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>0.002894970358168658</v>
+        <v>0.7019214999213477</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3215498884557658</v>
+        <v>0.2141651235278681</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat.xlsx
+++ b/result/chenting_20151124_noon_2.mat.xlsx
@@ -397,7 +397,7 @@
         <v>0.1192333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1818171143531799</v>
+        <v>0.512444019317627</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -405,7 +405,7 @@
         <v>0.1490888888888889</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1515710651874542</v>
+        <v>0.5027994513511658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -413,7 +413,7 @@
         <v>0.1775633333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3017697334289551</v>
+        <v>0.465379923582077</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -421,7 +421,7 @@
         <v>0.1945238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1352823078632355</v>
+        <v>0.3904238939285278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -429,7 +429,7 @@
         <v>0.2202944444444445</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1838996112346649</v>
+        <v>0.4282263219356537</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -437,7 +437,7 @@
         <v>0.2505045454545454</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5398855209350586</v>
+        <v>0.5505359768867493</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -445,7 +445,7 @@
         <v>0.277601282051282</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3615258932113647</v>
+        <v>0.3599084317684174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -453,7 +453,7 @@
         <v>0.3046344444444445</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1079281345009804</v>
+        <v>0.4658010005950928</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -461,7 +461,7 @@
         <v>0.3257166666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1621660590171814</v>
+        <v>0.4887232780456543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -469,7 +469,7 @@
         <v>0.3341956140350877</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2664020955562592</v>
+        <v>0.4228668212890625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -477,7 +477,7 @@
         <v>0.3416626984126985</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1324780285358429</v>
+        <v>0.4546042382717133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -485,7 +485,7 @@
         <v>0.345522463768116</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07880533486604691</v>
+        <v>0.4604902863502502</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -493,7 +493,7 @@
         <v>0.3481466666666668</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1550439298152924</v>
+        <v>0.430667519569397</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -501,7 +501,7 @@
         <v>0.3549956790123457</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1629309803247452</v>
+        <v>0.4243881106376648</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -509,7 +509,7 @@
         <v>0.363182183908046</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1132509186863899</v>
+        <v>0.4537787139415741</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -517,7 +517,7 @@
         <v>0.3764873563218391</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2753986418247223</v>
+        <v>0.5307570695877075</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -525,7 +525,7 @@
         <v>0.3897994252873563</v>
       </c>
       <c r="B18" t="n">
-        <v>0.139961764216423</v>
+        <v>0.5142053365707397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -533,7 +533,7 @@
         <v>0.4014954022988506</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150313138961792</v>
+        <v>0.4987108409404755</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -541,7 +541,7 @@
         <v>0.4092097701149425</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2968882620334625</v>
+        <v>0.5374938249588013</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -549,7 +549,7 @@
         <v>0.4150586206896552</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3805830180644989</v>
+        <v>0.6047469973564148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -557,7 +557,7 @@
         <v>0.4200925287356322</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1733883917331696</v>
+        <v>0.5989639163017273</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -565,7 +565,7 @@
         <v>0.4210741379310345</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4173516631126404</v>
+        <v>0.5275396704673767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -573,7 +573,7 @@
         <v>0.4212034482758621</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2841350436210632</v>
+        <v>0.5154434442520142</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -581,7 +581,7 @@
         <v>0.4191971264367816</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3415307402610779</v>
+        <v>0.5225305557250977</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -589,7 +589,7 @@
         <v>0.4154270114942529</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4774583876132965</v>
+        <v>0.4758633971214294</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -597,7 +597,7 @@
         <v>0.4107833333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3395915627479553</v>
+        <v>0.5244590044021606</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -605,7 +605,7 @@
         <v>0.4077212643678161</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1531626880168915</v>
+        <v>0.4470605850219727</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -613,7 +613,7 @@
         <v>0.4036827586206897</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3758100271224976</v>
+        <v>0.391997367143631</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -621,7 +621,7 @@
         <v>0.398082183908046</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06984715163707733</v>
+        <v>0.3714337646961212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -629,7 +629,7 @@
         <v>0.3926948275862069</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02759233117103577</v>
+        <v>0.4621601700782776</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -637,7 +637,7 @@
         <v>0.3866890804597701</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3619967103004456</v>
+        <v>0.4094860255718231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -645,7 +645,7 @@
         <v>0.3810270114942528</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3226334154605865</v>
+        <v>0.3714741766452789</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -653,7 +653,7 @@
         <v>0.37675</v>
       </c>
       <c r="B34" t="n">
-        <v>0.258768767118454</v>
+        <v>0.3718328773975372</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -661,7 +661,7 @@
         <v>0.3732701149425287</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1000314950942993</v>
+        <v>0.5021578669548035</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -669,7 +669,7 @@
         <v>0.3685293103448276</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350250244140625</v>
+        <v>0.3832431733608246</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -677,7 +677,7 @@
         <v>0.36195</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3821181058883667</v>
+        <v>0.5572594404220581</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -685,7 +685,7 @@
         <v>0.3557885057471264</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4972405433654785</v>
+        <v>0.4530521631240845</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -693,7 +693,7 @@
         <v>0.3512775862068965</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09874233603477478</v>
+        <v>0.3927254676818848</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -701,7 +701,7 @@
         <v>0.3469396551724138</v>
       </c>
       <c r="B40" t="n">
-        <v>0.316092848777771</v>
+        <v>0.4947909116744995</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -709,7 +709,7 @@
         <v>0.3414729885057471</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2651263475418091</v>
+        <v>0.5033401846885681</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -717,7 +717,7 @@
         <v>0.3355672413793104</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2034457921981812</v>
+        <v>0.4733325242996216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -725,7 +725,7 @@
         <v>0.3307109195402299</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1710414290428162</v>
+        <v>0.3600494563579559</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -733,7 +733,7 @@
         <v>0.3262729885057471</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08616465330123901</v>
+        <v>0.4862657785415649</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -741,7 +741,7 @@
         <v>0.3219293103448275</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1593343913555145</v>
+        <v>0.4757164120674133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -749,7 +749,7 @@
         <v>0.3185563218390804</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2715255916118622</v>
+        <v>0.5292957425117493</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -757,7 +757,7 @@
         <v>0.3134724137931034</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1120096892118454</v>
+        <v>0.397381454706192</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -765,7 +765,7 @@
         <v>0.308530459770115</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4157422780990601</v>
+        <v>0.4861500561237335</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -773,7 +773,7 @@
         <v>0.3077706896551724</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3805764615535736</v>
+        <v>0.4295104742050171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -781,7 +781,7 @@
         <v>0.3085097701149425</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1232827827334404</v>
+        <v>0.442739337682724</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -789,7 +789,7 @@
         <v>0.311433908045977</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3387994468212128</v>
+        <v>0.4581333994865417</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -797,7 +797,7 @@
         <v>0.3189</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3063358664512634</v>
+        <v>0.4267711043357849</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -805,7 +805,7 @@
         <v>0.327998275862069</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3109322488307953</v>
+        <v>0.3904611766338348</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -813,7 +813,7 @@
         <v>0.3391028735632184</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674973726272583</v>
+        <v>0.4492614269256592</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -821,7 +821,7 @@
         <v>0.3508040229885057</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3821180760860443</v>
+        <v>0.4630197584629059</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -829,7 +829,7 @@
         <v>0.3632316091954023</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1075694337487221</v>
+        <v>0.4449016153812408</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -837,7 +837,7 @@
         <v>0.3738252873563218</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4322045147418976</v>
+        <v>0.5519558787345886</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -845,7 +845,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1030521243810654</v>
+        <v>0.4907512068748474</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -853,7 +853,7 @@
         <v>0.3894775862068965</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09374061226844788</v>
+        <v>0.4353911578655243</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -861,7 +861,7 @@
         <v>0.3941091954022988</v>
       </c>
       <c r="B60" t="n">
-        <v>0.381599098443985</v>
+        <v>0.3982578814029694</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -869,7 +869,7 @@
         <v>0.3961287356321839</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1276885271072388</v>
+        <v>0.4591037929058075</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -877,7 +877,7 @@
         <v>0.3981137931034483</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3040050566196442</v>
+        <v>0.4175395965576172</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -885,7 +885,7 @@
         <v>0.4000195402298851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01231702417135239</v>
+        <v>0.4801108241081238</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -893,7 +893,7 @@
         <v>0.4024931034482758</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00267038494348526</v>
+        <v>0.440258651971817</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -901,7 +901,7 @@
         <v>0.4048022988505747</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3546232879161835</v>
+        <v>0.4603249430656433</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -909,7 +909,7 @@
         <v>0.4094201149425287</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1032762601971626</v>
+        <v>0.4121831059455872</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -917,7 +917,7 @@
         <v>0.4150580459770114</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1064039617776871</v>
+        <v>0.4439505934715271</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -925,7 +925,7 @@
         <v>0.419585632183908</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2127067148685455</v>
+        <v>0.3963964879512787</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -933,7 +933,7 @@
         <v>0.4244086206896551</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1365406811237335</v>
+        <v>0.46943399310112</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -941,7 +941,7 @@
         <v>0.4298201149425287</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06395316869020462</v>
+        <v>0.3904977142810822</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -949,7 +949,7 @@
         <v>0.4349988505747126</v>
       </c>
       <c r="B71" t="n">
-        <v>0.102270171046257</v>
+        <v>0.4266395270824432</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -957,7 +957,7 @@
         <v>0.4376879310344827</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3192194998264313</v>
+        <v>0.4471873044967651</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -965,7 +965,7 @@
         <v>0.4388293103448275</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4285381436347961</v>
+        <v>0.4134361743927002</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -973,7 +973,7 @@
         <v>0.4388114942528736</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4263841211795807</v>
+        <v>0.4362066090106964</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -981,7 +981,7 @@
         <v>0.4371045977011494</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04681607335805893</v>
+        <v>0.4896264672279358</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -989,7 +989,7 @@
         <v>0.4379580459770114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1836139857769012</v>
+        <v>0.4797935485839844</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -997,7 +997,7 @@
         <v>0.4383160919540229</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1804414093494415</v>
+        <v>0.5350799560546875</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>0.4376689655172414</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4236172139644623</v>
+        <v>0.510802686214447</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>0.4391545977011494</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5073686242103577</v>
+        <v>0.4947257339954376</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>0.4421057471264367</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4285992980003357</v>
+        <v>0.5999824404716492</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>0.4450890804597701</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2956179082393646</v>
+        <v>0.5677825212478638</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>0.4464643678160919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.274142324924469</v>
+        <v>0.609444260597229</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>0.447966091954023</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4691673815250397</v>
+        <v>0.6402049660682678</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>0.449382183908046</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4086931645870209</v>
+        <v>0.6305888295173645</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>0.4530155172413792</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4557912349700928</v>
+        <v>0.5834794044494629</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>0.4590120689655172</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4367924630641937</v>
+        <v>0.4805580675601959</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>0.4668396551724138</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1879012882709503</v>
+        <v>0.4587800204753876</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>0.4764936781609196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08381279557943344</v>
+        <v>0.459534078836441</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>0.48935</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4170224368572235</v>
+        <v>0.5186843276023865</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>0.5043419540229885</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1510129272937775</v>
+        <v>0.4937009513378143</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>0.5202988505747126</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1918183565139771</v>
+        <v>0.4915911555290222</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>0.5346902298850574</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4638127386569977</v>
+        <v>0.4906109273433685</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.5464528735632185</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5374236106872559</v>
+        <v>0.5742301940917969</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>0.5563712643678161</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4014261364936829</v>
+        <v>0.541664719581604</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.5641028735632183</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5648803114891052</v>
+        <v>0.5751330852508545</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>0.5722787356321839</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4572354853153229</v>
+        <v>0.7060989141464233</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>0.578233908045977</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2579291760921478</v>
+        <v>0.6142110228538513</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>0.5825206896551723</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4098609685897827</v>
+        <v>0.5062299966812134</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>0.5899620689655172</v>
       </c>
       <c r="B99" t="n">
-        <v>0.524053156375885</v>
+        <v>0.6587196588516235</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>0.5981896551724138</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4958714246749878</v>
+        <v>0.5980094075202942</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>0.6104068965517243</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5113358497619629</v>
+        <v>0.8551477789878845</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>0.6255580459770115</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4313921928405762</v>
+        <v>0.7886611223220825</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>0.6424011494252875</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5806485414505005</v>
+        <v>0.7000617980957031</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>0.661157471264368</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3278555572032928</v>
+        <v>0.7708720564842224</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>0.6803965517241379</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3838608264923096</v>
+        <v>0.8643057942390442</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>0.701371264367816</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6702824831008911</v>
+        <v>0.8577778339385986</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>0.722021264367816</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2783023118972778</v>
+        <v>0.6809331774711609</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>0.7407643678160918</v>
       </c>
       <c r="B108" t="n">
-        <v>0.567550003528595</v>
+        <v>0.6584407091140747</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>0.7568729885057469</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2328744828701019</v>
+        <v>0.7796753644943237</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>0.7710499999999998</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2392877042293549</v>
+        <v>0.7478269338607788</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>0.7847103448275861</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5140788555145264</v>
+        <v>0.7751337289810181</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>0.7973994252873561</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3101474642753601</v>
+        <v>0.6876855492591858</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>0.8095224137931031</v>
       </c>
       <c r="B113" t="n">
-        <v>0.342594712972641</v>
+        <v>0.6652763485908508</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>0.8189488505747122</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4704161286354065</v>
+        <v>0.6598737835884094</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>0.826033333333333</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4417365193367004</v>
+        <v>0.6065472364425659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>0.8325080459770111</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4083073139190674</v>
+        <v>0.6660950779914856</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>0.8392218390804594</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1676355600357056</v>
+        <v>0.6298736333847046</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>0.8445787356321836</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3021760582923889</v>
+        <v>0.5593687891960144</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>0.8501488505747122</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3543829917907715</v>
+        <v>0.6822310090065002</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>0.8545712643678158</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3314180672168732</v>
+        <v>0.7455089092254639</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>0.8612999999999997</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3120497167110443</v>
+        <v>0.7885220646858215</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>0.8701563218390803</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5368848443031311</v>
+        <v>0.9194734692573547</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>0.8814637931034481</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4485742151737213</v>
+        <v>0.5960081219673157</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>0.8945580459770115</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2989055216312408</v>
+        <v>0.9245247840881348</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>0.9064333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5425727367401123</v>
+        <v>0.9994775652885437</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>0.9214310344827588</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4869047105312347</v>
+        <v>0.9571837782859802</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>0.9378908045977012</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7276768088340759</v>
+        <v>1.013349771499634</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>0.9507597701149425</v>
       </c>
       <c r="B128" t="n">
-        <v>0.696402907371521</v>
+        <v>1.037967920303345</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>0.9623103448275863</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3966878056526184</v>
+        <v>0.8952609896659851</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>0.9707614942528736</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5355775356292725</v>
+        <v>0.9600703120231628</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>0.9771229885057473</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8069232702255249</v>
+        <v>0.8236607909202576</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>0.9816954022988508</v>
       </c>
       <c r="B132" t="n">
-        <v>0.513822078704834</v>
+        <v>0.9997119903564453</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>0.9845718390804601</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7462020516395569</v>
+        <v>0.9520637392997742</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>0.9855333333333337</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8062611222267151</v>
+        <v>0.8630532622337341</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>0.9854954022988509</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9008333683013916</v>
+        <v>0.8710809350013733</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>0.9854574712643681</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3730764091014862</v>
+        <v>0.8575817346572876</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>0.985457471264368</v>
       </c>
       <c r="B137" t="n">
-        <v>0.768842875957489</v>
+        <v>0.9507500529289246</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>0.9850586206896553</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8541431427001953</v>
+        <v>0.9082840085029602</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>0.9846597701149429</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6711229681968689</v>
+        <v>1.045070648193359</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>0.9842609195402302</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7667050361633301</v>
+        <v>1.025166273117065</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>0.9838620689655176</v>
       </c>
       <c r="B141" t="n">
-        <v>0.471477210521698</v>
+        <v>0.8436547517776489</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>0.9834632183908051</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5925911068916321</v>
+        <v>0.8703476190567017</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>0.9823982758620694</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5712923407554626</v>
+        <v>0.9499436020851135</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>0.9790908045977016</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8956668376922607</v>
+        <v>1.03130316734314</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>0.9756959770114946</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7711167335510254</v>
+        <v>1.269334673881531</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>0.9716477011494256</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7812212109565735</v>
+        <v>0.8824819922447205</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>0.9681885057471267</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4975894689559937</v>
+        <v>0.8308944702148438</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>0.9650545977011497</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8314697742462158</v>
+        <v>1.126040935516357</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>0.9611781609195404</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6189403533935547</v>
+        <v>1.090243577957153</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>0.9573017241379311</v>
       </c>
       <c r="B150" t="n">
-        <v>0.777241587638855</v>
+        <v>1.023836851119995</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>0.9562775862068966</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4613585472106934</v>
+        <v>0.9924132227897644</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>0.9555758620689656</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7130938172340393</v>
+        <v>1.065980076789856</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>0.9560137931034484</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7535004019737244</v>
+        <v>0.8525158166885376</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>0.956451724137931</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6553775668144226</v>
+        <v>1.000022172927856</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>0.9559201149425287</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7266900539398193</v>
+        <v>0.9490439295768738</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>0.9565091954022986</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8028728365898132</v>
+        <v>0.9069580435752869</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>0.9572505747126434</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5615448355674744</v>
+        <v>0.9542925357818604</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>0.9577637931034481</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6715022325515747</v>
+        <v>0.898876965045929</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>0.9582770114942526</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7315425276756287</v>
+        <v>1.139377117156982</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>0.9587902298850571</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6251569986343384</v>
+        <v>0.9880555272102356</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>0.9593034482758618</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7224099636077881</v>
+        <v>0.9583995342254639</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>0.9598166666666663</v>
       </c>
       <c r="B162" t="n">
-        <v>0.433139443397522</v>
+        <v>1.029774069786072</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>0.9601017241379307</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3656870126724243</v>
+        <v>0.9780848026275635</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>0.9601396551724134</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9101361036300659</v>
+        <v>0.9165604710578918</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>0.9601775862068961</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6788593530654907</v>
+        <v>1.045057654380798</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>0.960177586206896</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4498383104801178</v>
+        <v>1.037591218948364</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>0.9605764367816085</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6831706762313843</v>
+        <v>1.085258722305298</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>0.9609752873563213</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5023505091667175</v>
+        <v>0.9306686520576477</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>0.9613741379310339</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5743501782417297</v>
+        <v>0.9565407633781433</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>0.9617729885057467</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8443569540977478</v>
+        <v>0.9724416136741638</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>0.9621718390804592</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6214978098869324</v>
+        <v>1.07590115070343</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>0.9632367816091949</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6299330592155457</v>
+        <v>0.9266036152839661</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>0.9665442528735627</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6130586862564087</v>
+        <v>1.114981174468994</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>0.9699390804597696</v>
       </c>
       <c r="B174" t="n">
-        <v>0.786913275718689</v>
+        <v>1.011304140090942</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>0.9739873563218386</v>
       </c>
       <c r="B175" t="n">
-        <v>0.441140204668045</v>
+        <v>0.9033442139625549</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>0.9780735632183903</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5587030649185181</v>
+        <v>0.9262760281562805</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>0.9821005747126432</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5463282465934753</v>
+        <v>0.8087963461875916</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>0.9867942528735628</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7310089468955994</v>
+        <v>0.8829074501991272</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>0.9914879310344824</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6643658876419067</v>
+        <v>0.7685900330543518</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>0.9935954022988503</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8966293334960938</v>
+        <v>0.7939820885658264</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>0.9953804597701148</v>
       </c>
       <c r="B181" t="n">
-        <v>0.62093186378479</v>
+        <v>0.8843958973884583</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>0.9960258620689654</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6926753520965576</v>
+        <v>0.7711917757987976</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>0.9966712643678161</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7831560969352722</v>
+        <v>0.8291453719139099</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>0.9974500000000001</v>
       </c>
       <c r="B184" t="n">
-        <v>1.00977635383606</v>
+        <v>0.8558976650238037</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7843290567398071</v>
+        <v>0.7395755648612976</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8131452798843384</v>
+        <v>0.8337128162384033</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>0.9975068965517242</v>
       </c>
       <c r="B187" t="n">
-        <v>0.754403829574585</v>
+        <v>0.7342243790626526</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>0.9973362068965518</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5382835268974304</v>
+        <v>0.7384510636329651</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>0.9971655172413794</v>
       </c>
       <c r="B189" t="n">
-        <v>0.683208703994751</v>
+        <v>0.8104591965675354</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>0.9969948275862069</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6708558797836304</v>
+        <v>0.7964547872543335</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>0.9968241379310345</v>
       </c>
       <c r="B191" t="n">
-        <v>0.687812864780426</v>
+        <v>1.008788824081421</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>0.996653448275862</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8225657343864441</v>
+        <v>0.7532099485397339</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>0.9964827586206895</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7732637524604797</v>
+        <v>0.8456950783729553</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>0.9963120689655171</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5165640115737915</v>
+        <v>0.912513256072998</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7358189821243286</v>
+        <v>0.8476962447166443</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>0.9962741379310343</v>
       </c>
       <c r="B196" t="n">
-        <v>0.8016316890716553</v>
+        <v>0.8296982645988464</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6630082726478577</v>
+        <v>0.7655317783355713</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>0.9962741379310341</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8764322400093079</v>
+        <v>0.8964585065841675</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>0.9941959770114939</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8151054382324219</v>
+        <v>0.7456966042518616</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>0.9898321839080456</v>
       </c>
       <c r="B200" t="n">
-        <v>0.6540159583091736</v>
+        <v>0.8178552985191345</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>0.9824580459770111</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7002816796302795</v>
+        <v>0.7444612383842468</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>0.9722356321839077</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8038168549537659</v>
+        <v>0.8316887021064758</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>0.958213793103448</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7387210130691528</v>
+        <v>0.8259639143943787</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>0.9406183908045974</v>
       </c>
       <c r="B204" t="n">
-        <v>0.7496540546417236</v>
+        <v>0.8987893462181091</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>0.9198339080459769</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6004557609558105</v>
+        <v>0.8732882142066956</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>0.8984367816091953</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7848827242851257</v>
+        <v>0.8332692384719849</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>0.8757454022988506</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8624184131622314</v>
+        <v>0.8093461990356445</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>0.8518149425287356</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6785311698913574</v>
+        <v>0.8705781102180481</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>0.8269068965517241</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6651422381401062</v>
+        <v>0.8426957726478577</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>0.8035959770114942</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8356326818466187</v>
+        <v>0.7509528994560242</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>0.7803781609195404</v>
       </c>
       <c r="B211" t="n">
-        <v>0.7253082990646362</v>
+        <v>0.6683832406997681</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>0.758893103448276</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7167822122573853</v>
+        <v>0.8141527771949768</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>0.7361936781609195</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7775554656982422</v>
+        <v>0.8489607572555542</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>0.7123706896551726</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8028520941734314</v>
+        <v>0.8327906131744385</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>0.6886798850574714</v>
       </c>
       <c r="B215" t="n">
-        <v>0.7797694206237793</v>
+        <v>0.8248640298843384</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>0.665223563218391</v>
       </c>
       <c r="B216" t="n">
-        <v>0.7129427194595337</v>
+        <v>0.7873460650444031</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>0.6412798850574714</v>
       </c>
       <c r="B217" t="n">
-        <v>0.782052755355835</v>
+        <v>0.7898352146148682</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>0.6168591954022989</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7211107611656189</v>
+        <v>0.7856063842773438</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>0.5911747126436782</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7428134679794312</v>
+        <v>0.5948708057403564</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>0.5640833333333333</v>
       </c>
       <c r="B220" t="n">
-        <v>0.6829541921615601</v>
+        <v>0.7316583395004272</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>0.5365281609195401</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5960735678672791</v>
+        <v>0.564992368221283</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>0.5076925287356322</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5640954375267029</v>
+        <v>0.4236881136894226</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>0.4796224137931034</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5790206789970398</v>
+        <v>0.5101432204246521</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>0.4527005747126436</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3908854722976685</v>
+        <v>0.3203493356704712</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>0.4249482758620689</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3108680844306946</v>
+        <v>0.2991785109043121</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>0.3971431034482759</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3328434526920319</v>
+        <v>0.3716903924942017</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>0.3714425287356322</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3477126955986023</v>
+        <v>0.262109100818634</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>0.3492850574712644</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3525389134883881</v>
+        <v>0.4116098880767822</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>0.3290091954022988</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3911647796630859</v>
+        <v>0.2780340909957886</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>0.3110758620689656</v>
       </c>
       <c r="B230" t="n">
-        <v>0.29909747838974</v>
+        <v>0.3466516137123108</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>0.2952614942528736</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4624267518520355</v>
+        <v>0.2866743803024292</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>0.2828270114942529</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3600356876850128</v>
+        <v>0.2232344001531601</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>0.2738689655172413</v>
       </c>
       <c r="B233" t="n">
-        <v>0.2439795434474945</v>
+        <v>0.2922623455524445</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>0.2676689655172413</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4882315099239349</v>
+        <v>0.2480864226818085</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>0.2606925287356321</v>
       </c>
       <c r="B235" t="n">
-        <v>0.4203372299671173</v>
+        <v>0.2976379692554474</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>0.2571442528735631</v>
       </c>
       <c r="B236" t="n">
-        <v>0.356918603181839</v>
+        <v>0.2817138731479645</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>0.2558321839080459</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3633765876293182</v>
+        <v>0.2473333030939102</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>0.2564333333333333</v>
       </c>
       <c r="B238" t="n">
-        <v>0.4195641279220581</v>
+        <v>0.2820223569869995</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>0.2570103448275862</v>
       </c>
       <c r="B239" t="n">
-        <v>0.4788979887962341</v>
+        <v>0.3604491353034973</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>0.2572574712643678</v>
       </c>
       <c r="B240" t="n">
-        <v>0.4119731187820435</v>
+        <v>0.3776432871818542</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>0.2571114942528736</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3484741151332855</v>
+        <v>0.4164096117019653</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>0.2580396551724138</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4687344133853912</v>
+        <v>0.2900712788105011</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>0.259069540229885</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3800718188285828</v>
+        <v>0.3237528204917908</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>0.2603712643678161</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3826101124286652</v>
+        <v>0.3607128858566284</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>0.2611114942528736</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3753969073295593</v>
+        <v>0.3528522253036499</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>0.2618045977011495</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3854788541793823</v>
+        <v>0.3627419471740723</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>0.2635040229885058</v>
       </c>
       <c r="B247" t="n">
-        <v>0.4801901876926422</v>
+        <v>0.2867760956287384</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>0.2667741379310345</v>
       </c>
       <c r="B248" t="n">
-        <v>0.4375867247581482</v>
+        <v>0.3287855982780457</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>0.2711574712643679</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3826526999473572</v>
+        <v>0.3384315371513367</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>0.2762183908045978</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3861334025859833</v>
+        <v>0.3305323719978333</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>0.2823758620689656</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3559762537479401</v>
+        <v>0.2868752479553223</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>0.287098275862069</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4222655296325684</v>
+        <v>0.3450750708580017</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>0.2906511494252874</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4553743004798889</v>
+        <v>0.3038108348846436</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>0.2955103448275862</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3310782015323639</v>
+        <v>0.2616301774978638</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>0.2995781609195402</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3919780254364014</v>
+        <v>0.2331085354089737</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>0.3015258620689655</v>
       </c>
       <c r="B256" t="n">
-        <v>0.433349221944809</v>
+        <v>0.3186274170875549</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>0.3025810344827586</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3547101616859436</v>
+        <v>0.3845694065093994</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>0.3033201149425287</v>
       </c>
       <c r="B258" t="n">
-        <v>0.4837576448917389</v>
+        <v>0.4558964967727661</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>0.3050499999999999</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3437252044677734</v>
+        <v>0.3444696664810181</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>0.3079701149425287</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3730721473693848</v>
+        <v>0.4511203169822693</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>0.3095856321839081</v>
       </c>
       <c r="B261" t="n">
-        <v>0.5089666843414307</v>
+        <v>0.49028480052948</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>0.3110752873563218</v>
       </c>
       <c r="B262" t="n">
-        <v>0.4039203524589539</v>
+        <v>0.339917778968811</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>0.3126597701149425</v>
       </c>
       <c r="B263" t="n">
-        <v>0.4380948841571808</v>
+        <v>0.3478391170501709</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>0.3162821839080459</v>
       </c>
       <c r="B264" t="n">
-        <v>0.4320847988128662</v>
+        <v>0.255678653717041</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>0.3174505747126437</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3798453509807587</v>
+        <v>0.2601218819618225</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>0.3185752873563217</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4584685266017914</v>
+        <v>0.4339828491210938</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>0.3186298850574712</v>
       </c>
       <c r="B267" t="n">
-        <v>0.4690719544887543</v>
+        <v>0.3156246542930603</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>0.3178798850574712</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3466877639293671</v>
+        <v>0.2611103355884552</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>0.3185172413793103</v>
       </c>
       <c r="B269" t="n">
-        <v>0.291229635477066</v>
+        <v>0.3188509345054626</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>0.3173689655172414</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3180446624755859</v>
+        <v>0.2758910059928894</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>0.3159672413793103</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3373913466930389</v>
+        <v>0.2110618054866791</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>0.3152591954022989</v>
       </c>
       <c r="B272" t="n">
-        <v>0.2797353267669678</v>
+        <v>0.4186847805976868</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>0.3147252873563219</v>
       </c>
       <c r="B273" t="n">
-        <v>0.423837423324585</v>
+        <v>0.2721921801567078</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>0.3146413793103449</v>
       </c>
       <c r="B274" t="n">
-        <v>0.3735070824623108</v>
+        <v>0.2834298014640808</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>0.3148971264367817</v>
       </c>
       <c r="B275" t="n">
-        <v>0.5403906106948853</v>
+        <v>0.3666580319404602</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>0.3137994252873564</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4289023578166962</v>
+        <v>0.3641664385795593</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>0.3128362068965518</v>
       </c>
       <c r="B277" t="n">
-        <v>0.3039064407348633</v>
+        <v>0.312071681022644</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>0.3126620689655173</v>
       </c>
       <c r="B278" t="n">
-        <v>0.5068072080612183</v>
+        <v>0.4401742815971375</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>0.3118028735632185</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4427756071090698</v>
+        <v>0.4850847125053406</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>0.3109833333333334</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4968598783016205</v>
+        <v>0.429972767829895</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>0.3108379310344828</v>
       </c>
       <c r="B281" t="n">
-        <v>0.487529456615448</v>
+        <v>0.3915513157844543</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>0.3102224137931036</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4417259097099304</v>
+        <v>0.3852428197860718</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0.3093321839080461</v>
       </c>
       <c r="B283" t="n">
-        <v>0.4006581604480743</v>
+        <v>0.3937467336654663</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>0.3102247126436782</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4526301920413971</v>
+        <v>0.3878880143165588</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>0.3109385057471264</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3876612484455109</v>
+        <v>0.4204656481742859</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>0.3122454022988506</v>
       </c>
       <c r="B286" t="n">
-        <v>0.4058419167995453</v>
+        <v>0.2403543442487717</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>0.3141051724137931</v>
       </c>
       <c r="B287" t="n">
-        <v>0.4798993170261383</v>
+        <v>0.3606384992599487</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>0.3154666666666666</v>
       </c>
       <c r="B288" t="n">
-        <v>0.4193809628486633</v>
+        <v>0.2460225224494934</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>0.3162143678160919</v>
       </c>
       <c r="B289" t="n">
-        <v>0.2620561122894287</v>
+        <v>0.3102189004421234</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>0.3190258620689655</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2901303172111511</v>
+        <v>0.3584998846054077</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>0.3218408045977012</v>
       </c>
       <c r="B291" t="n">
-        <v>0.4259886741638184</v>
+        <v>0.3940102458000183</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>0.3262310344827587</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3553951680660248</v>
+        <v>0.4647770524024963</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>0.331217816091954</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3317345976829529</v>
+        <v>0.3310462236404419</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>0.3382902298850575</v>
       </c>
       <c r="B294" t="n">
-        <v>0.4523971676826477</v>
+        <v>0.3010122776031494</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>0.3475735632183908</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5045717358589172</v>
+        <v>0.3910896182060242</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>0.3560540229885058</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3988152146339417</v>
+        <v>0.3603426814079285</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>0.3633045977011494</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3018155992031097</v>
+        <v>0.3151947259902954</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>0.3694396551724137</v>
       </c>
       <c r="B298" t="n">
-        <v>0.4106104075908661</v>
+        <v>0.311796635389328</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>0.3738183908045976</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2393353283405304</v>
+        <v>0.3464754223823547</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>0.3765758620689654</v>
       </c>
       <c r="B300" t="n">
-        <v>0.4065479040145874</v>
+        <v>0.3276565074920654</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>0.3761597701149424</v>
       </c>
       <c r="B301" t="n">
-        <v>0.388934999704361</v>
+        <v>0.3279677629470825</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>0.3713614942528735</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3441083431243896</v>
+        <v>0.3352498412132263</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>0.3649362068965517</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3437411785125732</v>
+        <v>0.2870702743530273</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>0.3601362068965517</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3231653571128845</v>
+        <v>0.2426847666501999</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>0.3557362068965517</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3688797950744629</v>
+        <v>0.2594132423400879</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>0.3524051724137931</v>
       </c>
       <c r="B306" t="n">
-        <v>0.388251006603241</v>
+        <v>0.1564502269029617</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>0.3501833333333333</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4458997845649719</v>
+        <v>0.3155803680419922</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>0.349837356321839</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2450417280197144</v>
+        <v>0.3077303767204285</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>0.3508114942528736</v>
       </c>
       <c r="B309" t="n">
-        <v>0.4161582887172699</v>
+        <v>0.2545716464519501</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>0.353514367816092</v>
       </c>
       <c r="B310" t="n">
-        <v>0.384013295173645</v>
+        <v>0.2551142275333405</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>0.3559988505747127</v>
       </c>
       <c r="B311" t="n">
-        <v>0.4111099541187286</v>
+        <v>0.3369690179824829</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>0.3574603448275863</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5687199234962463</v>
+        <v>0.3290188908576965</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>0.3585114942528736</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4333871006965637</v>
+        <v>0.2677496075630188</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>0.3587390804597701</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3403860628604889</v>
+        <v>0.3010891675949097</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>0.3584551724137931</v>
       </c>
       <c r="B315" t="n">
-        <v>0.5401365160942078</v>
+        <v>0.3893318772315979</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>0.3602528735632184</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4470372796058655</v>
+        <v>0.3381166756153107</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>0.3619959770114943</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4525675475597382</v>
+        <v>0.2885174155235291</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>0.3647971264367816</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3584712147712708</v>
+        <v>0.2802714407444</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>0.3663063218390805</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3724924325942993</v>
+        <v>0.296411395072937</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>0.3682695402298851</v>
       </c>
       <c r="B320" t="n">
-        <v>0.5142763257026672</v>
+        <v>0.193521574139595</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>0.3684683908045976</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4878082275390625</v>
+        <v>0.3175584673881531</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>0.3667149425287356</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4540104568004608</v>
+        <v>0.3289458155632019</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>0.3618091954022988</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3694227337837219</v>
+        <v>0.3692895174026489</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>0.3539017241379311</v>
       </c>
       <c r="B324" t="n">
-        <v>0.4778323471546173</v>
+        <v>0.4465273022651672</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>0.3472931034482759</v>
       </c>
       <c r="B325" t="n">
-        <v>0.5512542724609375</v>
+        <v>0.4100888967514038</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>0.3399229885057471</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3914004862308502</v>
+        <v>0.4525681138038635</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>0.3330436781609195</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4852302372455597</v>
+        <v>0.3565131425857544</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>0.3287603448275862</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4635675251483917</v>
+        <v>0.5112929344177246</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>0.3274218390804597</v>
       </c>
       <c r="B329" t="n">
-        <v>0.2197405397891998</v>
+        <v>0.3276742994785309</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>0.3305626436781609</v>
       </c>
       <c r="B330" t="n">
-        <v>0.4127499461174011</v>
+        <v>0.3672030568122864</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>0.336785632183908</v>
       </c>
       <c r="B331" t="n">
-        <v>0.4164825975894928</v>
+        <v>0.3468758463859558</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>0.3448701149425287</v>
       </c>
       <c r="B332" t="n">
-        <v>0.5242259502410889</v>
+        <v>0.3203341364860535</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>0.3526103448275861</v>
       </c>
       <c r="B333" t="n">
-        <v>0.5163758397102356</v>
+        <v>0.308449387550354</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>0.3625454022988505</v>
       </c>
       <c r="B334" t="n">
-        <v>0.4300494194030762</v>
+        <v>0.3383484482765198</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>0.3702683908045977</v>
       </c>
       <c r="B335" t="n">
-        <v>0.4215989112854004</v>
+        <v>0.3845481872558594</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>0.3776982758620689</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3257695138454437</v>
+        <v>0.3905333280563354</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>0.3839097701149425</v>
       </c>
       <c r="B337" t="n">
-        <v>0.5881546139717102</v>
+        <v>0.4483648538589478</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>0.3885488505747127</v>
       </c>
       <c r="B338" t="n">
-        <v>0.4066206514835358</v>
+        <v>0.4528155922889709</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>0.3911132183908046</v>
       </c>
       <c r="B339" t="n">
-        <v>0.4068945646286011</v>
+        <v>0.4671034216880798</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>0.3946333333333334</v>
       </c>
       <c r="B340" t="n">
-        <v>0.5592446327209473</v>
+        <v>0.4681586027145386</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>0.3967741379310346</v>
       </c>
       <c r="B341" t="n">
-        <v>0.4384810030460358</v>
+        <v>0.3882657289505005</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>0.3984913793103448</v>
       </c>
       <c r="B342" t="n">
-        <v>0.4282365739345551</v>
+        <v>0.4094827175140381</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>0.4020620689655173</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5430455207824707</v>
+        <v>0.4249061942100525</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>0.4043994252873564</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4428592622280121</v>
+        <v>0.4835015535354614</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>0.4045977011494254</v>
       </c>
       <c r="B345" t="n">
-        <v>0.4183222353458405</v>
+        <v>0.3669551610946655</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>0.4046873563218392</v>
       </c>
       <c r="B346" t="n">
-        <v>0.5184893012046814</v>
+        <v>0.4252902865409851</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>0.4031925287356322</v>
       </c>
       <c r="B347" t="n">
-        <v>0.5061836838722229</v>
+        <v>0.4435604810714722</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>0.4016649425287357</v>
       </c>
       <c r="B348" t="n">
-        <v>0.5554948449134827</v>
+        <v>0.390704870223999</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>0.398296551724138</v>
       </c>
       <c r="B349" t="n">
-        <v>0.5141134858131409</v>
+        <v>0.4009553194046021</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>0.3946706896551724</v>
       </c>
       <c r="B350" t="n">
-        <v>0.6073008179664612</v>
+        <v>0.4298533201217651</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>0.3930637931034483</v>
       </c>
       <c r="B351" t="n">
-        <v>0.4408467710018158</v>
+        <v>0.3783856630325317</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>0.3938948275862069</v>
       </c>
       <c r="B352" t="n">
-        <v>0.4924875497817993</v>
+        <v>0.4682938456535339</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>0.3948137931034482</v>
       </c>
       <c r="B353" t="n">
-        <v>0.5617210268974304</v>
+        <v>0.4403547048568726</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>0.3956241379310345</v>
       </c>
       <c r="B354" t="n">
-        <v>0.5530648827552795</v>
+        <v>0.4667205214500427</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>0.3977988505747126</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3438093066215515</v>
+        <v>0.3551539182662964</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>0.400601724137931</v>
       </c>
       <c r="B356" t="n">
-        <v>0.6968107223510742</v>
+        <v>0.4608834683895111</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>0.4023327586206896</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6016316413879395</v>
+        <v>0.6196399331092834</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>0.4026821839080459</v>
       </c>
       <c r="B358" t="n">
-        <v>0.7866865396499634</v>
+        <v>0.594085156917572</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>0.4000988505747126</v>
       </c>
       <c r="B359" t="n">
-        <v>0.8086147308349609</v>
+        <v>0.5929413437843323</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>0.3962137931034482</v>
       </c>
       <c r="B360" t="n">
-        <v>0.6166121363639832</v>
+        <v>0.6278558969497681</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>0.392055172413793</v>
       </c>
       <c r="B361" t="n">
-        <v>0.6406716108322144</v>
+        <v>0.5988269448280334</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>0.3887643678160919</v>
       </c>
       <c r="B362" t="n">
-        <v>0.6615086793899536</v>
+        <v>0.5774360299110413</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>0.3856844827586206</v>
       </c>
       <c r="B363" t="n">
-        <v>0.598468542098999</v>
+        <v>0.4813587069511414</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>0.3853890804597701</v>
       </c>
       <c r="B364" t="n">
-        <v>0.5658607482910156</v>
+        <v>0.361097514629364</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>0.3845540229885057</v>
       </c>
       <c r="B365" t="n">
-        <v>0.659136176109314</v>
+        <v>0.3449170887470245</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>0.385133908045977</v>
       </c>
       <c r="B366" t="n">
-        <v>0.7458145618438721</v>
+        <v>0.4316798746585846</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>0.3863442528735632</v>
       </c>
       <c r="B367" t="n">
-        <v>0.6354959011077881</v>
+        <v>0.552051842212677</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>0.3888724137931034</v>
       </c>
       <c r="B368" t="n">
-        <v>0.7251092195510864</v>
+        <v>0.4727047085762024</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>0.3909229885057471</v>
       </c>
       <c r="B369" t="n">
-        <v>0.6134165525436401</v>
+        <v>0.5285335779190063</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>0.3922413793103448</v>
       </c>
       <c r="B370" t="n">
-        <v>0.5950809121131897</v>
+        <v>0.5215295553207397</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>0.3928637931034483</v>
       </c>
       <c r="B371" t="n">
-        <v>0.6755018830299377</v>
+        <v>0.4387888312339783</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>0.3938977011494253</v>
       </c>
       <c r="B372" t="n">
-        <v>0.5463643074035645</v>
+        <v>0.655376136302948</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>0.3975264367816091</v>
       </c>
       <c r="B373" t="n">
-        <v>0.7356016039848328</v>
+        <v>0.5307630896568298</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>0.4021775862068964</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6487781405448914</v>
+        <v>0.5827147364616394</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>0.4074086206896551</v>
       </c>
       <c r="B375" t="n">
-        <v>0.5829207301139832</v>
+        <v>0.7292733192443848</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>0.4132494252873562</v>
       </c>
       <c r="B376" t="n">
-        <v>0.7704740166664124</v>
+        <v>0.6003857851028442</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>0.421101724137931</v>
       </c>
       <c r="B377" t="n">
-        <v>0.7031999826431274</v>
+        <v>0.5479801893234253</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>0.431155172413793</v>
       </c>
       <c r="B378" t="n">
-        <v>0.6921477317810059</v>
+        <v>0.488090842962265</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>0.4405321839080459</v>
       </c>
       <c r="B379" t="n">
-        <v>0.7101521492004395</v>
+        <v>0.6143912076950073</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>0.4462522988505747</v>
       </c>
       <c r="B380" t="n">
-        <v>0.8119882941246033</v>
+        <v>0.6100545525550842</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>0.4488499999999999</v>
       </c>
       <c r="B381" t="n">
-        <v>0.7951797246932983</v>
+        <v>0.6358955502510071</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>0.4513022988505747</v>
       </c>
       <c r="B382" t="n">
-        <v>0.6312346458435059</v>
+        <v>0.6872650980949402</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>0.4552436781609195</v>
       </c>
       <c r="B383" t="n">
-        <v>0.6773067712783813</v>
+        <v>0.6779876947402954</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>0.4601977011494253</v>
       </c>
       <c r="B384" t="n">
-        <v>0.6241599321365356</v>
+        <v>0.5852192044258118</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>0.4652063218390805</v>
       </c>
       <c r="B385" t="n">
-        <v>0.7360363602638245</v>
+        <v>0.6139077544212341</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>0.4712402298850575</v>
       </c>
       <c r="B386" t="n">
-        <v>0.7655391097068787</v>
+        <v>0.6284201741218567</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>0.477216091954023</v>
       </c>
       <c r="B387" t="n">
-        <v>0.6778237819671631</v>
+        <v>0.5337145328521729</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>0.4865511494252874</v>
       </c>
       <c r="B388" t="n">
-        <v>0.7429028749465942</v>
+        <v>0.6238555312156677</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>0.4972798850574713</v>
       </c>
       <c r="B389" t="n">
-        <v>0.5242926478385925</v>
+        <v>0.4990277886390686</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>0.506283908045977</v>
       </c>
       <c r="B390" t="n">
-        <v>0.7039355039596558</v>
+        <v>0.5078858137130737</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>0.5118350574712643</v>
       </c>
       <c r="B391" t="n">
-        <v>0.5800159573554993</v>
+        <v>0.5126024484634399</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>0.5134890804597702</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6442629098892212</v>
+        <v>0.508587121963501</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>0.5095408045977012</v>
       </c>
       <c r="B393" t="n">
-        <v>0.8034963607788086</v>
+        <v>0.59962397813797</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>0.5064522988505746</v>
       </c>
       <c r="B394" t="n">
-        <v>0.5934547781944275</v>
+        <v>0.5524291396141052</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>0.502235632183908</v>
       </c>
       <c r="B395" t="n">
-        <v>0.643797755241394</v>
+        <v>0.4955374002456665</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>0.4992005747126437</v>
       </c>
       <c r="B396" t="n">
-        <v>0.7888354063034058</v>
+        <v>0.6305985450744629</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>0.494882183908046</v>
       </c>
       <c r="B397" t="n">
-        <v>0.5052063465118408</v>
+        <v>0.5774668455123901</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>0.4912431034482759</v>
       </c>
       <c r="B398" t="n">
-        <v>0.710183322429657</v>
+        <v>0.5924832820892334</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>0.4904281609195403</v>
       </c>
       <c r="B399" t="n">
-        <v>0.6408098936080933</v>
+        <v>0.550424337387085</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>0.4912706896551725</v>
       </c>
       <c r="B400" t="n">
-        <v>0.7832072973251343</v>
+        <v>0.6958881020545959</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>0.4906672413793104</v>
       </c>
       <c r="B401" t="n">
-        <v>0.7552847862243652</v>
+        <v>0.6466367244720459</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>0.4868977011494254</v>
       </c>
       <c r="B402" t="n">
-        <v>0.7065380215644836</v>
+        <v>0.687508225440979</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>0.4814660919540231</v>
       </c>
       <c r="B403" t="n">
-        <v>0.7870696187019348</v>
+        <v>0.5619152784347534</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>0.4756500000000002</v>
       </c>
       <c r="B404" t="n">
-        <v>0.6316292881965637</v>
+        <v>0.691219687461853</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>0.4699160919540232</v>
       </c>
       <c r="B405" t="n">
-        <v>0.8230204582214355</v>
+        <v>0.6520554423332214</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>0.4642586206896553</v>
       </c>
       <c r="B406" t="n">
-        <v>0.69992595911026</v>
+        <v>0.6537901759147644</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>0.4575275862068967</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9168879389762878</v>
+        <v>0.709740936756134</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>0.4543488505747127</v>
       </c>
       <c r="B408" t="n">
-        <v>0.7525901198387146</v>
+        <v>0.7192409634590149</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>0.4534798850574713</v>
       </c>
       <c r="B409" t="n">
-        <v>0.6967302560806274</v>
+        <v>0.7551361918449402</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>0.4546459770114943</v>
       </c>
       <c r="B410" t="n">
-        <v>0.7996883392333984</v>
+        <v>0.8067950010299683</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>0.4552494252873564</v>
       </c>
       <c r="B411" t="n">
-        <v>0.7365930080413818</v>
+        <v>0.6649766564369202</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>0.4545977011494254</v>
       </c>
       <c r="B412" t="n">
-        <v>0.8067272901535034</v>
+        <v>0.5726516246795654</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>0.4516379310344829</v>
       </c>
       <c r="B413" t="n">
-        <v>0.6919346451759338</v>
+        <v>0.726422905921936</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>0.4467758620689656</v>
       </c>
       <c r="B414" t="n">
-        <v>0.7816877365112305</v>
+        <v>0.5723728537559509</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>0.4434431034482759</v>
       </c>
       <c r="B415" t="n">
-        <v>0.6204007863998413</v>
+        <v>0.5800672769546509</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>0.4404488505747127</v>
       </c>
       <c r="B416" t="n">
-        <v>0.6898552179336548</v>
+        <v>0.66729736328125</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>0.4362718390804597</v>
       </c>
       <c r="B417" t="n">
-        <v>0.6909785270690918</v>
+        <v>0.8195292353630066</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>0.4305764367816092</v>
       </c>
       <c r="B418" t="n">
-        <v>0.8867867588996887</v>
+        <v>0.684588611125946</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>0.4247580459770114</v>
       </c>
       <c r="B419" t="n">
-        <v>0.7400791049003601</v>
+        <v>0.6880465149879456</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>0.4195925287356321</v>
       </c>
       <c r="B420" t="n">
-        <v>0.753553569316864</v>
+        <v>0.7027377486228943</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>0.4145034482758621</v>
       </c>
       <c r="B421" t="n">
-        <v>0.7487338781356812</v>
+        <v>0.6438628435134888</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>0.4108793103448276</v>
       </c>
       <c r="B422" t="n">
-        <v>0.6259782314300537</v>
+        <v>0.6287655234336853</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>0.4045747126436782</v>
       </c>
       <c r="B423" t="n">
-        <v>0.6607904434204102</v>
+        <v>0.6320104002952576</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>0.3973902298850574</v>
       </c>
       <c r="B424" t="n">
-        <v>0.7604031562805176</v>
+        <v>0.6380242109298706</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>0.3926632183908045</v>
       </c>
       <c r="B425" t="n">
-        <v>0.7387953400611877</v>
+        <v>0.5327764749526978</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>0.3895172413793103</v>
       </c>
       <c r="B426" t="n">
-        <v>0.7189538478851318</v>
+        <v>0.5546039342880249</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>0.3866155172413792</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6361978650093079</v>
+        <v>0.5780577063560486</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>0.3848586206896551</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6152864098548889</v>
+        <v>0.4538520574569702</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>0.3832408045977011</v>
       </c>
       <c r="B429" t="n">
-        <v>0.6079728603363037</v>
+        <v>0.4353227317333221</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B430" t="n">
-        <v>0.5686384439468384</v>
+        <v>0.4878908395767212</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>0.3820988505747126</v>
       </c>
       <c r="B431" t="n">
-        <v>0.6330748796463013</v>
+        <v>0.5394470691680908</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>0.3834649425287356</v>
       </c>
       <c r="B432" t="n">
-        <v>0.7511038780212402</v>
+        <v>0.5937449932098389</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>0.3866304597701149</v>
       </c>
       <c r="B433" t="n">
-        <v>0.6294744610786438</v>
+        <v>0.5819096565246582</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>0.3913477011494253</v>
       </c>
       <c r="B434" t="n">
-        <v>0.6995980143547058</v>
+        <v>0.453308641910553</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>0.3952597701149425</v>
       </c>
       <c r="B435" t="n">
-        <v>0.6638795733451843</v>
+        <v>0.5318190455436707</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>0.4011454022988505</v>
       </c>
       <c r="B436" t="n">
-        <v>0.4561668634414673</v>
+        <v>0.4813138246536255</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>0.4051741379310345</v>
       </c>
       <c r="B437" t="n">
-        <v>0.6955633163452148</v>
+        <v>0.5370599031448364</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>0.4075517241379311</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5799923539161682</v>
+        <v>0.5178620219230652</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>0.4092189655172414</v>
       </c>
       <c r="B439" t="n">
-        <v>0.5970456004142761</v>
+        <v>0.4593164920806885</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>0.4084528735632184</v>
       </c>
       <c r="B440" t="n">
-        <v>0.4919058680534363</v>
+        <v>0.490571141242981</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>0.4043155172413794</v>
       </c>
       <c r="B441" t="n">
-        <v>0.5185628533363342</v>
+        <v>0.5524412393569946</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>0.4010327586206897</v>
       </c>
       <c r="B442" t="n">
-        <v>0.6235601902008057</v>
+        <v>0.5521953701972961</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>0.3977287356321839</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4785284399986267</v>
+        <v>0.4715685248374939</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>0.390651724137931</v>
       </c>
       <c r="B444" t="n">
-        <v>0.5805791020393372</v>
+        <v>0.5824235081672668</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>0.3849666666666666</v>
       </c>
       <c r="B445" t="n">
-        <v>0.7816304564476013</v>
+        <v>0.6223318576812744</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>0.3791787356321838</v>
       </c>
       <c r="B446" t="n">
-        <v>0.5721133947372437</v>
+        <v>0.5570930242538452</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>0.3742977011494252</v>
       </c>
       <c r="B447" t="n">
-        <v>0.6438529491424561</v>
+        <v>0.6144142150878906</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>0.3714758620689655</v>
       </c>
       <c r="B448" t="n">
-        <v>0.7203389406204224</v>
+        <v>0.5968679189682007</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>0.3700752873563218</v>
       </c>
       <c r="B449" t="n">
-        <v>0.688905656337738</v>
+        <v>0.4893389642238617</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>0.3716655172413793</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5379837155342102</v>
+        <v>0.530494749546051</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>0.3755844827586207</v>
       </c>
       <c r="B451" t="n">
-        <v>0.7209799289703369</v>
+        <v>0.5982986688613892</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>0.3807385057471265</v>
       </c>
       <c r="B452" t="n">
-        <v>0.6555836200714111</v>
+        <v>0.5264186859130859</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>0.3865310344827587</v>
       </c>
       <c r="B453" t="n">
-        <v>0.6125397086143494</v>
+        <v>0.5581317543983459</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>0.390583908045977</v>
       </c>
       <c r="B454" t="n">
-        <v>0.7844018936157227</v>
+        <v>0.5479736924171448</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>0.3938137931034483</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6228451132774353</v>
+        <v>0.5473929047584534</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>0.3964298850574713</v>
       </c>
       <c r="B456" t="n">
-        <v>0.8029173612594604</v>
+        <v>0.631333589553833</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>0.3976816091954023</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7587774395942688</v>
+        <v>0.776753842830658</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>0.3994833333333333</v>
       </c>
       <c r="B458" t="n">
-        <v>0.6791098117828369</v>
+        <v>0.5497831106185913</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>0.4002471264367816</v>
       </c>
       <c r="B459" t="n">
-        <v>0.6521913409233093</v>
+        <v>0.6792375445365906</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>0.4009488505747126</v>
       </c>
       <c r="B460" t="n">
-        <v>0.7012710571289062</v>
+        <v>0.7518537640571594</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>0.4015183908045977</v>
       </c>
       <c r="B461" t="n">
-        <v>0.6407951712608337</v>
+        <v>0.637195348739624</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>0.3991333333333333</v>
       </c>
       <c r="B462" t="n">
-        <v>0.6261546015739441</v>
+        <v>0.5001729130744934</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>0.3935718390804597</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8029937148094177</v>
+        <v>0.5578814148902893</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>0.38703908045977</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6052868962287903</v>
+        <v>0.649976909160614</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>0.3780534482758619</v>
       </c>
       <c r="B465" t="n">
-        <v>0.7114989161491394</v>
+        <v>0.5459153056144714</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>0.367106896551724</v>
       </c>
       <c r="B466" t="n">
-        <v>0.7769247889518738</v>
+        <v>0.578256368637085</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>0.3586735632183908</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6507659554481506</v>
+        <v>0.6602899432182312</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>0.3503574712643678</v>
       </c>
       <c r="B468" t="n">
-        <v>0.482380211353302</v>
+        <v>0.400994211435318</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>0.3439879310344827</v>
       </c>
       <c r="B469" t="n">
-        <v>0.5925456881523132</v>
+        <v>0.5188924670219421</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>0.3405741379310344</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5570008158683777</v>
+        <v>0.3817178905010223</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>0.3386775862068965</v>
       </c>
       <c r="B471" t="n">
-        <v>0.5675041675567627</v>
+        <v>0.5446849465370178</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>0.3378747126436782</v>
       </c>
       <c r="B472" t="n">
-        <v>0.6356354355812073</v>
+        <v>0.326344758272171</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>0.3400034482758622</v>
       </c>
       <c r="B473" t="n">
-        <v>0.5360332727432251</v>
+        <v>0.2849428057670593</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>0.3406500000000001</v>
       </c>
       <c r="B474" t="n">
-        <v>0.4974778890609741</v>
+        <v>0.4243337512016296</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>0.3420431034482759</v>
       </c>
       <c r="B475" t="n">
-        <v>0.5583276748657227</v>
+        <v>0.3613336086273193</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>0.3449183908045977</v>
       </c>
       <c r="B476" t="n">
-        <v>0.5836390852928162</v>
+        <v>0.397606372833252</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>0.3475902298850576</v>
       </c>
       <c r="B477" t="n">
-        <v>0.6196396946907043</v>
+        <v>0.4152425825595856</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>0.3526522988505747</v>
       </c>
       <c r="B478" t="n">
-        <v>0.5758418440818787</v>
+        <v>0.4794752895832062</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>0.3584224137931035</v>
       </c>
       <c r="B479" t="n">
-        <v>0.5732724070549011</v>
+        <v>0.5148685574531555</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>0.3654143678160919</v>
       </c>
       <c r="B480" t="n">
-        <v>0.7003132700920105</v>
+        <v>0.4919400811195374</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>0.3733620689655173</v>
       </c>
       <c r="B481" t="n">
-        <v>0.5251871347427368</v>
+        <v>0.5041670799255371</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>0.3803362068965518</v>
       </c>
       <c r="B482" t="n">
-        <v>0.5614248514175415</v>
+        <v>0.4938086569309235</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>0.38376091954023</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6047661900520325</v>
+        <v>0.5034592747688293</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>0.3861655172413793</v>
       </c>
       <c r="B484" t="n">
-        <v>0.6312849521636963</v>
+        <v>0.4798767864704132</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>0.388217816091954</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4599498808383942</v>
+        <v>0.4597415030002594</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>0.3885701149425288</v>
       </c>
       <c r="B486" t="n">
-        <v>0.6247356534004211</v>
+        <v>0.3881063461303711</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>0.3851212643678162</v>
       </c>
       <c r="B487" t="n">
-        <v>0.8218685984611511</v>
+        <v>0.3913819789886475</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>0.3813459770114943</v>
       </c>
       <c r="B488" t="n">
-        <v>0.5462644100189209</v>
+        <v>0.5144314765930176</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>0.3782798850574712</v>
       </c>
       <c r="B489" t="n">
-        <v>0.6336071491241455</v>
+        <v>0.5155324339866638</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4301,7 +4301,7 @@
         <v>0.3747505747126437</v>
       </c>
       <c r="B490" t="n">
-        <v>0.5491629242897034</v>
+        <v>0.4713355898857117</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>0.3735402298850575</v>
       </c>
       <c r="B491" t="n">
-        <v>0.6520017385482788</v>
+        <v>0.4212668240070343</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>0.3741120689655173</v>
       </c>
       <c r="B492" t="n">
-        <v>0.5621162056922913</v>
+        <v>0.4988008737564087</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>0.3755057471264368</v>
       </c>
       <c r="B493" t="n">
-        <v>0.5369048714637756</v>
+        <v>0.4486003816127777</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>0.3793971264367816</v>
       </c>
       <c r="B494" t="n">
-        <v>0.6141427159309387</v>
+        <v>0.4510181844234467</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>0.3852344827586207</v>
       </c>
       <c r="B495" t="n">
-        <v>0.6181837916374207</v>
+        <v>0.4221221804618835</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>0.3905402298850575</v>
       </c>
       <c r="B496" t="n">
-        <v>0.5498548746109009</v>
+        <v>0.4436083137989044</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>0.3967166666666667</v>
       </c>
       <c r="B497" t="n">
-        <v>0.7077585458755493</v>
+        <v>0.5499210953712463</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>0.4038040229885058</v>
       </c>
       <c r="B498" t="n">
-        <v>0.5126887559890747</v>
+        <v>0.449591726064682</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>0.4103862068965518</v>
       </c>
       <c r="B499" t="n">
-        <v>0.5953739285469055</v>
+        <v>0.3510421812534332</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>0.416064367816092</v>
       </c>
       <c r="B500" t="n">
-        <v>0.53233402967453</v>
+        <v>0.5040240883827209</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>0.4213764367816092</v>
       </c>
       <c r="B501" t="n">
-        <v>0.6199396252632141</v>
+        <v>0.5091854929924011</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>0.4244856321839081</v>
       </c>
       <c r="B502" t="n">
-        <v>0.6290200352668762</v>
+        <v>0.6071327924728394</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>0.4276005747126437</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6801521182060242</v>
+        <v>0.5608062744140625</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>0.4332287356321839</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5832433700561523</v>
+        <v>0.5388063192367554</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>0.4401545977011494</v>
       </c>
       <c r="B505" t="n">
-        <v>0.8000169396400452</v>
+        <v>0.6229686737060547</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>0.4467827586206897</v>
       </c>
       <c r="B506" t="n">
-        <v>0.7456324696540833</v>
+        <v>0.5718268156051636</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>0.4501793103448276</v>
       </c>
       <c r="B507" t="n">
-        <v>0.7401517629623413</v>
+        <v>0.564866840839386</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>0.4509362068965517</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7195605039596558</v>
+        <v>0.6001989841461182</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>0.4494494252873563</v>
       </c>
       <c r="B509" t="n">
-        <v>0.7750133872032166</v>
+        <v>0.611334502696991</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>0.4465385057471264</v>
       </c>
       <c r="B510" t="n">
-        <v>0.800254762172699</v>
+        <v>0.5347054004669189</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>0.4425091954022989</v>
       </c>
       <c r="B511" t="n">
-        <v>0.5258083939552307</v>
+        <v>0.5991079211235046</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>0.4370477011494253</v>
       </c>
       <c r="B512" t="n">
-        <v>0.5645202398300171</v>
+        <v>0.5982088446617126</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>0.4318856321839081</v>
       </c>
       <c r="B513" t="n">
-        <v>0.6167375445365906</v>
+        <v>0.6176697015762329</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>0.4272442528735632</v>
       </c>
       <c r="B514" t="n">
-        <v>0.6794707775115967</v>
+        <v>0.5895307064056396</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>0.4264655172413793</v>
       </c>
       <c r="B515" t="n">
-        <v>0.6405320763587952</v>
+        <v>0.6006563901901245</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>0.4298885057471264</v>
       </c>
       <c r="B516" t="n">
-        <v>0.7047761678695679</v>
+        <v>0.6097065210342407</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>0.434367816091954</v>
       </c>
       <c r="B517" t="n">
-        <v>0.6036816239356995</v>
+        <v>0.6300995945930481</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>0.4398477011494253</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6906650066375732</v>
+        <v>0.6109465956687927</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>0.4461287356321839</v>
       </c>
       <c r="B519" t="n">
-        <v>0.6510371565818787</v>
+        <v>0.6236481666564941</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>0.4523005747126436</v>
       </c>
       <c r="B520" t="n">
-        <v>0.6816274523735046</v>
+        <v>0.6172502040863037</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>0.458251724137931</v>
       </c>
       <c r="B521" t="n">
-        <v>0.7120252251625061</v>
+        <v>0.7199192643165588</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>0.46333908045977</v>
       </c>
       <c r="B522" t="n">
-        <v>0.7368277907371521</v>
+        <v>0.654758632183075</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>0.4649137931034483</v>
       </c>
       <c r="B523" t="n">
-        <v>0.6005305647850037</v>
+        <v>0.6501877307891846</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4573,7 +4573,7 @@
         <v>0.4650649425287356</v>
       </c>
       <c r="B524" t="n">
-        <v>0.7486549019813538</v>
+        <v>0.5617196559906006</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4581,7 +4581,7 @@
         <v>0.465058620689655</v>
       </c>
       <c r="B525" t="n">
-        <v>0.587222158908844</v>
+        <v>0.5344948768615723</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>0.4634948275862069</v>
       </c>
       <c r="B526" t="n">
-        <v>0.6600745320320129</v>
+        <v>0.5691379308700562</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>0.4615408045977011</v>
       </c>
       <c r="B527" t="n">
-        <v>0.7389051914215088</v>
+        <v>0.6537140607833862</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>0.4606942528735632</v>
       </c>
       <c r="B528" t="n">
-        <v>0.6507449150085449</v>
+        <v>0.5881063938140869</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4613,7 +4613,7 @@
         <v>0.4598908045977011</v>
       </c>
       <c r="B529" t="n">
-        <v>0.6234337687492371</v>
+        <v>0.5601266026496887</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>0.4611574712643677</v>
       </c>
       <c r="B530" t="n">
-        <v>0.7626472115516663</v>
+        <v>0.6487165093421936</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>0.4654781609195401</v>
       </c>
       <c r="B531" t="n">
-        <v>0.6951985955238342</v>
+        <v>0.6273226737976074</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>0.471866091954023</v>
       </c>
       <c r="B532" t="n">
-        <v>0.534259021282196</v>
+        <v>0.5712330937385559</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>0.4764310344827585</v>
       </c>
       <c r="B533" t="n">
-        <v>0.756769061088562</v>
+        <v>0.5564337968826294</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>0.4784327586206896</v>
       </c>
       <c r="B534" t="n">
-        <v>0.7743149399757385</v>
+        <v>0.5801761150360107</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>0.4815402298850573</v>
       </c>
       <c r="B535" t="n">
-        <v>0.7919901013374329</v>
+        <v>0.5304318070411682</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>0.4836706896551723</v>
       </c>
       <c r="B536" t="n">
-        <v>0.7013800144195557</v>
+        <v>0.5358574390411377</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>0.4873224137931034</v>
       </c>
       <c r="B537" t="n">
-        <v>0.8016188144683838</v>
+        <v>0.5186318755149841</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>0.4900448275862069</v>
       </c>
       <c r="B538" t="n">
-        <v>0.4984304904937744</v>
+        <v>0.6950670480728149</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>0.4906609195402298</v>
       </c>
       <c r="B539" t="n">
-        <v>0.6574951410293579</v>
+        <v>0.6576524972915649</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>0.4904586206896551</v>
       </c>
       <c r="B540" t="n">
-        <v>0.6806709170341492</v>
+        <v>0.6452186107635498</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>0.4941344827586207</v>
       </c>
       <c r="B541" t="n">
-        <v>0.7786270380020142</v>
+        <v>0.6166356801986694</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>0.500001724137931</v>
       </c>
       <c r="B542" t="n">
-        <v>0.6603434681892395</v>
+        <v>0.6251382827758789</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>0.5075488505747127</v>
       </c>
       <c r="B543" t="n">
-        <v>0.7134525775909424</v>
+        <v>0.5661059021949768</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>0.5158551724137931</v>
       </c>
       <c r="B544" t="n">
-        <v>0.6877478361129761</v>
+        <v>0.5297858715057373</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>0.5198316091954023</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5830482244491577</v>
+        <v>0.4693208932876587</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>0.5221126436781609</v>
       </c>
       <c r="B546" t="n">
-        <v>0.6115986108779907</v>
+        <v>0.4294555485248566</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>0.5241477011494252</v>
       </c>
       <c r="B547" t="n">
-        <v>0.7259588837623596</v>
+        <v>0.4874716103076935</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>0.5258402298850575</v>
       </c>
       <c r="B548" t="n">
-        <v>0.6032655239105225</v>
+        <v>0.4751389026641846</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>0.5250695402298851</v>
       </c>
       <c r="B549" t="n">
-        <v>0.591313898563385</v>
+        <v>0.4782137870788574</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>0.5223919540229884</v>
       </c>
       <c r="B550" t="n">
-        <v>0.5313012599945068</v>
+        <v>0.4440224170684814</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>0.5182683908045975</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6236163377761841</v>
+        <v>0.5582902431488037</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>0.5144683908045975</v>
       </c>
       <c r="B552" t="n">
-        <v>0.7762429714202881</v>
+        <v>0.5054020881652832</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>0.5127465517241379</v>
       </c>
       <c r="B553" t="n">
-        <v>0.5734918117523193</v>
+        <v>0.4897622466087341</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>0.5118160919540229</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6628057360649109</v>
+        <v>0.4615103900432587</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>0.5113442528735631</v>
       </c>
       <c r="B555" t="n">
-        <v>0.7041466236114502</v>
+        <v>0.623661994934082</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>0.5113954022988505</v>
       </c>
       <c r="B556" t="n">
-        <v>0.7927543520927429</v>
+        <v>0.5289732813835144</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>0.5106971264367816</v>
       </c>
       <c r="B557" t="n">
-        <v>0.793199896812439</v>
+        <v>0.5933594703674316</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>0.5099448275862069</v>
       </c>
       <c r="B558" t="n">
-        <v>0.8707687854766846</v>
+        <v>0.4618121087551117</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>0.5071856321839081</v>
       </c>
       <c r="B559" t="n">
-        <v>0.6644653677940369</v>
+        <v>0.5124424695968628</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>0.5042775862068966</v>
       </c>
       <c r="B560" t="n">
-        <v>0.723843514919281</v>
+        <v>0.4948703348636627</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>0.5015017241379309</v>
       </c>
       <c r="B561" t="n">
-        <v>0.6408010721206665</v>
+        <v>0.4851899445056915</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>0.4992206896551724</v>
       </c>
       <c r="B562" t="n">
-        <v>0.7419260740280151</v>
+        <v>0.5487467646598816</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>0.4959385057471264</v>
       </c>
       <c r="B563" t="n">
-        <v>0.6190037131309509</v>
+        <v>0.440340131521225</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>0.4916557471264368</v>
       </c>
       <c r="B564" t="n">
-        <v>0.5656512379646301</v>
+        <v>0.4295850992202759</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>0.4879850574712644</v>
       </c>
       <c r="B565" t="n">
-        <v>0.5628290176391602</v>
+        <v>0.5149108171463013</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>0.4841086206896552</v>
       </c>
       <c r="B566" t="n">
-        <v>0.6335204243659973</v>
+        <v>0.4576569497585297</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>0.479937356321839</v>
       </c>
       <c r="B567" t="n">
-        <v>0.677819550037384</v>
+        <v>0.5902135372161865</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>0.4752465517241379</v>
       </c>
       <c r="B568" t="n">
-        <v>0.6079586744308472</v>
+        <v>0.4862541854381561</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>0.4721764367816091</v>
       </c>
       <c r="B569" t="n">
-        <v>0.5592888593673706</v>
+        <v>0.5408881902694702</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>0.4692281609195402</v>
       </c>
       <c r="B570" t="n">
-        <v>0.6022953391075134</v>
+        <v>0.4743617475032806</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>0.4647189655172412</v>
       </c>
       <c r="B571" t="n">
-        <v>0.4738801121711731</v>
+        <v>0.4149530529975891</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>0.4592028735632183</v>
       </c>
       <c r="B572" t="n">
-        <v>0.6851848363876343</v>
+        <v>0.4285043776035309</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>0.4508442528735632</v>
       </c>
       <c r="B573" t="n">
-        <v>0.4975088238716125</v>
+        <v>0.3523662388324738</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>0.4450252873563217</v>
       </c>
       <c r="B574" t="n">
-        <v>0.5093502998352051</v>
+        <v>0.4461526274681091</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>0.4424959770114942</v>
       </c>
       <c r="B575" t="n">
-        <v>0.5738055109977722</v>
+        <v>0.4468218088150024</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>0.4428913793103447</v>
       </c>
       <c r="B576" t="n">
-        <v>0.5922649502754211</v>
+        <v>0.4358592927455902</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>0.4420350574712643</v>
       </c>
       <c r="B577" t="n">
-        <v>0.5201448798179626</v>
+        <v>0.3533801138401031</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>0.4407994252873562</v>
       </c>
       <c r="B578" t="n">
-        <v>0.6076411604881287</v>
+        <v>0.4355292022228241</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>0.4424488505747125</v>
       </c>
       <c r="B579" t="n">
-        <v>0.5134154558181763</v>
+        <v>0.5683801174163818</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>0.446022988505747</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5557025671005249</v>
+        <v>0.3578938245773315</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>0.4531999999999999</v>
       </c>
       <c r="B581" t="n">
-        <v>0.5362777709960938</v>
+        <v>0.359942615032196</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>0.4616310344827586</v>
       </c>
       <c r="B582" t="n">
-        <v>0.6336415410041809</v>
+        <v>0.4987686276435852</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>0.4699316091954022</v>
       </c>
       <c r="B583" t="n">
-        <v>0.463839054107666</v>
+        <v>0.4173109829425812</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>0.4757379310344828</v>
       </c>
       <c r="B584" t="n">
-        <v>0.6301789879798889</v>
+        <v>0.4123402833938599</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>0.4821367816091954</v>
       </c>
       <c r="B585" t="n">
-        <v>0.4237287044525146</v>
+        <v>0.4601347744464874</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>0.4903224137931034</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4508602023124695</v>
+        <v>0.5340808629989624</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>0.4994724137931035</v>
       </c>
       <c r="B587" t="n">
-        <v>0.4561494588851929</v>
+        <v>0.492149829864502</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>0.5083517241379311</v>
       </c>
       <c r="B588" t="n">
-        <v>0.5804630517959595</v>
+        <v>0.5493276119232178</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>0.5127241379310344</v>
       </c>
       <c r="B589" t="n">
-        <v>0.5035074949264526</v>
+        <v>0.5000191330909729</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>0.5130126436781609</v>
       </c>
       <c r="B590" t="n">
-        <v>0.6559257507324219</v>
+        <v>0.5674060583114624</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>0.5111183908045976</v>
       </c>
       <c r="B591" t="n">
-        <v>0.6068252921104431</v>
+        <v>0.4283190965652466</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>0.5127126436781609</v>
       </c>
       <c r="B592" t="n">
-        <v>0.578887939453125</v>
+        <v>0.5393916368484497</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>0.5164258620689655</v>
       </c>
       <c r="B593" t="n">
-        <v>0.7263979911804199</v>
+        <v>0.5860838890075684</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>0.5221948275862068</v>
       </c>
       <c r="B594" t="n">
-        <v>0.6406781673431396</v>
+        <v>0.4788131713867188</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>0.5285471264367816</v>
       </c>
       <c r="B595" t="n">
-        <v>0.6263442635536194</v>
+        <v>0.5019087791442871</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>0.5362212643678161</v>
       </c>
       <c r="B596" t="n">
-        <v>0.4931619167327881</v>
+        <v>0.5573325157165527</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>0.5462827586206895</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6933684945106506</v>
+        <v>0.5274549126625061</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>0.5550017241379309</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6991689205169678</v>
+        <v>0.5143206119537354</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>0.5614321839080458</v>
       </c>
       <c r="B599" t="n">
-        <v>0.7179940938949585</v>
+        <v>0.5303882360458374</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>0.5679316091954022</v>
       </c>
       <c r="B600" t="n">
-        <v>0.5549446940422058</v>
+        <v>0.5482053160667419</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>0.573417816091954</v>
       </c>
       <c r="B601" t="n">
-        <v>0.6401978135108948</v>
+        <v>0.6067776679992676</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>0.5791534482758619</v>
       </c>
       <c r="B602" t="n">
-        <v>0.7230215668678284</v>
+        <v>0.5879560708999634</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>0.5867160919540229</v>
       </c>
       <c r="B603" t="n">
-        <v>0.7178046107292175</v>
+        <v>0.5190128087997437</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>0.5949902298850573</v>
       </c>
       <c r="B604" t="n">
-        <v>0.8065861463546753</v>
+        <v>0.6406092643737793</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>0.6034304597701148</v>
       </c>
       <c r="B605" t="n">
-        <v>0.7453854084014893</v>
+        <v>0.5870552062988281</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>0.6162436781609193</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7740724086761475</v>
+        <v>0.424509197473526</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>0.6329810344827584</v>
       </c>
       <c r="B607" t="n">
-        <v>0.4543007612228394</v>
+        <v>0.497156947851181</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>0.6492862068965516</v>
       </c>
       <c r="B608" t="n">
-        <v>0.592749297618866</v>
+        <v>0.4361721277236938</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>0.6657902298850573</v>
       </c>
       <c r="B609" t="n">
-        <v>0.7098740339279175</v>
+        <v>0.4323397874832153</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>0.680340804597701</v>
       </c>
       <c r="B610" t="n">
-        <v>0.7088959217071533</v>
+        <v>0.5942624807357788</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>0.6927614942528735</v>
       </c>
       <c r="B611" t="n">
-        <v>0.5876341462135315</v>
+        <v>0.458412230014801</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>0.70465</v>
       </c>
       <c r="B612" t="n">
-        <v>0.609643280506134</v>
+        <v>0.3720698654651642</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>0.7187844827586207</v>
       </c>
       <c r="B613" t="n">
-        <v>0.4605004191398621</v>
+        <v>0.4626096189022064</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>0.7293166666666667</v>
       </c>
       <c r="B614" t="n">
-        <v>0.7165299654006958</v>
+        <v>0.5188081860542297</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>0.7379856321839081</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5880526900291443</v>
+        <v>0.5309051275253296</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>0.7451810344827586</v>
       </c>
       <c r="B616" t="n">
-        <v>0.7293283343315125</v>
+        <v>0.4466137588024139</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>0.7524735632183908</v>
       </c>
       <c r="B617" t="n">
-        <v>0.4377203583717346</v>
+        <v>0.5419574975967407</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>0.7625356321839081</v>
       </c>
       <c r="B618" t="n">
-        <v>0.6522431373596191</v>
+        <v>0.4481056332588196</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>0.7742241379310345</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6857950687408447</v>
+        <v>0.4391507506370544</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>0.7858741379310346</v>
       </c>
       <c r="B620" t="n">
-        <v>0.6060692071914673</v>
+        <v>0.5534585118293762</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>0.7984798850574714</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5847753882408142</v>
+        <v>0.4516651928424835</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>0.8108931034482759</v>
       </c>
       <c r="B622" t="n">
-        <v>0.6015779376029968</v>
+        <v>0.5085440874099731</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>0.8220522988505747</v>
       </c>
       <c r="B623" t="n">
-        <v>0.6446955800056458</v>
+        <v>0.5271227955818176</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>0.8324344827586208</v>
       </c>
       <c r="B624" t="n">
-        <v>0.6438004374504089</v>
+        <v>0.577858030796051</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>0.8434666666666668</v>
       </c>
       <c r="B625" t="n">
-        <v>0.724904477596283</v>
+        <v>0.5527985095977783</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>0.8553620689655174</v>
       </c>
       <c r="B626" t="n">
-        <v>0.667686402797699</v>
+        <v>0.5614052414894104</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>0.8696011494252874</v>
       </c>
       <c r="B627" t="n">
-        <v>0.838839590549469</v>
+        <v>0.6682207584381104</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>0.8849770114942529</v>
       </c>
       <c r="B628" t="n">
-        <v>0.8863683938980103</v>
+        <v>0.6898355484008789</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>0.899922988505747</v>
       </c>
       <c r="B629" t="n">
-        <v>0.9921344518661499</v>
+        <v>0.6001193523406982</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>0.9148298850574711</v>
       </c>
       <c r="B630" t="n">
-        <v>0.5720587372779846</v>
+        <v>0.680245041847229</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>0.9296988505747125</v>
       </c>
       <c r="B631" t="n">
-        <v>0.8646043539047241</v>
+        <v>0.7244197130203247</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>0.9423752873563216</v>
       </c>
       <c r="B632" t="n">
-        <v>0.7743960022926331</v>
+        <v>0.7421455383300781</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>0.9523844827586204</v>
       </c>
       <c r="B633" t="n">
-        <v>0.8581077456474304</v>
+        <v>0.7691880464553833</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>0.9586948275862065</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8540343642234802</v>
+        <v>0.8371388912200928</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>0.9611833333333328</v>
       </c>
       <c r="B635" t="n">
-        <v>0.8987290859222412</v>
+        <v>0.5759413242340088</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>0.9616787356321834</v>
       </c>
       <c r="B636" t="n">
-        <v>0.8601669669151306</v>
+        <v>0.6365410089492798</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>0.9616787356321833</v>
       </c>
       <c r="B637" t="n">
-        <v>0.7563549876213074</v>
+        <v>0.5559536218643188</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>0.9617166666666661</v>
       </c>
       <c r="B638" t="n">
-        <v>0.6433032751083374</v>
+        <v>0.7907929420471191</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>0.9617545977011489</v>
       </c>
       <c r="B639" t="n">
-        <v>0.610181987285614</v>
+        <v>0.6850229501724243</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>0.9617925287356317</v>
       </c>
       <c r="B640" t="n">
-        <v>0.9427399635314941</v>
+        <v>0.5564651489257812</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>0.9618304597701144</v>
       </c>
       <c r="B641" t="n">
-        <v>0.6411038041114807</v>
+        <v>0.6255238056182861</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>0.9630499999999995</v>
       </c>
       <c r="B642" t="n">
-        <v>0.7804695963859558</v>
+        <v>0.7708444595336914</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>0.9671798850574708</v>
       </c>
       <c r="B643" t="n">
-        <v>0.8461400270462036</v>
+        <v>0.6782678365707397</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5533,7 +5533,7 @@
         <v>0.9714620689655168</v>
       </c>
       <c r="B644" t="n">
-        <v>0.7659463286399841</v>
+        <v>0.7495177984237671</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>0.9759505747126432</v>
       </c>
       <c r="B645" t="n">
-        <v>0.7345623373985291</v>
+        <v>0.7309716939926147</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>0.9805367816091949</v>
       </c>
       <c r="B646" t="n">
-        <v>0.8672226667404175</v>
+        <v>0.8518589735031128</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>0.9851229885057465</v>
       </c>
       <c r="B647" t="n">
-        <v>0.7697616815567017</v>
+        <v>0.7564483880996704</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>0.9900517241379305</v>
       </c>
       <c r="B648" t="n">
-        <v>1.038094997406006</v>
+        <v>0.8040986061096191</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>0.9949804597701144</v>
       </c>
       <c r="B649" t="n">
-        <v>0.7318126559257507</v>
+        <v>0.8214997053146362</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>0.9974908045977007</v>
       </c>
       <c r="B650" t="n">
-        <v>0.792219877243042</v>
+        <v>0.7878385782241821</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>0.9981752873563213</v>
       </c>
       <c r="B651" t="n">
-        <v>1.00331974029541</v>
+        <v>0.8053929805755615</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>0.9988597701149421</v>
       </c>
       <c r="B652" t="n">
-        <v>0.9292636513710022</v>
+        <v>0.8007686138153076</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>0.9992022988505742</v>
       </c>
       <c r="B653" t="n">
-        <v>0.8464146256446838</v>
+        <v>0.9144788980484009</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B654" t="n">
-        <v>1.070913195610046</v>
+        <v>0.7723221778869629</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>0.9995448275862064</v>
       </c>
       <c r="B655" t="n">
-        <v>0.9810614585876465</v>
+        <v>0.8566535711288452</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>0.9996017241379306</v>
       </c>
       <c r="B656" t="n">
-        <v>0.9263396263122559</v>
+        <v>0.8198328018188477</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>0.9996586206896547</v>
       </c>
       <c r="B657" t="n">
-        <v>0.994288444519043</v>
+        <v>0.8761500120162964</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>0.9997155172413789</v>
       </c>
       <c r="B658" t="n">
-        <v>0.938261866569519</v>
+        <v>0.8415151834487915</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>0.999772413793103</v>
       </c>
       <c r="B659" t="n">
-        <v>0.7842068672180176</v>
+        <v>0.8141788244247437</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>0.9998293103448271</v>
       </c>
       <c r="B660" t="n">
-        <v>1.037217378616333</v>
+        <v>0.9418591260910034</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>0.9998862068965513</v>
       </c>
       <c r="B661" t="n">
-        <v>0.9795740246772766</v>
+        <v>0.7923933267593384</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>0.9999431034482754</v>
       </c>
       <c r="B662" t="n">
-        <v>1.020043849945068</v>
+        <v>1.080199360847473</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B663" t="n">
-        <v>0.9435776472091675</v>
+        <v>0.8520135879516602</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B664" t="n">
-        <v>0.8584967255592346</v>
+        <v>0.64525306224823</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B665" t="n">
-        <v>0.9377049803733826</v>
+        <v>0.6939499378204346</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B666" t="n">
-        <v>0.8199502229690552</v>
+        <v>0.8637094497680664</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B667" t="n">
-        <v>0.948914647102356</v>
+        <v>0.902722954750061</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B668" t="n">
-        <v>0.8894224166870117</v>
+        <v>0.7405630350112915</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B669" t="n">
-        <v>0.7718546986579895</v>
+        <v>0.845247745513916</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B670" t="n">
-        <v>0.9815521240234375</v>
+        <v>0.8662519454956055</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B671" t="n">
-        <v>0.7627478241920471</v>
+        <v>0.8170843124389648</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B672" t="n">
-        <v>1.106241464614868</v>
+        <v>0.8803138732910156</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B673" t="n">
-        <v>1.052159070968628</v>
+        <v>0.7040879726409912</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B674" t="n">
-        <v>1.110679864883423</v>
+        <v>0.7000421285629272</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B675" t="n">
-        <v>1.129337549209595</v>
+        <v>0.8879185914993286</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B676" t="n">
-        <v>0.6964695453643799</v>
+        <v>0.8875949382781982</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B677" t="n">
-        <v>0.9908782243728638</v>
+        <v>0.8182729482650757</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B678" t="n">
-        <v>0.9906874895095825</v>
+        <v>0.8666902780532837</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5813,7 +5813,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B679" t="n">
-        <v>0.7910652160644531</v>
+        <v>0.726127028465271</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5821,7 +5821,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B680" t="n">
-        <v>1.06830096244812</v>
+        <v>0.7498230934143066</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5829,7 +5829,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B681" t="n">
-        <v>0.8900398015975952</v>
+        <v>0.9138631820678711</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5837,7 +5837,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B682" t="n">
-        <v>0.871088445186615</v>
+        <v>0.7406713962554932</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B683" t="n">
-        <v>0.8877451419830322</v>
+        <v>0.757577657699585</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B684" t="n">
-        <v>0.7954987287521362</v>
+        <v>0.8641679286956787</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7852868437767029</v>
+        <v>0.9853103160858154</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B686" t="n">
-        <v>0.8504029512405396</v>
+        <v>0.9342296123504639</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B687" t="n">
-        <v>0.5222958326339722</v>
+        <v>0.8135192394256592</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B688" t="n">
-        <v>0.9018988013267517</v>
+        <v>0.9136030673980713</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B689" t="n">
-        <v>1.195982813835144</v>
+        <v>1.085960268974304</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B690" t="n">
-        <v>0.9694749116897583</v>
+        <v>0.9490325450897217</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B691" t="n">
-        <v>0.7908432483673096</v>
+        <v>0.8765395879745483</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B692" t="n">
-        <v>1.077380537986755</v>
+        <v>0.8866966962814331</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B693" t="n">
-        <v>1.127129554748535</v>
+        <v>1.024816513061523</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B694" t="n">
-        <v>0.9037651419639587</v>
+        <v>0.7741538286209106</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B695" t="n">
-        <v>0.9509571194648743</v>
+        <v>0.6500066518783569</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B696" t="n">
-        <v>0.9324228763580322</v>
+        <v>0.7878881692886353</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B697" t="n">
-        <v>0.9830872416496277</v>
+        <v>1.038371801376343</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B698" t="n">
-        <v>1.132215619087219</v>
+        <v>0.9187608957290649</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B699" t="n">
-        <v>1.005894780158997</v>
+        <v>0.9140253067016602</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B700" t="n">
-        <v>0.8451586961746216</v>
+        <v>0.9402134418487549</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B701" t="n">
-        <v>1.094111084938049</v>
+        <v>0.9892532825469971</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B702" t="n">
-        <v>1.01480770111084</v>
+        <v>0.9956121444702148</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B703" t="n">
-        <v>1.235904097557068</v>
+        <v>1.053865790367126</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B704" t="n">
-        <v>0.926651656627655</v>
+        <v>0.8176931142807007</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B705" t="n">
-        <v>1.176475286483765</v>
+        <v>0.9371817111968994</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B706" t="n">
-        <v>0.9665027856826782</v>
+        <v>0.7949836254119873</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B707" t="n">
-        <v>0.8667523860931396</v>
+        <v>0.9688417911529541</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9105550050735474</v>
+        <v>0.8763023614883423</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B709" t="n">
-        <v>1.003881335258484</v>
+        <v>0.990849494934082</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B710" t="n">
-        <v>1.307234168052673</v>
+        <v>1.07585883140564</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B711" t="n">
-        <v>0.7316204309463501</v>
+        <v>1.08606481552124</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6077,7 +6077,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B712" t="n">
-        <v>1.253966212272644</v>
+        <v>1.120134234428406</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6085,7 +6085,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B713" t="n">
-        <v>0.7780872583389282</v>
+        <v>1.059528589248657</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6093,7 +6093,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B714" t="n">
-        <v>1.196891665458679</v>
+        <v>1.037138700485229</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B715" t="n">
-        <v>1.139195203781128</v>
+        <v>0.999301552772522</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B716" t="n">
-        <v>0.8648678064346313</v>
+        <v>0.9969127178192139</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B717" t="n">
-        <v>1.05932891368866</v>
+        <v>1.114496827125549</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B718" t="n">
-        <v>1.158679723739624</v>
+        <v>1.203234314918518</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B719" t="n">
-        <v>0.8343949913978577</v>
+        <v>0.890587329864502</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B720" t="n">
-        <v>0.7473217844963074</v>
+        <v>1.240275979042053</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B721" t="n">
-        <v>1.060940980911255</v>
+        <v>1.032961249351501</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B722" t="n">
-        <v>1.049714326858521</v>
+        <v>1.238032937049866</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B723" t="n">
-        <v>0.8255200982093811</v>
+        <v>1.320193648338318</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B724" t="n">
-        <v>0.9841684699058533</v>
+        <v>0.9875086545944214</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B725" t="n">
-        <v>0.9088572859764099</v>
+        <v>0.9058554172515869</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B726" t="n">
-        <v>0.8961957693099976</v>
+        <v>0.8699202537536621</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B727" t="n">
-        <v>0.7834683656692505</v>
+        <v>0.9677753448486328</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B728" t="n">
-        <v>1.10161566734314</v>
+        <v>1.26032829284668</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B729" t="n">
-        <v>1.139354348182678</v>
+        <v>1.189720273017883</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B730" t="n">
-        <v>1.119248747825623</v>
+        <v>0.9564939737319946</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B731" t="n">
-        <v>0.8107954859733582</v>
+        <v>1.191799759864807</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6237,7 +6237,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B732" t="n">
-        <v>0.9067960977554321</v>
+        <v>1.042505741119385</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6245,7 +6245,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B733" t="n">
-        <v>0.9788749217987061</v>
+        <v>1.192519783973694</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B734" t="n">
-        <v>1.052298188209534</v>
+        <v>0.9927221536636353</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B735" t="n">
-        <v>1.070960879325867</v>
+        <v>0.8693444728851318</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7752665877342224</v>
+        <v>0.8560038805007935</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6277,7 +6277,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B737" t="n">
-        <v>0.7423203587532043</v>
+        <v>0.9215948581695557</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6285,7 +6285,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B738" t="n">
-        <v>1.216068387031555</v>
+        <v>1.129199981689453</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6293,7 +6293,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B739" t="n">
-        <v>1.16221010684967</v>
+        <v>0.9365625977516174</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6301,7 +6301,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B740" t="n">
-        <v>1.184981465339661</v>
+        <v>1.050373196601868</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6309,7 +6309,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B741" t="n">
-        <v>0.9975923299789429</v>
+        <v>1.152965784072876</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6317,7 +6317,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B742" t="n">
-        <v>1.084928393363953</v>
+        <v>1.009595155715942</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6325,7 +6325,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B743" t="n">
-        <v>0.8407395482063293</v>
+        <v>0.9834945201873779</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6333,7 +6333,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B744" t="n">
-        <v>0.7506497502326965</v>
+        <v>1.068353176116943</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6341,7 +6341,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B745" t="n">
-        <v>1.017309546470642</v>
+        <v>1.026159524917603</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6349,7 +6349,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B746" t="n">
-        <v>1.304531693458557</v>
+        <v>0.9179059267044067</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6357,7 +6357,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B747" t="n">
-        <v>1.070324420928955</v>
+        <v>1.217835545539856</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6365,7 +6365,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B748" t="n">
-        <v>1.115719437599182</v>
+        <v>1.11445689201355</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6373,7 +6373,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B749" t="n">
-        <v>1.019697546958923</v>
+        <v>0.9236990809440613</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6381,7 +6381,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B750" t="n">
-        <v>0.9351677298545837</v>
+        <v>1.173807859420776</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6389,7 +6389,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B751" t="n">
-        <v>0.9847080707550049</v>
+        <v>0.8742417693138123</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6397,7 +6397,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B752" t="n">
-        <v>1.204727172851562</v>
+        <v>1.09757387638092</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6405,7 +6405,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B753" t="n">
-        <v>0.7631630897521973</v>
+        <v>1.165700435638428</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6413,7 +6413,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9092569351196289</v>
+        <v>1.115641713142395</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6421,7 +6421,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B755" t="n">
-        <v>0.8521578907966614</v>
+        <v>1.111466884613037</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6429,7 +6429,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B756" t="n">
-        <v>0.9176750779151917</v>
+        <v>1.256649851799011</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6437,7 +6437,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B757" t="n">
-        <v>0.9871841073036194</v>
+        <v>0.8086240887641907</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B758" t="n">
-        <v>0.7267552018165588</v>
+        <v>1.184394240379333</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B759" t="n">
-        <v>0.9830301403999329</v>
+        <v>1.058391928672791</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B760" t="n">
-        <v>1.241468191146851</v>
+        <v>1.031612396240234</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6469,7 +6469,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B761" t="n">
-        <v>1.011430740356445</v>
+        <v>1.203906416893005</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6477,7 +6477,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B762" t="n">
-        <v>0.967750072479248</v>
+        <v>1.073645710945129</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B763" t="n">
-        <v>0.9343399405479431</v>
+        <v>1.069727659225464</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B764" t="n">
-        <v>0.9855454564094543</v>
+        <v>1.07149600982666</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B765" t="n">
-        <v>0.9889766573905945</v>
+        <v>1.191232323646545</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B766" t="n">
-        <v>0.7962756156921387</v>
+        <v>0.8698775768280029</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B767" t="n">
-        <v>0.8058527112007141</v>
+        <v>0.9143372178077698</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B768" t="n">
-        <v>0.9575760960578918</v>
+        <v>1.421991348266602</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B769" t="n">
-        <v>1.113264918327332</v>
+        <v>0.986024796962738</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B770" t="n">
-        <v>1.28514575958252</v>
+        <v>1.014879465103149</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B771" t="n">
-        <v>0.8555057048797607</v>
+        <v>1.168209314346313</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B772" t="n">
-        <v>0.6493158936500549</v>
+        <v>1.131107568740845</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B773" t="n">
-        <v>0.7700819969177246</v>
+        <v>0.9952095746994019</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B774" t="n">
-        <v>1.215454936027527</v>
+        <v>1.105992436408997</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B775" t="n">
-        <v>0.6408306956291199</v>
+        <v>0.9888004064559937</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B776" t="n">
-        <v>0.8486632108688354</v>
+        <v>1.095972776412964</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B777" t="n">
-        <v>0.8859224915504456</v>
+        <v>1.094093918800354</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B778" t="n">
-        <v>1.139904618263245</v>
+        <v>0.9355951547622681</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B779" t="n">
-        <v>0.9113323092460632</v>
+        <v>1.206244945526123</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B780" t="n">
-        <v>1.090038776397705</v>
+        <v>0.9828908443450928</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B781" t="n">
-        <v>1.006887435913086</v>
+        <v>1.014360666275024</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B782" t="n">
-        <v>0.9789571166038513</v>
+        <v>1.175379872322083</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B783" t="n">
-        <v>1.127527117729187</v>
+        <v>0.9850596785545349</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B784" t="n">
-        <v>1.085217356681824</v>
+        <v>0.9527648687362671</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B785" t="n">
-        <v>0.9100627303123474</v>
+        <v>1.111335515975952</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8813844323158264</v>
+        <v>0.866136908531189</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B787" t="n">
-        <v>0.993975043296814</v>
+        <v>0.8899625539779663</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B788" t="n">
-        <v>1.107985377311707</v>
+        <v>1.090002417564392</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B789" t="n">
-        <v>0.9291489720344543</v>
+        <v>0.9495159387588501</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B790" t="n">
-        <v>0.9475542306900024</v>
+        <v>1.154738068580627</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B791" t="n">
-        <v>1.1910640001297</v>
+        <v>1.234746098518372</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B792" t="n">
-        <v>0.9012614488601685</v>
+        <v>0.9821292161941528</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B793" t="n">
-        <v>1.112593770027161</v>
+        <v>1.017785549163818</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B794" t="n">
-        <v>1.205180168151855</v>
+        <v>1.150430798530579</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B795" t="n">
-        <v>1.031671285629272</v>
+        <v>1.044502377510071</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B796" t="n">
-        <v>1.249614000320435</v>
+        <v>0.8083055019378662</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9827660322189331</v>
+        <v>0.8936529755592346</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B798" t="n">
-        <v>1.060971140861511</v>
+        <v>0.9139517545700073</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B799" t="n">
-        <v>1.108973383903503</v>
+        <v>1.104445695877075</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B800" t="n">
-        <v>0.4942114055156708</v>
+        <v>0.9824451804161072</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B801" t="n">
-        <v>0.8798526525497437</v>
+        <v>1.115124821662903</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6797,7 +6797,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B802" t="n">
-        <v>0.8314552307128906</v>
+        <v>1.026145458221436</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6805,7 +6805,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B803" t="n">
-        <v>1.039393901824951</v>
+        <v>1.139586687088013</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6813,7 +6813,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B804" t="n">
-        <v>1.193421006202698</v>
+        <v>0.9597588181495667</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6821,7 +6821,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B805" t="n">
-        <v>0.5623448491096497</v>
+        <v>0.8520962595939636</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6829,7 +6829,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B806" t="n">
-        <v>1.135271549224854</v>
+        <v>0.8707576394081116</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6837,7 +6837,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B807" t="n">
-        <v>0.8979658484458923</v>
+        <v>1.481541514396667</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6845,7 +6845,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B808" t="n">
-        <v>0.8657546639442444</v>
+        <v>1.115032553672791</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6853,7 +6853,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B809" t="n">
-        <v>0.921746551990509</v>
+        <v>0.928810179233551</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6861,7 +6861,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B810" t="n">
-        <v>0.6911779046058655</v>
+        <v>1.069965124130249</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6869,7 +6869,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B811" t="n">
-        <v>0.8865330815315247</v>
+        <v>1.103256821632385</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6877,7 +6877,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B812" t="n">
-        <v>0.8455710411071777</v>
+        <v>1.246769070625305</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6885,7 +6885,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B813" t="n">
-        <v>1.081747055053711</v>
+        <v>1.052097320556641</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6893,7 +6893,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B814" t="n">
-        <v>0.7988332509994507</v>
+        <v>1.200542569160461</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B815" t="n">
-        <v>1.073609709739685</v>
+        <v>1.062967419624329</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B816" t="n">
-        <v>1.091440558433533</v>
+        <v>1.121226787567139</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B817" t="n">
-        <v>0.9641422033309937</v>
+        <v>1.148464322090149</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B818" t="n">
-        <v>0.4318617880344391</v>
+        <v>1.174835324287415</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B819" t="n">
-        <v>0.7438244223594666</v>
+        <v>1.200750470161438</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B820" t="n">
-        <v>0.8798816204071045</v>
+        <v>1.041461110115051</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B821" t="n">
-        <v>0.7913764119148254</v>
+        <v>0.8668980598449707</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B822" t="n">
-        <v>0.6753565669059753</v>
+        <v>0.8721593022346497</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B823" t="n">
-        <v>0.913324773311615</v>
+        <v>0.9305610060691833</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B824" t="n">
-        <v>0.7612940073013306</v>
+        <v>1.103274345397949</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B825" t="n">
-        <v>0.845858097076416</v>
+        <v>0.9842720031738281</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B826" t="n">
-        <v>0.8725807070732117</v>
+        <v>1.163809657096863</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B827" t="n">
-        <v>1.083315134048462</v>
+        <v>1.1866455078125</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B828" t="n">
-        <v>1.115244030952454</v>
+        <v>1.002460598945618</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B829" t="n">
-        <v>0.8766637444496155</v>
+        <v>1.15355658531189</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B830" t="n">
-        <v>0.6686644554138184</v>
+        <v>1.289477229118347</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7029,7 +7029,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B831" t="n">
-        <v>0.8740097880363464</v>
+        <v>1.126847624778748</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7037,7 +7037,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B832" t="n">
-        <v>1.061196565628052</v>
+        <v>1.053481340408325</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7045,7 +7045,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B833" t="n">
-        <v>0.6454625129699707</v>
+        <v>0.9779548048973083</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7053,7 +7053,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B834" t="n">
-        <v>1.266897916793823</v>
+        <v>1.208376884460449</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7061,7 +7061,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B835" t="n">
-        <v>1.080913305282593</v>
+        <v>0.9599891901016235</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7069,7 +7069,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B836" t="n">
-        <v>0.8924353122711182</v>
+        <v>0.9826822280883789</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B837" t="n">
-        <v>0.57459557056427</v>
+        <v>1.168615341186523</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B838" t="n">
-        <v>0.8684637546539307</v>
+        <v>1.00522518157959</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B839" t="n">
-        <v>1.300094962120056</v>
+        <v>1.081669688224792</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B840" t="n">
-        <v>1.177337408065796</v>
+        <v>1.156885266304016</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B841" t="n">
-        <v>0.7567511200904846</v>
+        <v>1.334644436836243</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B842" t="n">
-        <v>1.527538537979126</v>
+        <v>1.124924898147583</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B843" t="n">
-        <v>1.043269753456116</v>
+        <v>1.118845224380493</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B844" t="n">
-        <v>0.9693472981452942</v>
+        <v>1.313609600067139</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B845" t="n">
-        <v>0.9483002424240112</v>
+        <v>1.302764654159546</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B846" t="n">
-        <v>1.065128207206726</v>
+        <v>1.315544724464417</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B847" t="n">
-        <v>1.00750720500946</v>
+        <v>1.033927321434021</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B848" t="n">
-        <v>1.24906063079834</v>
+        <v>1.148435711860657</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B849" t="n">
-        <v>0.9389751553535461</v>
+        <v>1.120575189590454</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B850" t="n">
-        <v>1.205454230308533</v>
+        <v>1.177074193954468</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B851" t="n">
-        <v>1.090412497520447</v>
+        <v>1.265831232070923</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B852" t="n">
-        <v>0.4832706153392792</v>
+        <v>1.136014103889465</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B853" t="n">
-        <v>0.8582852482795715</v>
+        <v>1.209131598472595</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B854" t="n">
-        <v>0.8227492570877075</v>
+        <v>0.9801272749900818</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B855" t="n">
-        <v>1.032708883285522</v>
+        <v>1.267347574234009</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B856" t="n">
-        <v>1.037899613380432</v>
+        <v>1.193097591400146</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B857" t="n">
-        <v>0.9068951010704041</v>
+        <v>1.069988250732422</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9646919965744019</v>
+        <v>1.16431200504303</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B859" t="n">
-        <v>0.7063092589378357</v>
+        <v>0.989467442035675</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B860" t="n">
-        <v>0.7319728136062622</v>
+        <v>0.9978427886962891</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B861" t="n">
-        <v>0.7718386650085449</v>
+        <v>1.155655145645142</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B862" t="n">
-        <v>0.865999162197113</v>
+        <v>1.092104315757751</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B863" t="n">
-        <v>1.224475502967834</v>
+        <v>1.059207439422607</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7293,7 +7293,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B864" t="n">
-        <v>0.9594556093215942</v>
+        <v>1.057230234146118</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7301,7 +7301,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B865" t="n">
-        <v>0.9836199283599854</v>
+        <v>0.9351963996887207</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7309,7 +7309,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B866" t="n">
-        <v>0.9743414521217346</v>
+        <v>1.09026050567627</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7317,7 +7317,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B867" t="n">
-        <v>1.166131019592285</v>
+        <v>1.124090671539307</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7325,7 +7325,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B868" t="n">
-        <v>1.071929693222046</v>
+        <v>1.323836922645569</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B869" t="n">
-        <v>1.126567244529724</v>
+        <v>1.116084933280945</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B870" t="n">
-        <v>1.390830755233765</v>
+        <v>1.214487075805664</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B871" t="n">
-        <v>0.9896483421325684</v>
+        <v>0.8879836201667786</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B872" t="n">
-        <v>1.04336404800415</v>
+        <v>0.9169817566871643</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B873" t="n">
-        <v>0.7829767465591431</v>
+        <v>1.30391538143158</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6539134383201599</v>
+        <v>0.9313916563987732</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B875" t="n">
-        <v>0.9084702134132385</v>
+        <v>0.9873626232147217</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B876" t="n">
-        <v>1.196986436843872</v>
+        <v>1.08678925037384</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7397,7 +7397,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B877" t="n">
-        <v>1.089855194091797</v>
+        <v>1.384688258171082</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7405,7 +7405,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B878" t="n">
-        <v>0.9912106394767761</v>
+        <v>0.8949734568595886</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7413,7 +7413,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B879" t="n">
-        <v>1.006351828575134</v>
+        <v>1.207584977149963</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7421,7 +7421,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B880" t="n">
-        <v>0.8761311769485474</v>
+        <v>1.420082807540894</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7429,7 +7429,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B881" t="n">
-        <v>0.8159218430519104</v>
+        <v>1.17396867275238</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7437,7 +7437,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B882" t="n">
-        <v>1.119865655899048</v>
+        <v>1.220626354217529</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7445,7 +7445,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B883" t="n">
-        <v>1.0788414478302</v>
+        <v>0.9609046578407288</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7453,7 +7453,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B884" t="n">
-        <v>1.217877626419067</v>
+        <v>1.409272074699402</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7461,7 +7461,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B885" t="n">
-        <v>1.045519113540649</v>
+        <v>1.00736141204834</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7469,7 +7469,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B886" t="n">
-        <v>1.040332555770874</v>
+        <v>1.182600736618042</v>
       </c>
     </row>
   </sheetData>
@@ -7501,10 +7501,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>0.7019214999213477</v>
+        <v>0.87473515715877</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2141651235278681</v>
+        <v>0.1448863355141531</v>
       </c>
     </row>
   </sheetData>
